--- a/VT_REG_PRI.xlsx
+++ b/VT_REG_PRI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_models\DemoS_004\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Caso_Base_Junio_VEDA\CasoBase_Junio_Simulacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F94C905-FFD6-40F7-B2DA-BC54932E2EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716939E3-B8FD-4F6A-8EB0-83A72734B84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -9054,15 +9054,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="General_)"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000%"/>
-    <numFmt numFmtId="169" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="General_)"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="170" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -9639,7 +9639,7 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -9686,7 +9686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -9789,7 +9789,7 @@
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
@@ -9802,7 +9802,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -9811,7 +9811,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
@@ -9831,7 +9831,7 @@
     <xf numFmtId="1" fontId="15" fillId="7" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="7" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="7" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -9847,40 +9847,40 @@
     <xf numFmtId="1" fontId="15" fillId="7" borderId="23" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9889,13 +9889,13 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10011,67 +10011,67 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="16" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="16" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="16" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="16" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="10" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="21" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="21" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="21" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="21" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="28">
-    <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
-    <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="3" builtinId="36"/>
-    <cellStyle name="Accent2" xfId="4" builtinId="33"/>
-    <cellStyle name="Calculation" xfId="5" builtinId="22"/>
+    <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
+    <cellStyle name="40% - Énfasis3" xfId="2" builtinId="39"/>
+    <cellStyle name="60% - Énfasis2" xfId="3" builtinId="36"/>
+    <cellStyle name="Bueno" xfId="7" builtinId="26"/>
+    <cellStyle name="Cálculo" xfId="5" builtinId="22"/>
     <cellStyle name="Comma 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Good" xfId="7" builtinId="26"/>
-    <cellStyle name="Input" xfId="8" builtinId="20"/>
+    <cellStyle name="Énfasis2" xfId="4" builtinId="33"/>
+    <cellStyle name="Entrada" xfId="8" builtinId="20"/>
     <cellStyle name="Neutral" xfId="9" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
@@ -10081,7 +10081,6 @@
     <cellStyle name="Normal 8" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="Normal 9 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Normale_B2020" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Percent" xfId="17" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="Percent 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="Percent 3 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
@@ -10091,6 +10090,7 @@
     <cellStyle name="Percent 4 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
     <cellStyle name="Percent 5" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="Percent 6" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Porcentaje" xfId="17" builtinId="5"/>
     <cellStyle name="Standard_Sce_D_Extraction" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -11174,14 +11174,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -11213,8 +11213,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="12773025" y="2933700"/>
-          <a:ext cx="2619375" cy="1724025"/>
+          <a:off x="12779375" y="3432175"/>
+          <a:ext cx="2619375" cy="1758950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11396,14 +11396,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>539750</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -11435,8 +11435,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1095375" y="2952750"/>
-          <a:ext cx="3600450" cy="1990725"/>
+          <a:off x="1104900" y="3454400"/>
+          <a:ext cx="3600450" cy="2028825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13461,24 +13461,24 @@
       <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.88671875" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="9" customFormat="1">
       <c r="P1" s="36" t="s">
         <v>118</v>
       </c>
@@ -13492,7 +13492,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.6">
       <c r="C2" s="10"/>
       <c r="D2" s="78" t="s">
         <v>47</v>
@@ -13531,7 +13531,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="26.4">
       <c r="C3" s="12"/>
       <c r="D3" s="79" t="s">
         <v>55</v>
@@ -13562,7 +13562,7 @@
       </c>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="C4" s="13" t="s">
         <v>62</v>
       </c>
@@ -13577,7 +13577,7 @@
       <c r="L4" s="12"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="14.4">
       <c r="B5" s="80" t="s">
         <v>63</v>
       </c>
@@ -13615,7 +13615,7 @@
       <c r="M5" s="9"/>
       <c r="P5" s="14"/>
     </row>
-    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="14.4">
       <c r="B6" s="80" t="s">
         <v>65</v>
       </c>
@@ -13652,7 +13652,7 @@
       </c>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="14.4">
       <c r="B7" s="80" t="s">
         <v>67</v>
       </c>
@@ -13690,7 +13690,7 @@
       <c r="M7" s="9"/>
       <c r="P7" s="14"/>
     </row>
-    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="14.4">
       <c r="B8" s="175" t="s">
         <v>208</v>
       </c>
@@ -13735,7 +13735,7 @@
       </c>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="B9" s="72"/>
       <c r="C9" s="13" t="s">
         <v>69</v>
@@ -13751,7 +13751,7 @@
       <c r="L9" s="103"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="B10" s="80" t="s">
         <v>70</v>
       </c>
@@ -13788,7 +13788,7 @@
       </c>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="14.4">
       <c r="B11" s="80" t="s">
         <v>54</v>
       </c>
@@ -13825,7 +13825,7 @@
       </c>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="B12" s="80" t="s">
         <v>73</v>
       </c>
@@ -13862,7 +13862,7 @@
       </c>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="B13" s="80" t="s">
         <v>75</v>
       </c>
@@ -13885,7 +13885,7 @@
       </c>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="14.4">
       <c r="B14" s="72"/>
       <c r="C14" s="102" t="s">
         <v>77</v>
@@ -13928,7 +13928,7 @@
       </c>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="B15" s="72"/>
       <c r="C15" s="13" t="s">
         <v>78</v>
@@ -13944,7 +13944,7 @@
       <c r="L15" s="103"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="14.4">
       <c r="A16" s="9"/>
       <c r="B16" s="80" t="s">
         <v>79</v>
@@ -13982,7 +13982,7 @@
       </c>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="9"/>
       <c r="B17" s="80" t="s">
         <v>81</v>
@@ -14020,7 +14020,7 @@
       </c>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" s="9"/>
       <c r="B18" s="80" t="s">
         <v>83</v>
@@ -14058,7 +14058,7 @@
       </c>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" s="9"/>
       <c r="B19" s="80" t="s">
         <v>85</v>
@@ -14096,7 +14096,7 @@
       </c>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="14.4">
       <c r="A20" s="9"/>
       <c r="B20" s="80" t="s">
         <v>87</v>
@@ -14134,7 +14134,7 @@
       </c>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" s="9"/>
       <c r="B21" s="80" t="s">
         <v>89</v>
@@ -14178,7 +14178,7 @@
       </c>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" s="9"/>
       <c r="B22" s="80" t="s">
         <v>109</v>
@@ -14214,7 +14214,7 @@
       </c>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" s="9"/>
       <c r="B23" s="80" t="s">
         <v>110</v>
@@ -14250,7 +14250,7 @@
       </c>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="14.4">
       <c r="A24" s="9"/>
       <c r="B24" s="175" t="s">
         <v>112</v>
@@ -14297,7 +14297,7 @@
       <c r="M24" s="9"/>
       <c r="N24" s="203"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" s="9"/>
       <c r="D25" s="14"/>
       <c r="F25" s="14"/>
@@ -14309,7 +14309,7 @@
       <c r="L25" s="14"/>
       <c r="M25" s="9"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" s="9"/>
       <c r="D26" s="14"/>
       <c r="F26" s="14"/>
@@ -14321,7 +14321,7 @@
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
     </row>
-    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="14.4">
       <c r="A27" s="9"/>
       <c r="C27" s="94" t="s">
         <v>196</v>
@@ -14337,7 +14337,7 @@
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" s="9"/>
       <c r="D28" s="14"/>
       <c r="F28" s="14"/>
@@ -14349,7 +14349,7 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" s="9"/>
       <c r="D29" s="14"/>
       <c r="F29" s="14"/>
@@ -14361,7 +14361,7 @@
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" s="9"/>
       <c r="D30" s="14"/>
       <c r="F30" s="14"/>
@@ -14373,7 +14373,7 @@
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" s="9"/>
       <c r="D31" s="14"/>
       <c r="F31" s="14"/>
@@ -14385,7 +14385,7 @@
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" s="9"/>
       <c r="D32" s="14"/>
       <c r="F32" s="14"/>
@@ -14397,7 +14397,7 @@
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33" s="9"/>
       <c r="D33" s="14"/>
       <c r="F33" s="14"/>
@@ -14409,7 +14409,7 @@
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" s="9"/>
       <c r="D34" s="14"/>
       <c r="F34" s="14"/>
@@ -14421,7 +14421,7 @@
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35" s="9"/>
       <c r="D35" s="14"/>
       <c r="F35" s="14"/>
@@ -14433,7 +14433,7 @@
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36" s="9"/>
       <c r="D36" s="37" t="s">
         <v>47</v>
@@ -14452,7 +14452,7 @@
       <c r="L36" s="42"/>
       <c r="M36" s="42"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="A37" s="9"/>
       <c r="C37" s="38" t="s">
         <v>154</v>
@@ -14474,7 +14474,7 @@
       <c r="L37" s="43"/>
       <c r="M37" s="43"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="A38" s="9"/>
       <c r="C38" s="40" t="s">
         <v>155</v>
@@ -14496,17 +14496,17 @@
       <c r="L38" s="43"/>
       <c r="M38" s="43"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="A39" s="9"/>
       <c r="C39" s="42"/>
       <c r="D39" s="43"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="A40" s="9"/>
       <c r="C40" s="42"/>
       <c r="D40" s="43"/>
     </row>
-    <row r="41" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="26.4">
       <c r="A41" s="9"/>
       <c r="B41" s="47" t="s">
         <v>130</v>
@@ -14540,7 +14540,7 @@
       </c>
       <c r="L41" s="48"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="A42" s="9"/>
       <c r="B42" s="80" t="s">
         <v>79</v>
@@ -14561,7 +14561,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14">
       <c r="A43" s="9"/>
       <c r="B43" s="80" t="s">
         <v>79</v>
@@ -14582,7 +14582,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="14.4">
       <c r="A44" s="9"/>
       <c r="B44" s="80" t="s">
         <v>79</v>
@@ -14605,7 +14605,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="A45" s="9"/>
       <c r="B45" s="80"/>
       <c r="C45" s="111"/>
@@ -14620,7 +14620,7 @@
       <c r="L45" s="11"/>
       <c r="N45" s="111"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="A46" s="9"/>
       <c r="B46" s="80" t="s">
         <v>81</v>
@@ -14641,7 +14641,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="A47" s="9"/>
       <c r="B47" s="80" t="s">
         <v>81</v>
@@ -14662,7 +14662,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14">
       <c r="A48" s="9"/>
       <c r="B48" s="80"/>
       <c r="C48" s="111"/>
@@ -14677,7 +14677,7 @@
       <c r="L48" s="11"/>
       <c r="N48" s="111"/>
     </row>
-    <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="14.4">
       <c r="A49" s="9"/>
       <c r="B49" s="80" t="s">
         <v>87</v>
@@ -14700,13 +14700,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50" s="9"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51" s="9"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="A52" s="9"/>
       <c r="C52" s="125" t="s">
         <v>144</v>
@@ -14718,7 +14718,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="A53" s="9"/>
       <c r="B53" s="36" t="s">
         <v>158</v>
@@ -14733,7 +14733,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="A54" s="9"/>
       <c r="B54" s="80" t="s">
         <v>79</v>
@@ -14744,7 +14744,7 @@
       <c r="D54" s="122"/>
       <c r="E54" s="122"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14">
       <c r="A55" s="9"/>
       <c r="B55" s="80" t="s">
         <v>87</v>
@@ -14755,7 +14755,7 @@
       <c r="D55" s="122"/>
       <c r="E55" s="122"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="A56" s="9"/>
       <c r="B56" s="80" t="s">
         <v>89</v>
@@ -14766,7 +14766,7 @@
       <c r="D56" s="122"/>
       <c r="E56" s="122"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14">
       <c r="A57" s="9"/>
       <c r="B57" s="80" t="s">
         <v>54</v>
@@ -14792,32 +14792,32 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="3" style="49" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="49" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="49" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="49" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="49" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="49" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="49" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="49" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="49" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="49" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.5703125" style="49" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" style="49" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="49" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="49" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="49" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="49"/>
+    <col min="4" max="4" width="13.88671875" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="49" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="49" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="49" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" style="49" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" style="49" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="49" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" style="49" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.5546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" style="49" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="49" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" style="49" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" style="49" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.44140625" style="49" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="14.4">
       <c r="B1" s="17" t="s">
         <v>94</v>
       </c>
@@ -14838,7 +14838,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="31.2">
       <c r="B2" s="34" t="str">
         <f>EnergyBalance!B8</f>
         <v>TPS</v>
@@ -14875,7 +14875,7 @@
       <c r="S2" s="218"/>
       <c r="T2" s="218"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20">
       <c r="G3" s="51"/>
       <c r="L3" s="221" t="s">
         <v>7</v>
@@ -14905,7 +14905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" s="51" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" s="51" customFormat="1" ht="22.2" thickBot="1">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -14939,7 +14939,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" s="51" customFormat="1" ht="15.6">
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -14966,7 +14966,7 @@
       <c r="S5" s="223"/>
       <c r="T5" s="223"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20">
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -14987,7 +14987,7 @@
       <c r="S8" s="219"/>
       <c r="T8" s="219"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20">
       <c r="B9" s="29" t="s">
         <v>1</v>
       </c>
@@ -15043,7 +15043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" ht="21.6" thickBot="1">
       <c r="B10" s="27" t="s">
         <v>42</v>
       </c>
@@ -15099,7 +15099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" ht="13.8" thickBot="1">
       <c r="B11" s="26" t="s">
         <v>114</v>
       </c>
@@ -15134,7 +15134,7 @@
       <c r="S11" s="211"/>
       <c r="T11" s="211"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20">
       <c r="B12" s="49" t="str">
         <f>N12</f>
         <v>DTPSCOA</v>
@@ -15188,7 +15188,7 @@
       <c r="S12" s="224"/>
       <c r="T12" s="224"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20">
       <c r="D13" s="51"/>
       <c r="E13" s="156"/>
       <c r="F13" s="171"/>
@@ -15206,7 +15206,7 @@
       <c r="S13" s="51"/>
       <c r="T13" s="51"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20">
       <c r="B14" s="53"/>
       <c r="D14" s="53"/>
       <c r="E14" s="151"/>
@@ -15225,7 +15225,7 @@
       <c r="S14" s="51"/>
       <c r="T14" s="51"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20">
       <c r="B15" s="53"/>
       <c r="E15" s="151"/>
       <c r="F15" s="172"/>
@@ -15243,7 +15243,7 @@
       <c r="S15" s="51"/>
       <c r="T15" s="51"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20">
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
       <c r="H16" s="51"/>
@@ -15259,7 +15259,7 @@
       <c r="S16" s="51"/>
       <c r="T16" s="51"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20">
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
@@ -15275,7 +15275,7 @@
       <c r="S17" s="51"/>
       <c r="T17" s="51"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20">
       <c r="I18" s="149"/>
       <c r="L18" s="51"/>
       <c r="M18" s="51"/>
@@ -15287,7 +15287,7 @@
       <c r="S18" s="51"/>
       <c r="T18" s="51"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20">
       <c r="I19" s="149"/>
       <c r="L19" s="51"/>
       <c r="M19" s="51"/>
@@ -15299,7 +15299,7 @@
       <c r="S19" s="51"/>
       <c r="T19" s="51"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20">
       <c r="L20" s="51"/>
       <c r="M20" s="51"/>
       <c r="N20" s="51"/>
@@ -15310,7 +15310,7 @@
       <c r="S20" s="51"/>
       <c r="T20" s="51"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20">
       <c r="L21" s="51"/>
       <c r="M21" s="51"/>
       <c r="N21" s="51"/>
@@ -15321,7 +15321,7 @@
       <c r="S21" s="51"/>
       <c r="T21" s="51"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20">
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
       <c r="N22" s="51"/>
@@ -15332,28 +15332,28 @@
       <c r="S22" s="51"/>
       <c r="T22" s="51"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20">
       <c r="B23" s="139"/>
       <c r="C23" s="50" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20">
       <c r="B24" s="174"/>
       <c r="C24" s="50" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20">
       <c r="K25" s="50"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20">
       <c r="K26" s="50"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20">
       <c r="K27" s="50"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20">
       <c r="K28" s="50"/>
     </row>
   </sheetData>
@@ -15371,32 +15371,32 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="3" style="49" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="49" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="49" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="49" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="49" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="49" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="49" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="49" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="49" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="49" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.5703125" style="49" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.42578125" style="49" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="49" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="49" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="49" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="49"/>
+    <col min="4" max="4" width="13.88671875" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="49" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="49" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="49" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" style="49" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" style="49" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="49" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" style="49" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.5546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.44140625" style="49" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="49" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" style="49" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" style="49" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.44140625" style="49" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="14.4">
       <c r="B1" s="17" t="s">
         <v>94</v>
       </c>
@@ -15416,7 +15416,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="31.2">
       <c r="B2" s="20" t="str">
         <f>EnergyBalance!B8</f>
         <v>TPS</v>
@@ -15452,7 +15452,7 @@
       <c r="S2" s="218"/>
       <c r="T2" s="218"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20">
       <c r="L3" s="221" t="s">
         <v>7</v>
       </c>
@@ -15481,7 +15481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" s="51" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" s="51" customFormat="1" ht="22.2" thickBot="1">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -15515,7 +15515,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" s="51" customFormat="1" ht="15.6">
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -15542,7 +15542,7 @@
       <c r="S5" s="223"/>
       <c r="T5" s="223"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20">
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -15563,7 +15563,7 @@
       <c r="S8" s="219"/>
       <c r="T8" s="219"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20">
       <c r="B9" s="29" t="s">
         <v>1</v>
       </c>
@@ -15619,7 +15619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" ht="21.6" thickBot="1">
       <c r="B10" s="27" t="s">
         <v>42</v>
       </c>
@@ -15675,7 +15675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" ht="13.8" thickBot="1">
       <c r="B11" s="26" t="s">
         <v>114</v>
       </c>
@@ -15710,7 +15710,7 @@
       <c r="S11" s="211"/>
       <c r="T11" s="211"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20">
       <c r="B12" s="49" t="str">
         <f>N12</f>
         <v>DTPSELC</v>
@@ -15764,7 +15764,7 @@
       <c r="S12" s="224"/>
       <c r="T12" s="224"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20">
       <c r="D13" s="51"/>
       <c r="E13" s="156"/>
       <c r="F13" s="171"/>
@@ -15782,7 +15782,7 @@
       <c r="S13" s="51"/>
       <c r="T13" s="51"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20">
       <c r="B14" s="53"/>
       <c r="D14" s="53"/>
       <c r="E14" s="151"/>
@@ -15801,7 +15801,7 @@
       <c r="S14" s="51"/>
       <c r="T14" s="51"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20">
       <c r="B15" s="53"/>
       <c r="E15" s="151"/>
       <c r="F15" s="172"/>
@@ -15819,7 +15819,7 @@
       <c r="S15" s="51"/>
       <c r="T15" s="51"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20">
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
       <c r="H16" s="51"/>
@@ -15835,7 +15835,7 @@
       <c r="S16" s="51"/>
       <c r="T16" s="51"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20">
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
@@ -15851,7 +15851,7 @@
       <c r="S17" s="51"/>
       <c r="T17" s="51"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20">
       <c r="I18" s="149"/>
       <c r="L18" s="51"/>
       <c r="M18" s="51"/>
@@ -15863,7 +15863,7 @@
       <c r="S18" s="51"/>
       <c r="T18" s="51"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20">
       <c r="I19" s="149"/>
       <c r="L19" s="51"/>
       <c r="M19" s="51"/>
@@ -15875,7 +15875,7 @@
       <c r="S19" s="51"/>
       <c r="T19" s="51"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20">
       <c r="L20" s="51"/>
       <c r="M20" s="51"/>
       <c r="N20" s="51"/>
@@ -15886,7 +15886,7 @@
       <c r="S20" s="51"/>
       <c r="T20" s="51"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20">
       <c r="L21" s="51"/>
       <c r="M21" s="51"/>
       <c r="N21" s="51"/>
@@ -15897,7 +15897,7 @@
       <c r="S21" s="51"/>
       <c r="T21" s="51"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20">
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
       <c r="N22" s="51"/>
@@ -15908,28 +15908,28 @@
       <c r="S22" s="51"/>
       <c r="T22" s="51"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20">
       <c r="B23" s="139"/>
       <c r="C23" s="50" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20">
       <c r="B24" s="174"/>
       <c r="C24" s="50" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20">
       <c r="K25" s="50"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20">
       <c r="K26" s="50"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20">
       <c r="K27" s="50"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20">
       <c r="K28" s="50"/>
     </row>
   </sheetData>
@@ -15947,33 +15947,33 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="58" customWidth="1"/>
     <col min="13" max="13" width="2" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="79.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" customWidth="1"/>
+    <col min="17" max="17" width="79.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.109375" customWidth="1"/>
     <col min="19" max="19" width="12" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" customWidth="1"/>
     <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="14.4">
       <c r="B1" s="17" t="s">
         <v>94</v>
       </c>
@@ -15999,7 +15999,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="31.2">
       <c r="B2" s="20" t="str">
         <f>EnergyBalance!B20</f>
         <v>TRA</v>
@@ -16040,7 +16040,7 @@
       <c r="U2" s="208"/>
       <c r="V2" s="208"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22">
       <c r="N3" s="209" t="s">
         <v>7</v>
       </c>
@@ -16069,7 +16069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" s="9" customFormat="1" ht="22.2" thickBot="1">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -16104,7 +16104,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:22" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" s="9" customFormat="1" ht="15.6">
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -16132,7 +16132,7 @@
       <c r="U5" s="212"/>
       <c r="V5" s="212"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:22">
       <c r="N6" s="214" t="s">
         <v>143</v>
       </c>
@@ -16154,7 +16154,7 @@
       <c r="U6" s="214"/>
       <c r="V6" s="214"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22">
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -16177,7 +16177,7 @@
       <c r="U8" s="214"/>
       <c r="V8" s="214"/>
     </row>
-    <row r="9" spans="2:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22">
       <c r="B9" s="29" t="s">
         <v>1</v>
       </c>
@@ -16239,7 +16239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" ht="21.6" thickBot="1">
       <c r="B10" s="27" t="s">
         <v>42</v>
       </c>
@@ -16299,7 +16299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" ht="13.8" thickBot="1">
       <c r="B11" s="26" t="s">
         <v>114</v>
       </c>
@@ -16351,7 +16351,7 @@
       <c r="U11" s="213"/>
       <c r="V11" s="213"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22">
       <c r="B12" t="str">
         <f>P11</f>
         <v>TOTEOIL</v>
@@ -16404,7 +16404,7 @@
       <c r="U12" s="214"/>
       <c r="V12" s="214"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:22">
       <c r="D13" t="str">
         <f>$P$6</f>
         <v>TRACO2</v>
@@ -16427,7 +16427,7 @@
       <c r="U13" s="16"/>
       <c r="V13" s="9"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22">
       <c r="B14" s="11" t="str">
         <f>P12</f>
         <v>TOTNOIL</v>
@@ -16471,7 +16471,7 @@
       <c r="U14" s="16"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:22">
       <c r="B15" s="11"/>
       <c r="D15" t="str">
         <f>$P$6</f>
@@ -16498,10 +16498,10 @@
       <c r="U15" s="16"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:22">
       <c r="L16"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22">
       <c r="L17"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
@@ -16513,7 +16513,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22">
       <c r="L18"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -16525,7 +16525,7 @@
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22">
       <c r="L19"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -16537,7 +16537,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22">
       <c r="L20"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -16549,7 +16549,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22">
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
@@ -16560,7 +16560,7 @@
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22">
       <c r="B23" s="85"/>
       <c r="C23" s="1" t="s">
         <v>197</v>
@@ -16568,7 +16568,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22">
       <c r="B24" s="130"/>
       <c r="C24" s="1" t="s">
         <v>198</v>
@@ -16577,13 +16577,13 @@
       <c r="L24" s="15"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22">
       <c r="A25" s="11"/>
       <c r="K25" s="1"/>
       <c r="L25" s="15"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" s="11" customFormat="1">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -16607,11 +16607,11 @@
       <c r="U26"/>
       <c r="V26"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22">
       <c r="E27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22">
       <c r="E28" s="1"/>
     </row>
   </sheetData>
@@ -16629,33 +16629,33 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="62.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="2.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="62.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.109375" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" customWidth="1"/>
+    <col min="20" max="20" width="13.44140625" customWidth="1"/>
+    <col min="21" max="21" width="13.88671875" customWidth="1"/>
+    <col min="22" max="22" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="14.4">
       <c r="B1" s="17" t="s">
         <v>94</v>
       </c>
@@ -16678,7 +16678,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="31.2">
       <c r="B2" s="20" t="str">
         <f>EnergyBalance!B16</f>
         <v>RSD</v>
@@ -16717,7 +16717,7 @@
       <c r="U2" s="208"/>
       <c r="V2" s="208"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22">
       <c r="N3" s="209" t="s">
         <v>7</v>
       </c>
@@ -16746,7 +16746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" s="9" customFormat="1" ht="22.2" thickBot="1">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -16780,7 +16780,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:22" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" s="9" customFormat="1" ht="15.6">
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -16807,7 +16807,7 @@
       <c r="U5" s="212"/>
       <c r="V5" s="212"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:22">
       <c r="N6" s="214" t="s">
         <v>143</v>
       </c>
@@ -16829,7 +16829,7 @@
       <c r="U6" s="214"/>
       <c r="V6" s="214"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22">
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -16851,7 +16851,7 @@
       <c r="U8" s="214"/>
       <c r="V8" s="214"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22">
       <c r="B9" s="29" t="s">
         <v>1</v>
       </c>
@@ -16913,7 +16913,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" ht="21.6" thickBot="1">
       <c r="B10" s="27" t="s">
         <v>42</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" ht="13.8" thickBot="1">
       <c r="B11" s="26" t="s">
         <v>114</v>
       </c>
@@ -17013,7 +17013,7 @@
       <c r="U11" s="211"/>
       <c r="V11" s="211"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22">
       <c r="B12" t="str">
         <f>P12</f>
         <v>ROTEGAS</v>
@@ -17067,7 +17067,7 @@
       <c r="U12" s="213"/>
       <c r="V12" s="213"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:22">
       <c r="D13" t="str">
         <f>$P$6</f>
         <v>RSDCO2</v>
@@ -17102,7 +17102,7 @@
       <c r="U13" s="213"/>
       <c r="V13" s="213"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22">
       <c r="B14" s="11" t="str">
         <f>P13</f>
         <v>ROTNGAS</v>
@@ -17145,7 +17145,7 @@
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:22">
       <c r="B15" s="11"/>
       <c r="D15" t="str">
         <f>$P$6</f>
@@ -17172,7 +17172,7 @@
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:22">
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
@@ -17183,7 +17183,7 @@
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:22">
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
@@ -17194,7 +17194,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:22">
       <c r="I18" s="25"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -17206,7 +17206,7 @@
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:22">
       <c r="I19" s="25"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -17218,7 +17218,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:22">
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
@@ -17229,7 +17229,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:22">
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
@@ -17240,7 +17240,7 @@
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:22">
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
@@ -17251,35 +17251,35 @@
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:22">
       <c r="B23" s="85"/>
       <c r="C23" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:22">
       <c r="B24" s="130"/>
       <c r="C24" s="1" t="s">
         <v>198</v>
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:22">
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:22">
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:22">
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:22">
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
@@ -17294,27 +17294,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B1:Q23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="11.33203125" customWidth="1"/>
     <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="14.4">
       <c r="B1" s="17" t="s">
         <v>94</v>
       </c>
@@ -17331,7 +17331,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="15.6">
       <c r="B2" s="20" t="s">
         <v>105</v>
       </c>
@@ -17346,7 +17346,7 @@
         <v>M€2005</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17">
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
@@ -17357,7 +17357,7 @@
       </c>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17">
       <c r="B6" s="4" t="s">
         <v>102</v>
       </c>
@@ -17395,7 +17395,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" ht="21">
       <c r="B7" s="27" t="s">
         <v>103</v>
       </c>
@@ -17427,7 +17427,7 @@
       <c r="P7" s="27"/>
       <c r="Q7" s="27"/>
     </row>
-    <row r="8" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" ht="13.8" thickBot="1">
       <c r="B8" s="26" t="s">
         <v>114</v>
       </c>
@@ -17450,7 +17450,7 @@
       <c r="P8" s="26"/>
       <c r="Q8" s="26"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17">
       <c r="B9" s="62" t="s">
         <v>35</v>
       </c>
@@ -17485,7 +17485,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17">
       <c r="B10" s="11" t="s">
         <v>35</v>
       </c>
@@ -17520,7 +17520,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17">
       <c r="B11" s="11" t="s">
         <v>35</v>
       </c>
@@ -17555,7 +17555,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17">
       <c r="B12" s="46" t="s">
         <v>35</v>
       </c>
@@ -17606,22 +17606,22 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17">
       <c r="E13" s="56"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17">
       <c r="E14" s="14"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17">
       <c r="E16" s="14"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3">
       <c r="B22" s="85"/>
       <c r="C22" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3">
       <c r="B23" s="130"/>
       <c r="C23" s="1" t="s">
         <v>198</v>
@@ -17637,67 +17637,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AF33" sqref="AF33"/>
+    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AF49" sqref="AF49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" customWidth="1"/>
-    <col min="23" max="23" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" customWidth="1"/>
+    <col min="23" max="23" width="5.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="17.399999999999999">
       <c r="B2" s="145" t="s">
         <v>216</v>
       </c>
       <c r="M2" s="145"/>
     </row>
-    <row r="4" spans="2:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="17.399999999999999">
       <c r="B4" s="145" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15">
       <c r="B6" s="47" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15">
       <c r="M11" s="147"/>
       <c r="N11" s="147"/>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15">
       <c r="M12" s="9"/>
       <c r="N12" s="16"/>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15">
       <c r="M13" s="9"/>
       <c r="N13" s="16"/>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15">
       <c r="M14" s="9"/>
       <c r="N14" s="16"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15">
       <c r="M15" s="9"/>
       <c r="N15" s="16"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15">
       <c r="M16" s="9"/>
       <c r="N16" s="16"/>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" ht="17.399999999999999">
       <c r="B17" s="145" t="s">
         <v>217</v>
       </c>
@@ -17705,7 +17705,7 @@
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:27">
       <c r="D19" s="146" t="s">
         <v>200</v>
       </c>
@@ -17742,30 +17742,30 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="35" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="6.5546875" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="14.4">
       <c r="B1" s="44" t="s">
         <v>94</v>
       </c>
@@ -17783,7 +17783,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="15.6">
       <c r="B2" s="20"/>
       <c r="C2" s="20" t="str">
         <f>EnergyBalance!D2</f>
@@ -17813,7 +17813,7 @@
       <c r="R2" s="208"/>
       <c r="S2" s="208"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20">
       <c r="K3" s="209" t="s">
         <v>7</v>
       </c>
@@ -17842,7 +17842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" ht="21.6" thickBot="1">
       <c r="C4" s="1"/>
       <c r="K4" s="211" t="s">
         <v>40</v>
@@ -17872,7 +17872,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20">
       <c r="K5" s="212" t="s">
         <v>93</v>
       </c>
@@ -17894,7 +17894,7 @@
       <c r="R5" s="212"/>
       <c r="S5" s="212"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20">
       <c r="K6" s="16"/>
       <c r="L6" s="9"/>
       <c r="M6" s="16"/>
@@ -17905,7 +17905,7 @@
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20">
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
@@ -17922,7 +17922,7 @@
       <c r="R7" s="214"/>
       <c r="S7" s="214"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -17975,7 +17975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" ht="21.6" thickBot="1">
       <c r="B9" s="26" t="s">
         <v>42</v>
       </c>
@@ -18024,7 +18024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" ht="13.8" thickBot="1">
       <c r="B10" s="26" t="s">
         <v>114</v>
       </c>
@@ -18056,7 +18056,7 @@
       <c r="R10" s="215"/>
       <c r="S10" s="215"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20">
       <c r="B11" s="16" t="str">
         <f>M11</f>
         <v>MINCOA1</v>
@@ -18101,7 +18101,7 @@
       <c r="R11" s="213"/>
       <c r="S11" s="213"/>
     </row>
-    <row r="12" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" s="9" customFormat="1">
       <c r="B12" s="16" t="str">
         <f>M12</f>
         <v>MINCOA2</v>
@@ -18142,7 +18142,7 @@
       <c r="R12" s="213"/>
       <c r="S12" s="213"/>
     </row>
-    <row r="13" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" s="9" customFormat="1">
       <c r="B13" s="16" t="str">
         <f>M13</f>
         <v>MINCOA3</v>
@@ -18180,7 +18180,7 @@
       <c r="R13" s="213"/>
       <c r="S13" s="213"/>
     </row>
-    <row r="14" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" s="9" customFormat="1">
       <c r="B14" s="16" t="str">
         <f>M14</f>
         <v>IMPCOA1</v>
@@ -18219,7 +18219,7 @@
       <c r="R14" s="213"/>
       <c r="S14" s="213"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20">
       <c r="B15" s="16" t="str">
         <f>M15</f>
         <v>EXPCOA1</v>
@@ -18265,7 +18265,7 @@
       <c r="S15" s="213"/>
       <c r="T15" s="9"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="9"/>
@@ -18284,7 +18284,7 @@
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -18303,7 +18303,7 @@
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
     </row>
-    <row r="18" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" s="9" customFormat="1">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -18314,7 +18314,7 @@
       <c r="I18"/>
       <c r="T18"/>
     </row>
-    <row r="19" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" s="9" customFormat="1">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -18324,7 +18324,7 @@
       <c r="H19"/>
       <c r="I19"/>
     </row>
-    <row r="20" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" s="9" customFormat="1">
       <c r="B20" s="133"/>
       <c r="C20" s="1" t="s">
         <v>197</v>
@@ -18336,7 +18336,7 @@
       <c r="H20"/>
       <c r="I20"/>
     </row>
-    <row r="21" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" s="9" customFormat="1">
       <c r="B21" s="130"/>
       <c r="C21" s="1" t="s">
         <v>198</v>
@@ -18348,17 +18348,17 @@
       <c r="H21"/>
       <c r="I21"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20">
       <c r="J22" s="9"/>
       <c r="T22" s="9"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20">
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20">
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" s="1" customFormat="1">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -18379,10 +18379,10 @@
       <c r="S25"/>
       <c r="T25"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20">
       <c r="T26" s="1"/>
     </row>
-    <row r="28" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" s="9" customFormat="1">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -18403,7 +18403,7 @@
       <c r="S28"/>
       <c r="T28"/>
     </row>
-    <row r="29" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:20" s="9" customFormat="1">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -18423,7 +18423,7 @@
       <c r="R29"/>
       <c r="S29"/>
     </row>
-    <row r="30" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20" s="9" customFormat="1">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -18443,7 +18443,7 @@
       <c r="R30"/>
       <c r="S30"/>
     </row>
-    <row r="31" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:20" s="9" customFormat="1">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -18454,7 +18454,7 @@
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20" s="9" customFormat="1">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -18465,7 +18465,7 @@
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" s="9" customFormat="1">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -18476,7 +18476,7 @@
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" s="9" customFormat="1">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
@@ -18496,7 +18496,7 @@
       <c r="R34"/>
       <c r="S34"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:20">
       <c r="T35" s="9"/>
     </row>
   </sheetData>
@@ -18516,30 +18516,30 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
     <col min="10" max="10" width="2" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="35" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="14.4">
       <c r="B1" s="44" t="s">
         <v>94</v>
       </c>
@@ -18557,7 +18557,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="15.6">
       <c r="B2" s="20"/>
       <c r="C2" s="20" t="str">
         <f>EnergyBalance!E2</f>
@@ -18587,7 +18587,7 @@
       <c r="R2" s="208"/>
       <c r="S2" s="208"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20">
       <c r="K3" s="209" t="s">
         <v>7</v>
       </c>
@@ -18616,7 +18616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" ht="21.6" thickBot="1">
       <c r="C4" s="1"/>
       <c r="K4" s="211" t="s">
         <v>40</v>
@@ -18646,7 +18646,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20">
       <c r="K5" s="212" t="s">
         <v>93</v>
       </c>
@@ -18668,7 +18668,7 @@
       <c r="R5" s="212"/>
       <c r="S5" s="212"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20">
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
@@ -18685,7 +18685,7 @@
       <c r="R7" s="214"/>
       <c r="S7" s="214"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -18738,7 +18738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:20" s="9" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" s="9" customFormat="1" ht="21.6" thickBot="1">
       <c r="B9" s="26" t="s">
         <v>42</v>
       </c>
@@ -18787,7 +18787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:20" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" s="9" customFormat="1" ht="13.8" thickBot="1">
       <c r="B10" s="26" t="s">
         <v>114</v>
       </c>
@@ -18819,7 +18819,7 @@
       <c r="R10" s="215"/>
       <c r="S10" s="215"/>
     </row>
-    <row r="11" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" s="9" customFormat="1">
       <c r="B11" s="16" t="str">
         <f>M11</f>
         <v>MINGAS1</v>
@@ -18863,7 +18863,7 @@
       <c r="R11" s="213"/>
       <c r="S11" s="213"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20">
       <c r="B12" s="16" t="str">
         <f>M12</f>
         <v>MINGAS2</v>
@@ -18906,7 +18906,7 @@
       <c r="S12" s="213"/>
       <c r="T12" s="9"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20">
       <c r="B13" s="16" t="str">
         <f>M13</f>
         <v>MINGAS3</v>
@@ -18946,7 +18946,7 @@
       <c r="R13" s="213"/>
       <c r="S13" s="213"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20">
       <c r="B14" s="16" t="str">
         <f>M14</f>
         <v>IMPGAS1</v>
@@ -18985,7 +18985,7 @@
       <c r="R14" s="213"/>
       <c r="S14" s="213"/>
     </row>
-    <row r="15" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" s="9" customFormat="1">
       <c r="B15" s="16" t="str">
         <f>M15</f>
         <v>EXPGAS1</v>
@@ -19033,7 +19033,7 @@
       <c r="S15" s="213"/>
       <c r="T15"/>
     </row>
-    <row r="16" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" s="9" customFormat="1">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="E16" s="16"/>
@@ -19041,11 +19041,11 @@
       <c r="G16" s="15"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" s="9" customFormat="1">
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" s="9" customFormat="1"/>
+    <row r="19" spans="2:20" s="9" customFormat="1">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -19054,7 +19054,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20">
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -19068,7 +19068,7 @@
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20">
       <c r="I21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -19080,14 +19080,14 @@
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20">
       <c r="B22" s="133"/>
       <c r="C22" s="1" t="s">
         <v>197</v>
       </c>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" s="1" customFormat="1">
       <c r="B23" s="130"/>
       <c r="C23" s="1" t="s">
         <v>198</v>
@@ -19110,15 +19110,15 @@
       <c r="S23"/>
       <c r="T23"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20">
       <c r="I24" s="9"/>
       <c r="J24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20">
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" s="9" customFormat="1">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -19138,7 +19138,7 @@
       <c r="S26"/>
       <c r="T26"/>
     </row>
-    <row r="27" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20" s="9" customFormat="1">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -19157,7 +19157,7 @@
       <c r="R27"/>
       <c r="S27"/>
     </row>
-    <row r="28" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" s="9" customFormat="1">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -19176,7 +19176,7 @@
       <c r="R28"/>
       <c r="S28"/>
     </row>
-    <row r="29" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:20" s="9" customFormat="1">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -19195,7 +19195,7 @@
       <c r="R29"/>
       <c r="S29"/>
     </row>
-    <row r="30" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20" s="9" customFormat="1">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -19214,7 +19214,7 @@
       <c r="R30"/>
       <c r="S30"/>
     </row>
-    <row r="31" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:20" s="9" customFormat="1">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -19233,7 +19233,7 @@
       <c r="R31"/>
       <c r="S31"/>
     </row>
-    <row r="32" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20" s="9" customFormat="1">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -19252,7 +19252,7 @@
       <c r="R32"/>
       <c r="S32"/>
     </row>
-    <row r="33" spans="2:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" s="9" customFormat="1">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -19271,7 +19271,7 @@
       <c r="R33"/>
       <c r="S33"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20">
       <c r="J34" s="9"/>
       <c r="T34" s="9"/>
     </row>
@@ -19292,30 +19292,30 @@
       <selection activeCell="G46" sqref="G46:G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="51.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5546875" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:25" ht="14.4">
       <c r="B1" s="44" t="s">
         <v>94</v>
       </c>
@@ -19333,7 +19333,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:25" ht="15.6">
       <c r="B2" s="20"/>
       <c r="C2" s="20" t="str">
         <f>EnergyBalance!F2</f>
@@ -19363,7 +19363,7 @@
       <c r="R2" s="208"/>
       <c r="S2" s="208"/>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:25">
       <c r="K3" s="209" t="s">
         <v>7</v>
       </c>
@@ -19392,7 +19392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:25" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:25" ht="21.6" thickBot="1">
       <c r="C4" s="1"/>
       <c r="K4" s="211" t="s">
         <v>40</v>
@@ -19424,7 +19424,7 @@
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:25">
       <c r="K5" s="212" t="s">
         <v>93</v>
       </c>
@@ -19451,14 +19451,14 @@
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:25">
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:25">
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
@@ -19477,7 +19477,7 @@
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:25">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -19530,7 +19530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:25" ht="21.6" thickBot="1">
       <c r="B9" s="26" t="s">
         <v>42</v>
       </c>
@@ -19580,7 +19580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:25" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:25" s="9" customFormat="1" ht="13.8" thickBot="1">
       <c r="B10" s="26" t="s">
         <v>114</v>
       </c>
@@ -19615,7 +19615,7 @@
       <c r="X10"/>
       <c r="Y10"/>
     </row>
-    <row r="11" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" s="9" customFormat="1">
       <c r="B11" s="16" t="str">
         <f>M11</f>
         <v>MINOIL1</v>
@@ -19659,7 +19659,7 @@
       <c r="R11" s="213"/>
       <c r="S11" s="213"/>
     </row>
-    <row r="12" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:25" s="9" customFormat="1">
       <c r="B12" s="16" t="str">
         <f>M12</f>
         <v>MINOIL2</v>
@@ -19700,7 +19700,7 @@
       <c r="R12" s="213"/>
       <c r="S12" s="213"/>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:25">
       <c r="B13" s="16" t="str">
         <f>M13</f>
         <v>MINOIL3</v>
@@ -19744,7 +19744,7 @@
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:25">
       <c r="B14" s="16" t="str">
         <f>M14</f>
         <v>IMPOIL1</v>
@@ -19788,7 +19788,7 @@
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:25">
       <c r="B15" s="16" t="str">
         <f>M15</f>
         <v>EXPOIL1</v>
@@ -19836,7 +19836,7 @@
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
     </row>
-    <row r="16" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" s="9" customFormat="1">
       <c r="F16" s="16"/>
       <c r="I16" s="23"/>
       <c r="T16"/>
@@ -19845,7 +19845,7 @@
       <c r="X16"/>
       <c r="Y16"/>
     </row>
-    <row r="17" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:25" s="9" customFormat="1">
       <c r="F17" s="16"/>
       <c r="H17" s="206"/>
       <c r="U17"/>
@@ -19854,7 +19854,7 @@
       <c r="X17"/>
       <c r="Y17"/>
     </row>
-    <row r="18" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:25" s="9" customFormat="1">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -19866,7 +19866,7 @@
       <c r="X18"/>
       <c r="Y18"/>
     </row>
-    <row r="19" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:25" s="9" customFormat="1">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -19881,7 +19881,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:25" s="9" customFormat="1">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -19896,7 +19896,7 @@
       <c r="X20"/>
       <c r="Y20"/>
     </row>
-    <row r="21" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:25" s="9" customFormat="1">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -19912,7 +19912,7 @@
       <c r="X21"/>
       <c r="Y21"/>
     </row>
-    <row r="22" spans="2:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:25" s="9" customFormat="1">
       <c r="B22" s="133"/>
       <c r="C22" s="1" t="s">
         <v>197</v>
@@ -19939,38 +19939,38 @@
       <c r="X22"/>
       <c r="Y22"/>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:25">
       <c r="B23" s="130"/>
       <c r="C23" s="1" t="s">
         <v>198</v>
       </c>
       <c r="T23" s="9"/>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:25">
       <c r="J24" s="1"/>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:25">
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:25">
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:25">
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:25">
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:25">
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:25">
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="10:10">
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="10:10">
       <c r="J34" s="9"/>
     </row>
   </sheetData>
@@ -19990,31 +19990,31 @@
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="2" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="49" customWidth="1"/>
-    <col min="10" max="10" width="2.5703125" style="49" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.5703125" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="49" customWidth="1"/>
+    <col min="10" max="10" width="2.5546875" style="49" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.5546875" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="49"/>
+    <col min="20" max="16384" width="8.88671875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="14.4">
       <c r="B1" s="44" t="s">
         <v>94</v>
       </c>
@@ -20032,7 +20032,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="15.6">
       <c r="B2" s="20"/>
       <c r="C2" s="20" t="str">
         <f>EnergyBalance!H2</f>
@@ -20062,7 +20062,7 @@
       <c r="R2" s="208"/>
       <c r="S2" s="208"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20">
       <c r="H3" s="19"/>
       <c r="K3" s="209" t="s">
         <v>7</v>
@@ -20092,7 +20092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" ht="21.6" thickBot="1">
       <c r="B4" s="1"/>
       <c r="K4" s="211" t="s">
         <v>40</v>
@@ -20122,7 +20122,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20">
       <c r="K5" s="212" t="s">
         <v>93</v>
       </c>
@@ -20144,7 +20144,7 @@
       <c r="R5" s="212"/>
       <c r="S5" s="212"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20">
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
@@ -20162,7 +20162,7 @@
       <c r="R7" s="214"/>
       <c r="S7" s="214"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -20215,7 +20215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" ht="21.6" thickBot="1">
       <c r="B9" s="26" t="s">
         <v>42</v>
       </c>
@@ -20264,7 +20264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:20" s="51" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" s="51" customFormat="1" ht="13.8" thickBot="1">
       <c r="B10" s="26" t="s">
         <v>114</v>
       </c>
@@ -20298,7 +20298,7 @@
       <c r="S10" s="215"/>
       <c r="T10" s="49"/>
     </row>
-    <row r="11" spans="2:20" s="51" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" s="51" customFormat="1">
       <c r="B11" s="16" t="str">
         <f>M11</f>
         <v>MINRNW1</v>
@@ -20335,7 +20335,7 @@
       <c r="R11" s="213"/>
       <c r="S11" s="213"/>
     </row>
-    <row r="12" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" s="51" customFormat="1">
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -20354,7 +20354,7 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20">
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -20375,7 +20375,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="51"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20">
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -20394,7 +20394,7 @@
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -20413,7 +20413,7 @@
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
     </row>
-    <row r="16" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" s="51" customFormat="1">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="9"/>
@@ -20434,7 +20434,7 @@
       <c r="S16" s="9"/>
       <c r="T16" s="49"/>
     </row>
-    <row r="17" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" s="51" customFormat="1">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -20452,7 +20452,7 @@
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -20473,7 +20473,7 @@
       <c r="S18" s="9"/>
       <c r="T18" s="51"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -20491,7 +20491,7 @@
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
     </row>
-    <row r="20" spans="2:20" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" s="50" customFormat="1" ht="19.5" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -20512,7 +20512,7 @@
       <c r="S20" s="9"/>
       <c r="T20" s="49"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -20533,7 +20533,7 @@
       <c r="S21" s="9"/>
       <c r="T21" s="50"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20">
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -20544,7 +20544,7 @@
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" s="51" customFormat="1">
       <c r="B23" s="85"/>
       <c r="C23" s="1" t="s">
         <v>197</v>
@@ -20567,7 +20567,7 @@
       <c r="S23"/>
       <c r="T23" s="49"/>
     </row>
-    <row r="24" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" s="51" customFormat="1">
       <c r="B24" s="130"/>
       <c r="C24" s="1" t="s">
         <v>198</v>
@@ -20587,7 +20587,7 @@
       <c r="R24"/>
       <c r="S24"/>
     </row>
-    <row r="25" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" s="51" customFormat="1">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -20605,44 +20605,44 @@
       <c r="R25"/>
       <c r="S25"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20">
       <c r="I26" s="51"/>
       <c r="J26" s="51"/>
       <c r="T26" s="51"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20">
       <c r="I30" s="52"/>
       <c r="J30" s="52"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:20">
       <c r="I31" s="52"/>
       <c r="J31" s="52"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20">
       <c r="I32" s="52"/>
       <c r="J32" s="52"/>
     </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="9:10">
       <c r="I33" s="52"/>
       <c r="J33" s="52"/>
     </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:10">
       <c r="I34" s="52"/>
       <c r="J34" s="52"/>
     </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="9:10">
       <c r="I35" s="52"/>
       <c r="J35" s="52"/>
     </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:10">
       <c r="I36" s="52"/>
       <c r="J36" s="52"/>
     </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="9:10">
       <c r="I37" s="52"/>
       <c r="J37" s="52"/>
     </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="9:10">
       <c r="I38" s="52"/>
       <c r="J38" s="52"/>
     </row>
@@ -20663,31 +20663,31 @@
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="2" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
     <col min="10" max="10" width="2" style="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="49"/>
+    <col min="20" max="16384" width="8.88671875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="14.4">
       <c r="B1" s="44" t="s">
         <v>94</v>
       </c>
@@ -20705,7 +20705,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="15.6">
       <c r="B2" s="20"/>
       <c r="C2" s="20" t="str">
         <f>EnergyBalance!G2</f>
@@ -20735,7 +20735,7 @@
       <c r="R2" s="208"/>
       <c r="S2" s="208"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20">
       <c r="H3" s="19"/>
       <c r="K3" s="209" t="s">
         <v>7</v>
@@ -20765,7 +20765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" ht="21.6" thickBot="1">
       <c r="B4" s="1"/>
       <c r="K4" s="211" t="s">
         <v>40</v>
@@ -20795,7 +20795,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20">
       <c r="K5" s="212" t="s">
         <v>93</v>
       </c>
@@ -20817,7 +20817,7 @@
       <c r="R5" s="212"/>
       <c r="S5" s="212"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20">
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
@@ -20834,7 +20834,7 @@
       <c r="R7" s="214"/>
       <c r="S7" s="214"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -20887,7 +20887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" ht="21.6" thickBot="1">
       <c r="B9" s="26" t="s">
         <v>42</v>
       </c>
@@ -20936,7 +20936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:20" s="51" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" s="51" customFormat="1" ht="13.8" thickBot="1">
       <c r="B10" s="26" t="s">
         <v>114</v>
       </c>
@@ -20970,7 +20970,7 @@
       <c r="S10" s="215"/>
       <c r="T10" s="49"/>
     </row>
-    <row r="11" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" s="51" customFormat="1">
       <c r="B11" s="16" t="str">
         <f>M11</f>
         <v>MINNUC1</v>
@@ -21007,7 +21007,7 @@
       <c r="R11" s="213"/>
       <c r="S11" s="213"/>
     </row>
-    <row r="12" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" s="51" customFormat="1">
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -21026,7 +21026,7 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20">
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -21047,7 +21047,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="51"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20">
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -21066,7 +21066,7 @@
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -21085,7 +21085,7 @@
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
     </row>
-    <row r="16" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" s="51" customFormat="1">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="9"/>
@@ -21106,7 +21106,7 @@
       <c r="S16" s="9"/>
       <c r="T16" s="49"/>
     </row>
-    <row r="17" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" s="51" customFormat="1">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -21125,7 +21125,7 @@
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -21146,7 +21146,7 @@
       <c r="S18" s="9"/>
       <c r="T18" s="51"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -21165,7 +21165,7 @@
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
     </row>
-    <row r="20" spans="2:20" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" s="50" customFormat="1" ht="19.5" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -21186,7 +21186,7 @@
       <c r="S20" s="9"/>
       <c r="T20" s="49"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -21207,7 +21207,7 @@
       <c r="S21" s="9"/>
       <c r="T21" s="50"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20">
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -21218,7 +21218,7 @@
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" s="51" customFormat="1">
       <c r="B23" s="85"/>
       <c r="C23" s="1" t="s">
         <v>197</v>
@@ -21241,7 +21241,7 @@
       <c r="S23"/>
       <c r="T23" s="49"/>
     </row>
-    <row r="24" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" s="51" customFormat="1">
       <c r="B24" s="130"/>
       <c r="C24" s="1" t="s">
         <v>198</v>
@@ -21262,7 +21262,7 @@
       <c r="R24"/>
       <c r="S24"/>
     </row>
-    <row r="25" spans="2:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" s="51" customFormat="1">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -21281,35 +21281,35 @@
       <c r="R25"/>
       <c r="S25"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20">
       <c r="J26" s="51"/>
       <c r="T26" s="51"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20">
       <c r="J30" s="52"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:20">
       <c r="J31" s="52"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20">
       <c r="J32" s="52"/>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="10:10">
       <c r="J33" s="52"/>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="10:10">
       <c r="J34" s="52"/>
     </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="10:10">
       <c r="J35" s="52"/>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="10:10">
       <c r="J36" s="52"/>
     </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="10:10">
       <c r="J37" s="52"/>
     </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="10:10">
       <c r="J38" s="52"/>
     </row>
   </sheetData>
@@ -21329,28 +21329,28 @@
       <selection activeCell="B26" sqref="B26:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
-    <col min="8" max="8" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="64.42578125" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="64.44140625" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="14.4">
       <c r="B1" s="17" t="s">
         <v>94</v>
       </c>
@@ -21370,7 +21370,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="15.6">
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20" t="s">
@@ -21399,7 +21399,7 @@
       <c r="P2" s="208"/>
       <c r="Q2" s="208"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17">
       <c r="I3" s="209" t="s">
         <v>7</v>
       </c>
@@ -21428,7 +21428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:17" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" s="9" customFormat="1" ht="22.2" thickBot="1">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -21462,7 +21462,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -21489,7 +21489,7 @@
       <c r="P5" s="213"/>
       <c r="Q5" s="213"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -21514,7 +21514,7 @@
       <c r="P6" s="213"/>
       <c r="Q6" s="213"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -21539,7 +21539,7 @@
       <c r="P7" s="213"/>
       <c r="Q7" s="213"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -21564,7 +21564,7 @@
       <c r="P8" s="213"/>
       <c r="Q8" s="213"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -21589,7 +21589,7 @@
       <c r="P9" s="213"/>
       <c r="Q9" s="213"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -21614,7 +21614,7 @@
       <c r="P10" s="213"/>
       <c r="Q10" s="213"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -21639,11 +21639,11 @@
       <c r="P11" s="213"/>
       <c r="Q11" s="213"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17">
       <c r="K12" s="52"/>
       <c r="L12" s="54"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17">
       <c r="D13" s="7" t="s">
         <v>13</v>
       </c>
@@ -21661,7 +21661,7 @@
       <c r="P13" s="214"/>
       <c r="Q13" s="214"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17">
       <c r="B14" s="29" t="s">
         <v>1</v>
       </c>
@@ -21708,7 +21708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" ht="21.6" thickBot="1">
       <c r="B15" s="27" t="s">
         <v>42</v>
       </c>
@@ -21755,7 +21755,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" ht="13.8" thickBot="1">
       <c r="B16" s="26" t="s">
         <v>114</v>
       </c>
@@ -21781,7 +21781,7 @@
       <c r="P16" s="215"/>
       <c r="Q16" s="215"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17">
       <c r="B17" t="str">
         <f t="shared" ref="B17:B23" si="1">K17</f>
         <v>FTE-RSDGAS</v>
@@ -21825,7 +21825,7 @@
       <c r="P17" s="213"/>
       <c r="Q17" s="213"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17">
       <c r="B18" t="str">
         <f t="shared" si="1"/>
         <v>FTE-TRAOIL</v>
@@ -21867,7 +21867,7 @@
       <c r="P18" s="213"/>
       <c r="Q18" s="213"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17">
       <c r="B19" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCCOA</v>
@@ -21909,7 +21909,7 @@
       <c r="P19" s="213"/>
       <c r="Q19" s="213"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17">
       <c r="B20" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCGAS</v>
@@ -21951,7 +21951,7 @@
       <c r="P20" s="213"/>
       <c r="Q20" s="213"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17">
       <c r="B21" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCOIL</v>
@@ -21993,7 +21993,7 @@
       <c r="P21" s="213"/>
       <c r="Q21" s="213"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17">
       <c r="B22" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCRNW</v>
@@ -22035,7 +22035,7 @@
       <c r="P22" s="213"/>
       <c r="Q22" s="213"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17">
       <c r="B23" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCNUC</v>
@@ -22077,7 +22077,7 @@
       <c r="P23" s="213"/>
       <c r="Q23" s="213"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17">
       <c r="E24" s="9"/>
       <c r="I24" s="50"/>
       <c r="J24" s="49"/>
@@ -22085,14 +22085,14 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17">
       <c r="I25" s="49"/>
       <c r="J25" s="49"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17">
       <c r="B26" s="85"/>
       <c r="C26" s="1" t="s">
         <v>197</v>
@@ -22103,7 +22103,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17">
       <c r="B27" s="130"/>
       <c r="C27" s="1" t="s">
         <v>198</v>
@@ -22114,7 +22114,7 @@
       <c r="P27" s="58"/>
       <c r="Q27" s="9"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17">
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -22141,40 +22141,40 @@
       <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="3" style="49" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="49" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="49" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="49" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="49" customWidth="1"/>
     <col min="7" max="7" width="10" style="49" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="49" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="49" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="49" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="49" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" style="49" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="49" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="49" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" style="49" customWidth="1"/>
     <col min="13" max="13" width="7" style="49" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="49" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="49" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="49" customWidth="1"/>
-    <col min="17" max="17" width="2.28515625" style="52" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="52" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" style="49" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" style="49" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" style="49" customWidth="1"/>
+    <col min="17" max="17" width="2.33203125" style="52" customWidth="1"/>
+    <col min="18" max="18" width="13.44140625" style="52" customWidth="1"/>
     <col min="19" max="19" width="2" style="52" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.140625" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.109375" customWidth="1"/>
     <col min="23" max="23" width="55" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" customWidth="1"/>
+    <col min="25" max="25" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.85546875" style="49"/>
+    <col min="28" max="28" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.88671875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:28" ht="28.8">
       <c r="B1" s="44" t="s">
         <v>94</v>
       </c>
@@ -22200,7 +22200,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="2:28" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:28" ht="31.2">
       <c r="B2" s="20" t="str">
         <f>EnergyBalance!B11</f>
         <v>ELC</v>
@@ -22241,7 +22241,7 @@
       <c r="AA2" s="208"/>
       <c r="AB2" s="208"/>
     </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:28">
       <c r="T3" s="209" t="s">
         <v>7</v>
       </c>
@@ -22270,7 +22270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:28" s="51" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:28" s="51" customFormat="1" ht="22.2" thickBot="1">
       <c r="B4" s="60" t="s">
         <v>167</v>
       </c>
@@ -22318,7 +22318,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:28" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:28" s="51" customFormat="1" ht="15.6">
       <c r="B5" s="59" t="s">
         <v>173</v>
       </c>
@@ -22363,7 +22363,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:28">
       <c r="T6" s="214" t="s">
         <v>143</v>
       </c>
@@ -22385,11 +22385,11 @@
       <c r="AA6" s="214"/>
       <c r="AB6" s="214"/>
     </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:28">
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:28">
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -22417,7 +22417,7 @@
       <c r="AA8" s="208"/>
       <c r="AB8" s="208"/>
     </row>
-    <row r="9" spans="2:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:28" ht="25.5" customHeight="1">
       <c r="B9" s="29" t="s">
         <v>1</v>
       </c>
@@ -22496,7 +22496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:28" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:28" ht="23.4" customHeight="1" thickBot="1">
       <c r="B10" s="27" t="s">
         <v>42</v>
       </c>
@@ -22573,7 +22573,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:28" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:28" ht="21.6" thickBot="1">
       <c r="B11" s="26" t="s">
         <v>114</v>
       </c>
@@ -22631,7 +22631,7 @@
       <c r="AA11" s="211"/>
       <c r="AB11" s="211"/>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:28">
       <c r="B12" s="49" t="str">
         <f>V12</f>
         <v>ELCTECOA00</v>
@@ -22703,7 +22703,7 @@
       <c r="AA12" s="213"/>
       <c r="AB12" s="213"/>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:28">
       <c r="D13" s="49" t="str">
         <f>$V$6</f>
         <v>ELCCO2</v>
@@ -22746,7 +22746,7 @@
       <c r="AA13" s="213"/>
       <c r="AB13" s="213"/>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:28">
       <c r="B14" s="49" t="str">
         <f>V13</f>
         <v>ELCTEGAS00</v>
@@ -22815,7 +22815,7 @@
       <c r="AA14" s="213"/>
       <c r="AB14" s="213"/>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:28">
       <c r="D15" s="49" t="str">
         <f>$V$6</f>
         <v>ELCCO2</v>
@@ -22858,7 +22858,7 @@
       <c r="AA15" s="213"/>
       <c r="AB15" s="213"/>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:28">
       <c r="B16" s="49" t="str">
         <f>V14</f>
         <v>ELCTEOIL00</v>
@@ -22930,7 +22930,7 @@
       <c r="AA16" s="213"/>
       <c r="AB16" s="213"/>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:28">
       <c r="D17" s="49" t="str">
         <f>$V$6</f>
         <v>ELCCO2</v>
@@ -22977,7 +22977,7 @@
       <c r="AA17" s="213"/>
       <c r="AB17" s="213"/>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:28">
       <c r="B18" s="49" t="str">
         <f>V15</f>
         <v>ELCRERNW00</v>
@@ -23045,7 +23045,7 @@
       <c r="AA18" s="213"/>
       <c r="AB18" s="213"/>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:28">
       <c r="B19" s="188" t="str">
         <f>V16</f>
         <v>ELCTENUC00</v>
@@ -23116,7 +23116,7 @@
       <c r="AA19" s="213"/>
       <c r="AB19" s="213"/>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:28">
       <c r="B20" s="49" t="str">
         <f>V17</f>
         <v>ELCTNCOA00</v>
@@ -23172,7 +23172,7 @@
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:28">
       <c r="D21" s="49" t="str">
         <f>$V$6</f>
         <v>ELCCO2</v>
@@ -23194,7 +23194,7 @@
       <c r="Q21" s="49"/>
       <c r="R21" s="49"/>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:28">
       <c r="B22" s="49" t="str">
         <f>V18</f>
         <v>ELCTNGAS00</v>
@@ -23238,7 +23238,7 @@
       <c r="Q22" s="49"/>
       <c r="R22" s="49"/>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:28">
       <c r="D23" s="49" t="str">
         <f>$V$6</f>
         <v>ELCCO2</v>
@@ -23258,7 +23258,7 @@
       <c r="Q23" s="49"/>
       <c r="R23" s="49"/>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:28">
       <c r="B24" s="49" t="str">
         <f>V19</f>
         <v>ELCTNOIL00</v>
@@ -23302,7 +23302,7 @@
       <c r="Q24" s="49"/>
       <c r="R24" s="49"/>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:28">
       <c r="D25" s="49" t="str">
         <f>$V$6</f>
         <v>ELCCO2</v>
@@ -23321,16 +23321,16 @@
       <c r="Q25" s="49"/>
       <c r="R25" s="49"/>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:28">
       <c r="R27" s="186"/>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:28">
       <c r="R28" s="204"/>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:28">
       <c r="R29" s="186"/>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:28">
       <c r="R30" s="205"/>
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
@@ -23340,7 +23340,7 @@
       <c r="Y30" s="9"/>
       <c r="Z30" s="16"/>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:28">
       <c r="B31" s="85"/>
       <c r="C31" s="1" t="s">
         <v>197</v>
@@ -23353,7 +23353,7 @@
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:28">
       <c r="B32" s="130"/>
       <c r="C32" s="1" t="s">
         <v>198</v>
@@ -23367,7 +23367,7 @@
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
     </row>
-    <row r="33" spans="20:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="20:27">
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
@@ -23376,7 +23376,7 @@
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
     </row>
-    <row r="34" spans="20:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="20:27">
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
@@ -23386,7 +23386,7 @@
       <c r="Z34" s="16"/>
       <c r="AA34" s="212"/>
     </row>
-    <row r="35" spans="20:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="20:27">
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
@@ -23395,7 +23395,7 @@
       <c r="Y35" s="9"/>
       <c r="Z35" s="16"/>
     </row>
-    <row r="36" spans="20:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="20:27">
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
@@ -23404,7 +23404,7 @@
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
     </row>
-    <row r="37" spans="20:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="20:27">
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>

--- a/VT_REG_PRI.xlsx
+++ b/VT_REG_PRI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Caso_Base_Junio_VEDA\CasoBase_Junio_Simulacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716939E3-B8FD-4F6A-8EB0-83A72734B84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A28AE1-ACD8-4C24-A8C8-D9D0BA749E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -19,17 +19,16 @@
     <sheet name="Pri_GAS" sheetId="136" r:id="rId4"/>
     <sheet name="Pri_OIL" sheetId="137" r:id="rId5"/>
     <sheet name="Pri_RNW" sheetId="142" r:id="rId6"/>
-    <sheet name="Pri_NUC" sheetId="144" r:id="rId7"/>
-    <sheet name="Sector_Fuels" sheetId="140" r:id="rId8"/>
-    <sheet name="Con_ELC" sheetId="143" r:id="rId9"/>
-    <sheet name="DemTechs_TPS" sheetId="145" r:id="rId10"/>
-    <sheet name="DemTechs_ELC" sheetId="146" r:id="rId11"/>
-    <sheet name="DemTechs_TRA" sheetId="141" r:id="rId12"/>
-    <sheet name="DemTechs_RSD" sheetId="138" r:id="rId13"/>
-    <sheet name="Demands" sheetId="134" r:id="rId14"/>
+    <sheet name="Sector_Fuels" sheetId="140" r:id="rId7"/>
+    <sheet name="Con_ELC" sheetId="143" r:id="rId8"/>
+    <sheet name="DemTechs_TPS" sheetId="145" r:id="rId9"/>
+    <sheet name="DemTechs_ELC" sheetId="146" r:id="rId10"/>
+    <sheet name="DemTechs_TRA" sheetId="141" r:id="rId11"/>
+    <sheet name="DemTechs_RSD" sheetId="138" r:id="rId12"/>
+    <sheet name="Demands" sheetId="134" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
@@ -80,7 +79,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -194,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
+    <comment ref="S3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -220,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -293,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
+    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000004000000}">
       <text>
         <r>
           <rPr>
@@ -346,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
+    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000005000000}">
       <text>
         <r>
           <rPr>
@@ -379,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000006000000}">
+    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000006000000}">
       <text>
         <r>
           <rPr>
@@ -472,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000007000000}">
+    <comment ref="U9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000007000000}">
       <text>
         <r>
           <rPr>
@@ -497,7 +496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000008000000}">
+    <comment ref="V9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000008000000}">
       <text>
         <r>
           <rPr>
@@ -560,7 +559,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000009000000}">
+    <comment ref="N10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000009000000}">
       <text>
         <r>
           <rPr>
@@ -808,741 +807,6 @@
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Gary Goldstein</author>
-    <author>Amit Kanudia</author>
-    <author>Maurizio Gargiulo</author>
-  </authors>
-  <commentList>
-    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Csets declarations are inherited until the next one is encountered.
-Allowed Cset:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>NRG</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (Energy)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ENV</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (Emission)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DEM</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (Demand)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>MAT</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (Material)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>FIN</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (Financial)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Amit Kanudia:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LO for PRODUCTION &gt;= CONSUMPTION (Default)
-FX for PRODUCTION = CONSUMPTION
-UP for PRODUCTION &lt;= CONSUMPTION</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Allowed CTSLvl</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-SEASON</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (Seasonal level)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-WEEKLY</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (Weekly level)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-DAYNITE</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (day and night level)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Allowed PeakTS</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-ANNUAL </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(to generate Peak Equation for all the TimeSlices)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-User TS </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(to generate Peak Equation for a single TS)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Allowed Ctype
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ELC</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (Electricity)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Allowed TsLvl
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ANNUAL</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (Annual level)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>SEASON</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (Seasonal level)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>WEEKLY</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (Weekly level)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DAYNITE</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (day and night level)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Amit Kanudia:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Needed only when one wants to override the VEDA default assignment
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Allowed Vintage</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-NO</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (if empty by default mean </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>NO</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-YES</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Sets declarations are </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>inherited. 
-Allowed Process Sets</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-ELE </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(Thermal Electric Power Plant)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-CHP </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(Combined Heat and Power)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-STGTSS </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(Pump Storage)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-STGIPS</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (Pump Storage IP)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-PRE </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(Genric Process/Technology)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-DMD</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (Demand Device)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-IMP </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">(Import)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>EXP</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (Export)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-MIN </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(Mining Process)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-RNW </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(Renewable Technology)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-HPL</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (Heating Plant)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
@@ -5413,7 +4677,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -5527,7 +4791,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -5553,7 +4817,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -5626,7 +4890,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -5679,7 +4943,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
       <text>
         <r>
           <rPr>
@@ -5712,7 +4976,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
+    <comment ref="O14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000006000000}">
       <text>
         <r>
           <rPr>
@@ -5721,8 +4985,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">This attribute is used to assign a production limit.
-By defautt is defined like fixed share
+          <t xml:space="preserve">Allowed TsLvl
 </t>
         </r>
         <r>
@@ -5733,17 +4996,16 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>UP</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-If you want fix or lower add
+          <t>ANNUAL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Annual level)
 </t>
         </r>
         <r>
@@ -5754,105 +5016,60 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>~FX
-~LO</t>
+          <t>SEASON</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Seasonal level)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WEEKLY</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Weekly level)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DAYNITE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (day and night level)</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Allowed TsLvl
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ANNUAL</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (Annual level)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>SEASON</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (Seasonal level)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>WEEKLY</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (Weekly level)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DAYNITE</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (day and night level)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
+    <comment ref="P14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000007000000}">
       <text>
         <r>
           <rPr>
@@ -5877,7 +5094,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000009000000}">
+    <comment ref="Q14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000008000000}">
       <text>
         <r>
           <rPr>
@@ -5940,7 +5157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000A000000}">
+    <comment ref="I15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000009000000}">
       <text>
         <r>
           <rPr>
@@ -6195,7 +5412,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="T3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -6309,7 +5526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
+    <comment ref="Y3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -6335,7 +5552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
+    <comment ref="Z3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -6408,7 +5625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
+    <comment ref="AA3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
       <text>
         <r>
           <rPr>
@@ -6461,7 +5678,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
+    <comment ref="AB3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000005000000}">
       <text>
         <r>
           <rPr>
@@ -6494,7 +5711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000006000000}">
+    <comment ref="Z9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000006000000}">
       <text>
         <r>
           <rPr>
@@ -6587,7 +5804,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000007000000}">
+    <comment ref="AA9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000007000000}">
       <text>
         <r>
           <rPr>
@@ -6612,7 +5829,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000008000000}">
+    <comment ref="AB9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000008000000}">
       <text>
         <r>
           <rPr>
@@ -6675,7 +5892,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000009000000}">
+    <comment ref="T10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000009000000}">
       <text>
         <r>
           <rPr>
@@ -6930,7 +6147,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="T3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -7044,7 +6261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
+    <comment ref="Q3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
       <text>
         <r>
           <rPr>
@@ -7070,7 +6287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
       <text>
         <r>
           <rPr>
@@ -7143,7 +6360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000004000000}">
       <text>
         <r>
           <rPr>
@@ -7196,7 +6413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000005000000}">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000005000000}">
       <text>
         <r>
           <rPr>
@@ -7229,7 +6446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000006000000}">
+    <comment ref="R9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000006000000}">
       <text>
         <r>
           <rPr>
@@ -7322,7 +6539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000007000000}">
+    <comment ref="S9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000007000000}">
       <text>
         <r>
           <rPr>
@@ -7347,7 +6564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000008000000}">
+    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000008000000}">
       <text>
         <r>
           <rPr>
@@ -7410,7 +6627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000009000000}">
+    <comment ref="L10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000009000000}">
       <text>
         <r>
           <rPr>
@@ -7665,7 +6882,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -7779,7 +6996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
+    <comment ref="Q3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -7805,7 +7022,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -7878,7 +7095,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000004000000}">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
       <text>
         <r>
           <rPr>
@@ -7931,7 +7148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000005000000}">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
       <text>
         <r>
           <rPr>
@@ -7964,7 +7181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000006000000}">
+    <comment ref="R9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000006000000}">
       <text>
         <r>
           <rPr>
@@ -8057,7 +7274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000007000000}">
+    <comment ref="S9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000007000000}">
       <text>
         <r>
           <rPr>
@@ -8082,7 +7299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000008000000}">
+    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000008000000}">
       <text>
         <r>
           <rPr>
@@ -8145,7 +7362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000009000000}">
+    <comment ref="L10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000009000000}">
       <text>
         <r>
           <rPr>
@@ -8393,7 +7610,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="218">
   <si>
     <t>CommName</t>
   </si>
@@ -9662,7 +8879,7 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9980,15 +9197,6 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -10002,24 +9210,17 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="10" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="10" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="17" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="10" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="16" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="25" fillId="12" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="16" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="16" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="16" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="16" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="10" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="15" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -10300,7 +9501,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29BE0642-CEB5-4FD8-8D0C-BE9FEB4F6A28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368E1D87-51B5-474C-8F25-CC1515947172}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10440,165 +9641,6 @@
 </file>
 
 <file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>173354</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>57254</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368E1D87-51B5-474C-8F25-CC1515947172}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6863714" y="3124200"/>
-          <a:ext cx="6246600" cy="836295"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Declare  total primary supply coal demand commodity and (FI_COMM table) and define demand</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> technology</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> option (FI_Process table).</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Construct a demand</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> technology to deliver the  total primary supply coal demand</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10805,7 +9847,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10988,7 +10030,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11174,14 +10216,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>358775</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -11213,8 +10255,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="12779375" y="3432175"/>
-          <a:ext cx="2619375" cy="1758950"/>
+          <a:off x="12773025" y="2933700"/>
+          <a:ext cx="2619375" cy="1724025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11396,14 +10438,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -11435,8 +10477,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1104900" y="3454400"/>
-          <a:ext cx="3600450" cy="2028825"/>
+          <a:off x="1095375" y="2952750"/>
+          <a:ext cx="3600450" cy="1990725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12448,134 +11490,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2482215</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29A9CF37-F7D4-49AB-949A-700B5D810A69}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6305550" y="3267075"/>
-          <a:ext cx="4577715" cy="895350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Declare nuclear an energy commodity (FI_COMM table) and define each supply option (FI_Process table).</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Construct a</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> technology to make available the nuclear commodity.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>32385</xdr:colOff>
       <xdr:row>24</xdr:row>
@@ -12731,7 +11645,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12954,6 +11868,165 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t> the additional capacity needed for the reserve equation (5%)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>173354</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57254</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29BE0642-CEB5-4FD8-8D0C-BE9FEB4F6A28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6863714" y="3124200"/>
+          <a:ext cx="6246600" cy="836295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Declare  total primary supply coal demand commodity and (FI_COMM table) and define demand</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> technology</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> option (FI_Process table).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Construct a demand</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> technology to deliver the  total primary supply coal demand</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1100">
             <a:solidFill>
@@ -14295,7 +13368,7 @@
         <v>59791.438999999998</v>
       </c>
       <c r="M24" s="9"/>
-      <c r="N24" s="203"/>
+      <c r="N24" s="193"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="9"/>
@@ -14785,585 +13858,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="B1:T28"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="3" style="49" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="49" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="49" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" style="49" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" style="49" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" style="49" customWidth="1"/>
-    <col min="11" max="11" width="2.6640625" style="49" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="49" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.109375" style="49" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.5546875" style="49" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.33203125" style="49" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" style="49" customWidth="1"/>
-    <col min="18" max="18" width="14.33203125" style="49" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" style="49" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.44140625" style="49" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="49"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:20" ht="14.4">
-      <c r="B1" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="180"/>
-      <c r="H1" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="2:20" ht="31.2">
-      <c r="B2" s="34" t="str">
-        <f>EnergyBalance!B8</f>
-        <v>TPS</v>
-      </c>
-      <c r="C2" s="34" t="str">
-        <f>EnergyBalance!C8</f>
-        <v>Total Primary Supply</v>
-      </c>
-      <c r="D2" s="34" t="str">
-        <f>"Demand Technology"</f>
-        <v>Demand Technology</v>
-      </c>
-      <c r="E2" s="20" t="str">
-        <f>EnergyBalance!R2</f>
-        <v>PJ</v>
-      </c>
-      <c r="F2" s="20" t="str">
-        <f>EnergyBalance!Q2</f>
-        <v>M€2005</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="L2" s="220" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="220"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="218"/>
-      <c r="P2" s="218"/>
-      <c r="Q2" s="218"/>
-      <c r="R2" s="218"/>
-      <c r="S2" s="218"/>
-      <c r="T2" s="218"/>
-    </row>
-    <row r="3" spans="2:20">
-      <c r="G3" s="51"/>
-      <c r="L3" s="221" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="222" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="221" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="221" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="221" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="221" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="221" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" s="221" t="s">
-        <v>10</v>
-      </c>
-      <c r="T3" s="221" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20" s="51" customFormat="1" ht="22.2" thickBot="1">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="L4" s="211" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="211" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="211" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="211" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="211" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="211" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="211" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="211" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="211" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" s="51" customFormat="1" ht="15.6">
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="L5" s="223" t="s">
-        <v>105</v>
-      </c>
-      <c r="M5" s="224"/>
-      <c r="N5" s="223" t="str">
-        <f>B2&amp;EnergyBalance!D2</f>
-        <v>TPSCOA</v>
-      </c>
-      <c r="O5" s="223" t="str">
-        <f>LEFT($D$2,6)&amp;" "&amp;$C$2&amp;" - "&amp;EnergyBalance!D2</f>
-        <v>Demand Total Primary Supply - COA</v>
-      </c>
-      <c r="P5" s="223" t="str">
-        <f>$E$2</f>
-        <v>PJ</v>
-      </c>
-      <c r="Q5" s="223"/>
-      <c r="R5" s="223"/>
-      <c r="S5" s="223"/>
-      <c r="T5" s="223"/>
-    </row>
-    <row r="8" spans="2:20">
-      <c r="D8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="6"/>
-      <c r="L8" s="220" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="220"/>
-      <c r="N8" s="219"/>
-      <c r="O8" s="219"/>
-      <c r="P8" s="219"/>
-      <c r="Q8" s="219"/>
-      <c r="R8" s="219"/>
-      <c r="S8" s="219"/>
-      <c r="T8" s="219"/>
-    </row>
-    <row r="9" spans="2:20">
-      <c r="B9" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="160" t="s">
-        <v>205</v>
-      </c>
-      <c r="F9" s="159" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="159" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="159" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" s="159" t="s">
-        <v>107</v>
-      </c>
-      <c r="J9" s="160" t="s">
-        <v>101</v>
-      </c>
-      <c r="L9" s="221" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" s="222" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="221" t="s">
-        <v>1</v>
-      </c>
-      <c r="O9" s="221" t="s">
-        <v>2</v>
-      </c>
-      <c r="P9" s="221" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="221" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" s="221" t="s">
-        <v>18</v>
-      </c>
-      <c r="S9" s="221" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" s="221" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" ht="21.6" thickBot="1">
-      <c r="B10" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="G10" s="181" t="s">
-        <v>125</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="L10" s="211" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="211" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="211" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="211" t="s">
-        <v>22</v>
-      </c>
-      <c r="P10" s="211" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" s="211" t="s">
-        <v>24</v>
-      </c>
-      <c r="R10" s="211" t="s">
-        <v>46</v>
-      </c>
-      <c r="S10" s="211" t="s">
-        <v>45</v>
-      </c>
-      <c r="T10" s="211" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" ht="13.8" thickBot="1">
-      <c r="B11" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="24" t="str">
-        <f>E2&amp;"a"</f>
-        <v>PJa</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="24" t="str">
-        <f>$F$2&amp;"/"&amp;$E$2</f>
-        <v>M€2005/PJ</v>
-      </c>
-      <c r="I11" s="24" t="str">
-        <f>$F$2&amp;"/"&amp;$E$2&amp;"a"</f>
-        <v>M€2005/PJa</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="L11" s="211" t="s">
-        <v>103</v>
-      </c>
-      <c r="M11" s="211"/>
-      <c r="N11" s="211"/>
-      <c r="O11" s="211"/>
-      <c r="P11" s="211"/>
-      <c r="Q11" s="211"/>
-      <c r="R11" s="211"/>
-      <c r="S11" s="211"/>
-      <c r="T11" s="211"/>
-    </row>
-    <row r="12" spans="2:20">
-      <c r="B12" s="49" t="str">
-        <f>N12</f>
-        <v>DTPSCOA</v>
-      </c>
-      <c r="C12" s="49" t="str">
-        <f>RIGHT(B12,3)</f>
-        <v>COA</v>
-      </c>
-      <c r="D12" s="49" t="str">
-        <f>$N$5</f>
-        <v>TPSCOA</v>
-      </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="140">
-        <v>1</v>
-      </c>
-      <c r="G12" s="140">
-        <v>0.95</v>
-      </c>
-      <c r="H12" s="139">
-        <v>10</v>
-      </c>
-      <c r="I12" s="140">
-        <f>H12*0.02</f>
-        <v>0.2</v>
-      </c>
-      <c r="J12" s="139">
-        <v>20</v>
-      </c>
-      <c r="L12" s="223" t="s">
-        <v>123</v>
-      </c>
-      <c r="M12" s="224"/>
-      <c r="N12" s="224" t="str">
-        <f>LEFT(L12,1)&amp;B2&amp;RIGHT(O12,3)</f>
-        <v>DTPSCOA</v>
-      </c>
-      <c r="O12" s="225" t="str">
-        <f>$D$2&amp;" "&amp;$C$2&amp;" - "&amp;EnergyBalance!D2</f>
-        <v>Demand Technology Total Primary Supply - COA</v>
-      </c>
-      <c r="P12" s="224" t="str">
-        <f>$E$2</f>
-        <v>PJ</v>
-      </c>
-      <c r="Q12" s="224" t="str">
-        <f>$E$2&amp;"a"</f>
-        <v>PJa</v>
-      </c>
-      <c r="R12" s="224"/>
-      <c r="S12" s="224"/>
-      <c r="T12" s="224"/>
-    </row>
-    <row r="13" spans="2:20">
-      <c r="D13" s="51"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="51"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="170"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-    </row>
-    <row r="14" spans="2:20">
-      <c r="B14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="52"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="173"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-    </row>
-    <row r="15" spans="2:20">
-      <c r="B15" s="53"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="52"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="173"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-    </row>
-    <row r="16" spans="2:20">
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-    </row>
-    <row r="17" spans="2:20">
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-    </row>
-    <row r="18" spans="2:20">
-      <c r="I18" s="149"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-    </row>
-    <row r="19" spans="2:20">
-      <c r="I19" s="149"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-    </row>
-    <row r="20" spans="2:20">
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-    </row>
-    <row r="21" spans="2:20">
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-    </row>
-    <row r="22" spans="2:20">
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-    </row>
-    <row r="23" spans="2:20">
-      <c r="B23" s="139"/>
-      <c r="C23" s="50" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20">
-      <c r="B24" s="174"/>
-      <c r="C24" s="50" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="2:20">
-      <c r="K25" s="50"/>
-    </row>
-    <row r="26" spans="2:20">
-      <c r="K26" s="50"/>
-    </row>
-    <row r="27" spans="2:20">
-      <c r="K27" s="50"/>
-    </row>
-    <row r="28" spans="2:20">
-      <c r="K28" s="50"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:T28"/>
   <sheetViews>
@@ -15440,44 +13934,44 @@
       <c r="H2" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="L2" s="220" t="s">
+      <c r="L2" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="220"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="218"/>
-      <c r="P2" s="218"/>
-      <c r="Q2" s="218"/>
-      <c r="R2" s="218"/>
-      <c r="S2" s="218"/>
-      <c r="T2" s="218"/>
+      <c r="M2" s="210"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="208"/>
+      <c r="Q2" s="208"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="208"/>
+      <c r="T2" s="208"/>
     </row>
     <row r="3" spans="2:20">
-      <c r="L3" s="221" t="s">
+      <c r="L3" s="211" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="222" t="s">
+      <c r="M3" s="212" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="221" t="s">
+      <c r="N3" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="221" t="s">
+      <c r="O3" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="221" t="s">
+      <c r="P3" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="221" t="s">
+      <c r="Q3" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="221" t="s">
+      <c r="R3" s="211" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="221" t="s">
+      <c r="S3" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="221" t="s">
+      <c r="T3" s="211" t="s">
         <v>12</v>
       </c>
     </row>
@@ -15487,31 +13981,31 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="L4" s="211" t="s">
+      <c r="L4" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="211" t="s">
+      <c r="M4" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="211" t="s">
+      <c r="N4" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="211" t="s">
+      <c r="O4" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="211" t="s">
+      <c r="P4" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="211" t="s">
+      <c r="Q4" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="R4" s="211" t="s">
+      <c r="R4" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="S4" s="211" t="s">
+      <c r="S4" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="211" t="s">
+      <c r="T4" s="201" t="s">
         <v>29</v>
       </c>
     </row>
@@ -15521,26 +14015,26 @@
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="L5" s="223" t="s">
+      <c r="L5" s="213" t="s">
         <v>105</v>
       </c>
-      <c r="M5" s="224"/>
-      <c r="N5" s="223" t="str">
+      <c r="M5" s="214"/>
+      <c r="N5" s="213" t="str">
         <f>B2&amp;EnergyBalance!K2</f>
         <v>TPSELC</v>
       </c>
-      <c r="O5" s="223" t="str">
+      <c r="O5" s="213" t="str">
         <f>LEFT($D$2,6)&amp;" "&amp;$C$2&amp;" - "&amp;EnergyBalance!K2</f>
         <v>Demand Total Primary Supply - ELC</v>
       </c>
-      <c r="P5" s="223" t="str">
+      <c r="P5" s="213" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="Q5" s="223"/>
-      <c r="R5" s="223"/>
-      <c r="S5" s="223"/>
-      <c r="T5" s="223"/>
+      <c r="Q5" s="213"/>
+      <c r="R5" s="213"/>
+      <c r="S5" s="213"/>
+      <c r="T5" s="213"/>
     </row>
     <row r="8" spans="2:20">
       <c r="D8" s="7" t="s">
@@ -15551,17 +14045,17 @@
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
       <c r="J8" s="6"/>
-      <c r="L8" s="220" t="s">
+      <c r="L8" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="220"/>
-      <c r="N8" s="219"/>
-      <c r="O8" s="219"/>
-      <c r="P8" s="219"/>
-      <c r="Q8" s="219"/>
-      <c r="R8" s="219"/>
-      <c r="S8" s="219"/>
-      <c r="T8" s="219"/>
+      <c r="M8" s="210"/>
+      <c r="N8" s="209"/>
+      <c r="O8" s="209"/>
+      <c r="P8" s="209"/>
+      <c r="Q8" s="209"/>
+      <c r="R8" s="209"/>
+      <c r="S8" s="209"/>
+      <c r="T8" s="209"/>
     </row>
     <row r="9" spans="2:20">
       <c r="B9" s="29" t="s">
@@ -15591,31 +14085,31 @@
       <c r="J9" s="160" t="s">
         <v>101</v>
       </c>
-      <c r="L9" s="221" t="s">
+      <c r="L9" s="211" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="222" t="s">
+      <c r="M9" s="212" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="221" t="s">
+      <c r="N9" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="221" t="s">
+      <c r="O9" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="P9" s="221" t="s">
+      <c r="P9" s="211" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="221" t="s">
+      <c r="Q9" s="211" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="221" t="s">
+      <c r="R9" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="221" t="s">
+      <c r="S9" s="211" t="s">
         <v>19</v>
       </c>
-      <c r="T9" s="221" t="s">
+      <c r="T9" s="211" t="s">
         <v>20</v>
       </c>
     </row>
@@ -15635,7 +14129,7 @@
       <c r="F10" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="G10" s="181" t="s">
+      <c r="G10" s="178" t="s">
         <v>125</v>
       </c>
       <c r="H10" s="27" t="s">
@@ -15647,31 +14141,31 @@
       <c r="J10" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="L10" s="211" t="s">
+      <c r="L10" s="201" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="211" t="s">
+      <c r="M10" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="211" t="s">
+      <c r="N10" s="201" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="211" t="s">
+      <c r="O10" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="P10" s="211" t="s">
+      <c r="P10" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" s="211" t="s">
+      <c r="Q10" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="R10" s="211" t="s">
+      <c r="R10" s="201" t="s">
         <v>46</v>
       </c>
-      <c r="S10" s="211" t="s">
+      <c r="S10" s="201" t="s">
         <v>45</v>
       </c>
-      <c r="T10" s="211" t="s">
+      <c r="T10" s="201" t="s">
         <v>25</v>
       </c>
     </row>
@@ -15698,17 +14192,17 @@
       <c r="J11" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="L11" s="211" t="s">
+      <c r="L11" s="201" t="s">
         <v>103</v>
       </c>
-      <c r="M11" s="211"/>
-      <c r="N11" s="211"/>
-      <c r="O11" s="211"/>
-      <c r="P11" s="211"/>
-      <c r="Q11" s="211"/>
-      <c r="R11" s="211"/>
-      <c r="S11" s="211"/>
-      <c r="T11" s="211"/>
+      <c r="M11" s="201"/>
+      <c r="N11" s="201"/>
+      <c r="O11" s="201"/>
+      <c r="P11" s="201"/>
+      <c r="Q11" s="201"/>
+      <c r="R11" s="201"/>
+      <c r="S11" s="201"/>
+      <c r="T11" s="201"/>
     </row>
     <row r="12" spans="2:20">
       <c r="B12" s="49" t="str">
@@ -15740,29 +14234,29 @@
       <c r="J12" s="139">
         <v>20</v>
       </c>
-      <c r="L12" s="223" t="s">
+      <c r="L12" s="213" t="s">
         <v>123</v>
       </c>
-      <c r="M12" s="224"/>
-      <c r="N12" s="224" t="str">
+      <c r="M12" s="214"/>
+      <c r="N12" s="214" t="str">
         <f>LEFT(L12,1)&amp;B2&amp;RIGHT(O12,3)</f>
         <v>DTPSELC</v>
       </c>
-      <c r="O12" s="225" t="str">
+      <c r="O12" s="215" t="str">
         <f>$D$2&amp;" "&amp;$C$2&amp;" - "&amp;EnergyBalance!K2</f>
         <v>Demand Technology Total Primary Supply - ELC</v>
       </c>
-      <c r="P12" s="224" t="str">
+      <c r="P12" s="214" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="Q12" s="224" t="str">
+      <c r="Q12" s="214" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="R12" s="224"/>
-      <c r="S12" s="224"/>
-      <c r="T12" s="224"/>
+      <c r="R12" s="214"/>
+      <c r="S12" s="214"/>
+      <c r="T12" s="214"/>
     </row>
     <row r="13" spans="2:20">
       <c r="D13" s="51"/>
@@ -15939,7 +14433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:V28"/>
   <sheetViews>
@@ -16028,44 +14522,44 @@
       <c r="I2" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="N2" s="207" t="s">
+      <c r="N2" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="207"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="208"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="208"/>
+      <c r="O2" s="197"/>
+      <c r="P2" s="198"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="198"/>
+      <c r="T2" s="198"/>
+      <c r="U2" s="198"/>
+      <c r="V2" s="198"/>
     </row>
     <row r="3" spans="2:22">
-      <c r="N3" s="209" t="s">
+      <c r="N3" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="210" t="s">
+      <c r="O3" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="209" t="s">
+      <c r="P3" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="209" t="s">
+      <c r="Q3" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="209" t="s">
+      <c r="R3" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="209" t="s">
+      <c r="S3" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="209" t="s">
+      <c r="T3" s="199" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="209" t="s">
+      <c r="U3" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="209" t="s">
+      <c r="V3" s="199" t="s">
         <v>12</v>
       </c>
     </row>
@@ -16076,31 +14570,31 @@
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="L4" s="58"/>
-      <c r="N4" s="211" t="s">
+      <c r="N4" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="211" t="s">
+      <c r="O4" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="211" t="s">
+      <c r="P4" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="211" t="s">
+      <c r="Q4" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="211" t="s">
+      <c r="R4" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="211" t="s">
+      <c r="S4" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="211" t="s">
+      <c r="T4" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="211" t="s">
+      <c r="U4" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="211" t="s">
+      <c r="V4" s="201" t="s">
         <v>29</v>
       </c>
     </row>
@@ -16111,48 +14605,48 @@
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
       <c r="L5" s="58"/>
-      <c r="N5" s="212" t="s">
+      <c r="N5" s="202" t="s">
         <v>105</v>
       </c>
-      <c r="O5" s="213"/>
-      <c r="P5" s="212" t="str">
+      <c r="O5" s="203"/>
+      <c r="P5" s="202" t="str">
         <f>LEFT($N$5,1)&amp;LEFT($B$2,1)&amp;EnergyBalance!$C$49</f>
         <v>DTD1</v>
       </c>
-      <c r="Q5" s="212" t="str">
+      <c r="Q5" s="202" t="str">
         <f>LEFT($D$2,6)&amp;" "&amp;$C$2&amp; " Sector - "&amp;EnergyBalance!$N$49</f>
         <v>Demand Transport Sector - Demand 1</v>
       </c>
-      <c r="R5" s="212" t="str">
+      <c r="R5" s="202" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="S5" s="212"/>
-      <c r="T5" s="212"/>
-      <c r="U5" s="212"/>
-      <c r="V5" s="212"/>
+      <c r="S5" s="202"/>
+      <c r="T5" s="202"/>
+      <c r="U5" s="202"/>
+      <c r="V5" s="202"/>
     </row>
     <row r="6" spans="2:22">
-      <c r="N6" s="214" t="s">
+      <c r="N6" s="204" t="s">
         <v>143</v>
       </c>
-      <c r="O6" s="214"/>
-      <c r="P6" s="214" t="str">
+      <c r="O6" s="204"/>
+      <c r="P6" s="204" t="str">
         <f>$B$2&amp;EnergyBalance!$C$52</f>
         <v>TRACO2</v>
       </c>
-      <c r="Q6" s="214" t="str">
+      <c r="Q6" s="204" t="str">
         <f>$C$2&amp;" "&amp;EnergyBalance!$C$53</f>
         <v>Transport Carbon dioxide</v>
       </c>
-      <c r="R6" s="214" t="str">
+      <c r="R6" s="204" t="str">
         <f>EnergyBalance!$S$2</f>
         <v>kt</v>
       </c>
-      <c r="S6" s="214"/>
-      <c r="T6" s="214"/>
-      <c r="U6" s="214"/>
-      <c r="V6" s="214"/>
+      <c r="S6" s="204"/>
+      <c r="T6" s="204"/>
+      <c r="U6" s="204"/>
+      <c r="V6" s="204"/>
     </row>
     <row r="8" spans="2:22">
       <c r="D8" s="7" t="s">
@@ -16165,17 +14659,17 @@
       <c r="J8" s="6"/>
       <c r="K8" s="25"/>
       <c r="L8"/>
-      <c r="N8" s="207" t="s">
+      <c r="N8" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="207"/>
-      <c r="P8" s="214"/>
-      <c r="Q8" s="214"/>
-      <c r="R8" s="214"/>
-      <c r="S8" s="214"/>
-      <c r="T8" s="214"/>
-      <c r="U8" s="214"/>
-      <c r="V8" s="214"/>
+      <c r="O8" s="197"/>
+      <c r="P8" s="204"/>
+      <c r="Q8" s="204"/>
+      <c r="R8" s="204"/>
+      <c r="S8" s="204"/>
+      <c r="T8" s="204"/>
+      <c r="U8" s="204"/>
+      <c r="V8" s="204"/>
     </row>
     <row r="9" spans="2:22">
       <c r="B9" s="29" t="s">
@@ -16211,31 +14705,31 @@
       <c r="L9" s="160" t="s">
         <v>129</v>
       </c>
-      <c r="N9" s="209" t="s">
+      <c r="N9" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="210" t="s">
+      <c r="O9" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="209" t="s">
+      <c r="P9" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="Q9" s="209" t="s">
+      <c r="Q9" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="R9" s="209" t="s">
+      <c r="R9" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="209" t="s">
+      <c r="S9" s="199" t="s">
         <v>17</v>
       </c>
-      <c r="T9" s="209" t="s">
+      <c r="T9" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="U9" s="209" t="s">
+      <c r="U9" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="209" t="s">
+      <c r="V9" s="199" t="s">
         <v>20</v>
       </c>
     </row>
@@ -16255,7 +14749,7 @@
       <c r="F10" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="G10" s="181" t="s">
+      <c r="G10" s="178" t="s">
         <v>125</v>
       </c>
       <c r="H10" s="27" t="s">
@@ -16271,31 +14765,31 @@
       <c r="L10" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="N10" s="211" t="s">
+      <c r="N10" s="201" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="211" t="s">
+      <c r="O10" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="P10" s="211" t="s">
+      <c r="P10" s="201" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="211" t="s">
+      <c r="Q10" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="R10" s="211" t="s">
+      <c r="R10" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="211" t="s">
+      <c r="S10" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="T10" s="211" t="s">
+      <c r="T10" s="201" t="s">
         <v>46</v>
       </c>
-      <c r="U10" s="211" t="s">
+      <c r="U10" s="201" t="s">
         <v>45</v>
       </c>
-      <c r="V10" s="211" t="s">
+      <c r="V10" s="201" t="s">
         <v>25</v>
       </c>
     </row>
@@ -16327,29 +14821,29 @@
         <f>EnergyBalance!$S$2</f>
         <v>kt</v>
       </c>
-      <c r="N11" s="212" t="s">
+      <c r="N11" s="202" t="s">
         <v>123</v>
       </c>
-      <c r="O11" s="213"/>
-      <c r="P11" s="213" t="str">
+      <c r="O11" s="203"/>
+      <c r="P11" s="203" t="str">
         <f>LEFT($B$2)&amp;EnergyBalance!$C$44&amp;$H$2&amp;EnergyBalance!F2</f>
         <v>TOTEOIL</v>
       </c>
-      <c r="Q11" s="217" t="str">
+      <c r="Q11" s="207" t="str">
         <f>$D$2&amp;" "&amp;$C$2&amp; " Sector - "&amp;" "&amp;$H$1&amp;" "&amp;EnergyBalance!$N$40&amp;" - "&amp;EnergyBalance!$F$3</f>
         <v>Demand Technologies Transport Sector -  Existing  - Crude Oil</v>
       </c>
-      <c r="R11" s="213" t="str">
+      <c r="R11" s="203" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="S11" s="213" t="str">
+      <c r="S11" s="203" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="T11" s="213"/>
-      <c r="U11" s="213"/>
-      <c r="V11" s="213"/>
+      <c r="T11" s="203"/>
+      <c r="U11" s="203"/>
+      <c r="V11" s="203"/>
     </row>
     <row r="12" spans="2:22">
       <c r="B12" t="str">
@@ -16382,27 +14876,27 @@
         <v>10</v>
       </c>
       <c r="L12"/>
-      <c r="N12" s="214"/>
-      <c r="O12" s="214"/>
-      <c r="P12" s="213" t="str">
+      <c r="N12" s="204"/>
+      <c r="O12" s="204"/>
+      <c r="P12" s="203" t="str">
         <f>LEFT($B$2)&amp;EnergyBalance!$C$44&amp;$I$2&amp;EnergyBalance!F2</f>
         <v>TOTNOIL</v>
       </c>
-      <c r="Q12" s="217" t="str">
+      <c r="Q12" s="207" t="str">
         <f>$D$2&amp;" "&amp;$C$2&amp; " Sector - "&amp;" "&amp;$I$1&amp;" "&amp;EnergyBalance!$N$40&amp;" - "&amp;EnergyBalance!$F$3</f>
         <v>Demand Technologies Transport Sector -  New  - Crude Oil</v>
       </c>
-      <c r="R12" s="213" t="str">
+      <c r="R12" s="203" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="S12" s="213" t="str">
+      <c r="S12" s="203" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="T12" s="214"/>
-      <c r="U12" s="214"/>
-      <c r="V12" s="214"/>
+      <c r="T12" s="204"/>
+      <c r="U12" s="204"/>
+      <c r="V12" s="204"/>
     </row>
     <row r="13" spans="2:22">
       <c r="D13" t="str">
@@ -16413,7 +14907,7 @@
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="I13" s="28"/>
-      <c r="L13" s="199">
+      <c r="L13" s="190">
         <f>65/F12</f>
         <v>65</v>
       </c>
@@ -16484,7 +14978,7 @@
       <c r="I15" s="33"/>
       <c r="J15" s="11"/>
       <c r="K15" s="32"/>
-      <c r="L15" s="198">
+      <c r="L15" s="189">
         <f>65/F14</f>
         <v>59.090909090909086</v>
       </c>
@@ -16621,7 +15115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B1:V28"/>
   <sheetViews>
@@ -16705,44 +15199,44 @@
       <c r="I2" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="N2" s="207" t="s">
+      <c r="N2" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="207"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="208"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="208"/>
+      <c r="O2" s="197"/>
+      <c r="P2" s="198"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="198"/>
+      <c r="T2" s="198"/>
+      <c r="U2" s="198"/>
+      <c r="V2" s="198"/>
     </row>
     <row r="3" spans="2:22">
-      <c r="N3" s="209" t="s">
+      <c r="N3" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="210" t="s">
+      <c r="O3" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="209" t="s">
+      <c r="P3" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="209" t="s">
+      <c r="Q3" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="209" t="s">
+      <c r="R3" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="209" t="s">
+      <c r="S3" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="209" t="s">
+      <c r="T3" s="199" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="209" t="s">
+      <c r="U3" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="209" t="s">
+      <c r="V3" s="199" t="s">
         <v>12</v>
       </c>
     </row>
@@ -16752,31 +15246,31 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="N4" s="211" t="s">
+      <c r="N4" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="211" t="s">
+      <c r="O4" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="211" t="s">
+      <c r="P4" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="211" t="s">
+      <c r="Q4" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="211" t="s">
+      <c r="R4" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="211" t="s">
+      <c r="S4" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="211" t="s">
+      <c r="T4" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="211" t="s">
+      <c r="U4" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="211" t="s">
+      <c r="V4" s="201" t="s">
         <v>29</v>
       </c>
     </row>
@@ -16786,48 +15280,48 @@
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="N5" s="212" t="s">
+      <c r="N5" s="202" t="s">
         <v>105</v>
       </c>
-      <c r="O5" s="213"/>
-      <c r="P5" s="212" t="str">
+      <c r="O5" s="203"/>
+      <c r="P5" s="202" t="str">
         <f>LEFT($N$5,1)&amp;LEFT(B2,1)&amp;EnergyBalance!$C$44</f>
         <v>DROT</v>
       </c>
-      <c r="Q5" s="212" t="str">
+      <c r="Q5" s="202" t="str">
         <f>LEFT($D$2,6)&amp;" "&amp;$C$2&amp; " Sector - "&amp;EnergyBalance!$N$44</f>
         <v>Demand Residential Sector - Other</v>
       </c>
-      <c r="R5" s="212" t="str">
+      <c r="R5" s="202" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="S5" s="212"/>
-      <c r="T5" s="212"/>
-      <c r="U5" s="212"/>
-      <c r="V5" s="212"/>
+      <c r="S5" s="202"/>
+      <c r="T5" s="202"/>
+      <c r="U5" s="202"/>
+      <c r="V5" s="202"/>
     </row>
     <row r="6" spans="2:22">
-      <c r="N6" s="214" t="s">
+      <c r="N6" s="204" t="s">
         <v>143</v>
       </c>
-      <c r="O6" s="214"/>
-      <c r="P6" s="214" t="str">
+      <c r="O6" s="204"/>
+      <c r="P6" s="204" t="str">
         <f>$B$2&amp;EnergyBalance!$C$52</f>
         <v>RSDCO2</v>
       </c>
-      <c r="Q6" s="214" t="str">
+      <c r="Q6" s="204" t="str">
         <f>$C$2&amp;" "&amp;EnergyBalance!$C$53</f>
         <v>Residential Carbon dioxide</v>
       </c>
-      <c r="R6" s="214" t="str">
+      <c r="R6" s="204" t="str">
         <f>EnergyBalance!$S$2</f>
         <v>kt</v>
       </c>
-      <c r="S6" s="214"/>
-      <c r="T6" s="214"/>
-      <c r="U6" s="214"/>
-      <c r="V6" s="214"/>
+      <c r="S6" s="204"/>
+      <c r="T6" s="204"/>
+      <c r="U6" s="204"/>
+      <c r="V6" s="204"/>
     </row>
     <row r="8" spans="2:22">
       <c r="D8" s="7" t="s">
@@ -16839,17 +15333,17 @@
       <c r="I8" s="8"/>
       <c r="J8" s="6"/>
       <c r="K8" s="25"/>
-      <c r="N8" s="207" t="s">
+      <c r="N8" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="207"/>
-      <c r="P8" s="214"/>
-      <c r="Q8" s="214"/>
-      <c r="R8" s="214"/>
-      <c r="S8" s="214"/>
-      <c r="T8" s="214"/>
-      <c r="U8" s="214"/>
-      <c r="V8" s="214"/>
+      <c r="O8" s="197"/>
+      <c r="P8" s="204"/>
+      <c r="Q8" s="204"/>
+      <c r="R8" s="204"/>
+      <c r="S8" s="204"/>
+      <c r="T8" s="204"/>
+      <c r="U8" s="204"/>
+      <c r="V8" s="204"/>
     </row>
     <row r="9" spans="2:22">
       <c r="B9" s="29" t="s">
@@ -16885,31 +15379,31 @@
       <c r="L9" s="160" t="s">
         <v>129</v>
       </c>
-      <c r="N9" s="209" t="s">
+      <c r="N9" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="210" t="s">
+      <c r="O9" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="209" t="s">
+      <c r="P9" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="Q9" s="209" t="s">
+      <c r="Q9" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="R9" s="209" t="s">
+      <c r="R9" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="209" t="s">
+      <c r="S9" s="199" t="s">
         <v>17</v>
       </c>
-      <c r="T9" s="209" t="s">
+      <c r="T9" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="U9" s="209" t="s">
+      <c r="U9" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="209" t="s">
+      <c r="V9" s="199" t="s">
         <v>20</v>
       </c>
     </row>
@@ -16929,7 +15423,7 @@
       <c r="F10" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="G10" s="181" t="s">
+      <c r="G10" s="178" t="s">
         <v>125</v>
       </c>
       <c r="H10" s="27" t="s">
@@ -16945,31 +15439,31 @@
       <c r="L10" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="N10" s="211" t="s">
+      <c r="N10" s="201" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="211" t="s">
+      <c r="O10" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="P10" s="211" t="s">
+      <c r="P10" s="201" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="211" t="s">
+      <c r="Q10" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="R10" s="211" t="s">
+      <c r="R10" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="211" t="s">
+      <c r="S10" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="T10" s="211" t="s">
+      <c r="T10" s="201" t="s">
         <v>46</v>
       </c>
-      <c r="U10" s="211" t="s">
+      <c r="U10" s="201" t="s">
         <v>45</v>
       </c>
-      <c r="V10" s="211" t="s">
+      <c r="V10" s="201" t="s">
         <v>25</v>
       </c>
     </row>
@@ -17001,17 +15495,17 @@
         <f>EnergyBalance!$S$2</f>
         <v>kt</v>
       </c>
-      <c r="N11" s="211" t="s">
+      <c r="N11" s="201" t="s">
         <v>103</v>
       </c>
-      <c r="O11" s="211"/>
-      <c r="P11" s="211"/>
-      <c r="Q11" s="211"/>
-      <c r="R11" s="211"/>
-      <c r="S11" s="211"/>
-      <c r="T11" s="211"/>
-      <c r="U11" s="211"/>
-      <c r="V11" s="211"/>
+      <c r="O11" s="201"/>
+      <c r="P11" s="201"/>
+      <c r="Q11" s="201"/>
+      <c r="R11" s="201"/>
+      <c r="S11" s="201"/>
+      <c r="T11" s="201"/>
+      <c r="U11" s="201"/>
+      <c r="V11" s="201"/>
     </row>
     <row r="12" spans="2:22">
       <c r="B12" t="str">
@@ -17043,29 +15537,29 @@
       <c r="J12" s="85">
         <v>10</v>
       </c>
-      <c r="N12" s="212" t="s">
+      <c r="N12" s="202" t="s">
         <v>123</v>
       </c>
-      <c r="O12" s="213"/>
-      <c r="P12" s="213" t="str">
+      <c r="O12" s="203"/>
+      <c r="P12" s="203" t="str">
         <f>LEFT(EnergyBalance!$B$16)&amp;EnergyBalance!$C$44&amp;$H$2&amp;EnergyBalance!E2</f>
         <v>ROTEGAS</v>
       </c>
-      <c r="Q12" s="217" t="str">
+      <c r="Q12" s="207" t="str">
         <f>$D$2&amp;" "&amp;$C$2&amp; " Sector - "&amp;" "&amp;$H$1&amp;" "&amp;EnergyBalance!$N$44&amp;" - "&amp;EnergyBalance!$E$3</f>
         <v>Demand Technologies Residential Sector -  Existing Other - Natural Gas</v>
       </c>
-      <c r="R12" s="213" t="str">
+      <c r="R12" s="203" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="S12" s="213" t="str">
+      <c r="S12" s="203" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="T12" s="213"/>
-      <c r="U12" s="213"/>
-      <c r="V12" s="213"/>
+      <c r="T12" s="203"/>
+      <c r="U12" s="203"/>
+      <c r="V12" s="203"/>
     </row>
     <row r="13" spans="2:22">
       <c r="D13" t="str">
@@ -17080,27 +15574,27 @@
         <f>56.1/F12</f>
         <v>56.1</v>
       </c>
-      <c r="N13" s="212"/>
-      <c r="O13" s="213"/>
-      <c r="P13" s="213" t="str">
+      <c r="N13" s="202"/>
+      <c r="O13" s="203"/>
+      <c r="P13" s="203" t="str">
         <f>LEFT(EnergyBalance!$B$16)&amp;EnergyBalance!$C$44&amp;$I$2&amp;EnergyBalance!E2</f>
         <v>ROTNGAS</v>
       </c>
-      <c r="Q13" s="217" t="str">
+      <c r="Q13" s="207" t="str">
         <f>$D$2&amp;" "&amp;$C$2&amp; " Sector - "&amp;" "&amp;$I$1&amp;" "&amp;EnergyBalance!$N$44&amp;" - "&amp;EnergyBalance!$E$3</f>
         <v>Demand Technologies Residential Sector -  New Other - Natural Gas</v>
       </c>
-      <c r="R13" s="213" t="str">
+      <c r="R13" s="203" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="S13" s="213" t="str">
+      <c r="S13" s="203" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="T13" s="213"/>
-      <c r="U13" s="213"/>
-      <c r="V13" s="213"/>
+      <c r="T13" s="203"/>
+      <c r="U13" s="203"/>
+      <c r="V13" s="203"/>
     </row>
     <row r="14" spans="2:22">
       <c r="B14" s="11" t="str">
@@ -17158,7 +15652,7 @@
       <c r="I15" s="33"/>
       <c r="J15" s="11"/>
       <c r="K15" s="32"/>
-      <c r="L15" s="198">
+      <c r="L15" s="189">
         <f>56.1/F14</f>
         <v>46.75</v>
       </c>
@@ -17290,12 +15784,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -17367,19 +15861,19 @@
       <c r="D6" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E6" s="182">
+      <c r="E6" s="179">
         <v>2005</v>
       </c>
-      <c r="F6" s="182">
+      <c r="F6" s="179">
         <v>2006</v>
       </c>
-      <c r="G6" s="182">
+      <c r="G6" s="179">
         <v>2010</v>
       </c>
-      <c r="H6" s="182">
+      <c r="H6" s="179">
         <v>2015</v>
       </c>
-      <c r="I6" s="182">
+      <c r="I6" s="179">
         <v>2020</v>
       </c>
       <c r="N6" s="4" t="s">
@@ -17415,7 +15909,7 @@
       <c r="K7" s="143" t="s">
         <v>176</v>
       </c>
-      <c r="L7" s="226" t="s">
+      <c r="L7" s="216" t="s">
         <v>215</v>
       </c>
       <c r="N7" s="27" t="s">
@@ -17539,8 +16033,8 @@
       <c r="G11" s="148"/>
       <c r="H11" s="148"/>
       <c r="I11" s="148"/>
-      <c r="K11" s="183"/>
-      <c r="L11" s="183"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="180"/>
       <c r="N11" s="1" t="s">
         <v>178</v>
       </c>
@@ -17586,10 +16080,10 @@
         <f>$E$12*(1+$K$12)^(I6-$E$6)</f>
         <v>12100.703958839395</v>
       </c>
-      <c r="K12" s="184">
+      <c r="K12" s="181">
         <v>0.01</v>
       </c>
-      <c r="L12" s="184">
+      <c r="L12" s="181">
         <v>0.05</v>
       </c>
       <c r="N12" s="63" t="s">
@@ -17637,8 +16131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AA19"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AF49" sqref="AF49"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AF33" sqref="AF33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -17801,98 +16295,98 @@
         <f>EnergyBalance!Q2</f>
         <v>M€2005</v>
       </c>
-      <c r="K2" s="207" t="s">
+      <c r="K2" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="207"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="208"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="198"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="198"/>
     </row>
     <row r="3" spans="2:20">
-      <c r="K3" s="209" t="s">
+      <c r="K3" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="210" t="s">
+      <c r="L3" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="209" t="s">
+      <c r="M3" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="209" t="s">
+      <c r="N3" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="209" t="s">
+      <c r="O3" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="209" t="s">
+      <c r="P3" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="209" t="s">
+      <c r="Q3" s="199" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="209" t="s">
+      <c r="R3" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="209" t="s">
+      <c r="S3" s="199" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:20" ht="21.6" thickBot="1">
       <c r="C4" s="1"/>
-      <c r="K4" s="211" t="s">
+      <c r="K4" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="211" t="s">
+      <c r="L4" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="211" t="s">
+      <c r="M4" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="211" t="s">
+      <c r="N4" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="211" t="s">
+      <c r="O4" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="211" t="s">
+      <c r="P4" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="211" t="s">
+      <c r="Q4" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="211" t="s">
+      <c r="R4" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="211" t="s">
+      <c r="S4" s="201" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:20">
-      <c r="K5" s="212" t="s">
+      <c r="K5" s="202" t="s">
         <v>93</v>
       </c>
-      <c r="L5" s="213"/>
-      <c r="M5" s="212" t="str">
+      <c r="L5" s="203"/>
+      <c r="M5" s="202" t="str">
         <f>C2</f>
         <v>COA</v>
       </c>
-      <c r="N5" s="212" t="str">
+      <c r="N5" s="202" t="str">
         <f>D2</f>
         <v>Solid Fuels</v>
       </c>
-      <c r="O5" s="212" t="str">
+      <c r="O5" s="202" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P5" s="212"/>
-      <c r="Q5" s="212"/>
-      <c r="R5" s="212"/>
-      <c r="S5" s="212"/>
+      <c r="P5" s="202"/>
+      <c r="Q5" s="202"/>
+      <c r="R5" s="202"/>
+      <c r="S5" s="202"/>
     </row>
     <row r="6" spans="2:20">
       <c r="K6" s="16"/>
@@ -17910,17 +16404,17 @@
         <v>13</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="K7" s="207" t="s">
+      <c r="K7" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="207"/>
-      <c r="M7" s="214"/>
-      <c r="N7" s="214"/>
-      <c r="O7" s="214"/>
-      <c r="P7" s="214"/>
-      <c r="Q7" s="214"/>
-      <c r="R7" s="214"/>
-      <c r="S7" s="214"/>
+      <c r="L7" s="197"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
+      <c r="P7" s="204"/>
+      <c r="Q7" s="204"/>
+      <c r="R7" s="204"/>
+      <c r="S7" s="204"/>
     </row>
     <row r="8" spans="2:20">
       <c r="B8" s="3" t="s">
@@ -17947,31 +16441,31 @@
       <c r="I8" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="K8" s="209" t="s">
+      <c r="K8" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="210" t="s">
+      <c r="L8" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="209" t="s">
+      <c r="M8" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="209" t="s">
+      <c r="N8" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="209" t="s">
+      <c r="O8" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="209" t="s">
+      <c r="P8" s="199" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="209" t="s">
+      <c r="Q8" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="209" t="s">
+      <c r="R8" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="209" t="s">
+      <c r="S8" s="199" t="s">
         <v>20</v>
       </c>
     </row>
@@ -17996,31 +16490,31 @@
       <c r="I9" s="176" t="s">
         <v>116</v>
       </c>
-      <c r="K9" s="211" t="s">
+      <c r="K9" s="201" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="211" t="s">
+      <c r="L9" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="211" t="s">
+      <c r="M9" s="201" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="211" t="s">
+      <c r="N9" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="211" t="s">
+      <c r="O9" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="211" t="s">
+      <c r="P9" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="211" t="s">
+      <c r="Q9" s="201" t="s">
         <v>46</v>
       </c>
-      <c r="R9" s="211" t="s">
+      <c r="R9" s="201" t="s">
         <v>45</v>
       </c>
-      <c r="S9" s="211" t="s">
+      <c r="S9" s="201" t="s">
         <v>25</v>
       </c>
     </row>
@@ -18044,17 +16538,17 @@
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="K10" s="211" t="s">
+      <c r="K10" s="201" t="s">
         <v>103</v>
       </c>
-      <c r="L10" s="215"/>
-      <c r="M10" s="215"/>
-      <c r="N10" s="215"/>
-      <c r="O10" s="215"/>
-      <c r="P10" s="215"/>
-      <c r="Q10" s="215"/>
-      <c r="R10" s="215"/>
-      <c r="S10" s="215"/>
+      <c r="L10" s="205"/>
+      <c r="M10" s="205"/>
+      <c r="N10" s="205"/>
+      <c r="O10" s="205"/>
+      <c r="P10" s="205"/>
+      <c r="Q10" s="205"/>
+      <c r="R10" s="205"/>
+      <c r="S10" s="205"/>
     </row>
     <row r="11" spans="2:20">
       <c r="B11" s="16" t="str">
@@ -18079,27 +16573,27 @@
         <v>6073.7685000000001</v>
       </c>
       <c r="J11" s="9"/>
-      <c r="K11" s="212" t="str">
+      <c r="K11" s="202" t="str">
         <f>EnergyBalance!$B$5</f>
         <v>MIN</v>
       </c>
-      <c r="L11" s="213"/>
-      <c r="M11" s="213" t="str">
+      <c r="L11" s="203"/>
+      <c r="M11" s="203" t="str">
         <f>$K$11&amp;$C$2&amp;1</f>
         <v>MINCOA1</v>
       </c>
-      <c r="N11" s="216" t="str">
+      <c r="N11" s="206" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(M11,1)</f>
         <v>Domestic Supply of Solid Fuels Step 1</v>
       </c>
-      <c r="O11" s="213" t="str">
+      <c r="O11" s="203" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P11" s="213"/>
-      <c r="Q11" s="213"/>
-      <c r="R11" s="213"/>
-      <c r="S11" s="213"/>
+      <c r="P11" s="203"/>
+      <c r="Q11" s="203"/>
+      <c r="R11" s="203"/>
+      <c r="S11" s="203"/>
     </row>
     <row r="12" spans="2:20" s="9" customFormat="1">
       <c r="B12" s="16" t="str">
@@ -18123,24 +16617,24 @@
         <f>EnergyBalance!$D$5*EnergyBalance!D38</f>
         <v>2024.5895</v>
       </c>
-      <c r="K12" s="213"/>
-      <c r="L12" s="213"/>
-      <c r="M12" s="213" t="str">
+      <c r="K12" s="203"/>
+      <c r="L12" s="203"/>
+      <c r="M12" s="203" t="str">
         <f>$K$11&amp;$C$2&amp;2</f>
         <v>MINCOA2</v>
       </c>
-      <c r="N12" s="216" t="str">
+      <c r="N12" s="206" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(M12,1)</f>
         <v>Domestic Supply of Solid Fuels Step 2</v>
       </c>
-      <c r="O12" s="213" t="str">
+      <c r="O12" s="203" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P12" s="213"/>
-      <c r="Q12" s="213"/>
-      <c r="R12" s="213"/>
-      <c r="S12" s="213"/>
+      <c r="P12" s="203"/>
+      <c r="Q12" s="203"/>
+      <c r="R12" s="203"/>
+      <c r="S12" s="203"/>
     </row>
     <row r="13" spans="2:20" s="9" customFormat="1">
       <c r="B13" s="16" t="str">
@@ -18161,24 +16655,24 @@
         <v>3</v>
       </c>
       <c r="I13" s="133"/>
-      <c r="K13" s="213"/>
-      <c r="L13" s="213"/>
-      <c r="M13" s="213" t="str">
+      <c r="K13" s="203"/>
+      <c r="L13" s="203"/>
+      <c r="M13" s="203" t="str">
         <f>$K$11&amp;$C$2&amp;3</f>
         <v>MINCOA3</v>
       </c>
-      <c r="N13" s="216" t="str">
+      <c r="N13" s="206" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(M13,1)</f>
         <v>Domestic Supply of Solid Fuels Step 3</v>
       </c>
-      <c r="O13" s="213" t="str">
+      <c r="O13" s="203" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P13" s="213"/>
-      <c r="Q13" s="213"/>
-      <c r="R13" s="213"/>
-      <c r="S13" s="213"/>
+      <c r="P13" s="203"/>
+      <c r="Q13" s="203"/>
+      <c r="R13" s="203"/>
+      <c r="S13" s="203"/>
     </row>
     <row r="14" spans="2:20" s="9" customFormat="1">
       <c r="B14" s="16" t="str">
@@ -18197,27 +16691,27 @@
         <v>2.75</v>
       </c>
       <c r="I14" s="133"/>
-      <c r="K14" s="213" t="str">
+      <c r="K14" s="203" t="str">
         <f>EnergyBalance!$B$6</f>
         <v>IMP</v>
       </c>
-      <c r="L14" s="213"/>
-      <c r="M14" s="213" t="str">
+      <c r="L14" s="203"/>
+      <c r="M14" s="203" t="str">
         <f>$K$14&amp;$C$2&amp;1</f>
         <v>IMPCOA1</v>
       </c>
-      <c r="N14" s="216" t="str">
+      <c r="N14" s="206" t="str">
         <f>"Import of "&amp;$D$2&amp; " Step "&amp;RIGHT(M14,1)</f>
         <v>Import of Solid Fuels Step 1</v>
       </c>
-      <c r="O14" s="213" t="str">
+      <c r="O14" s="203" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P14" s="213"/>
-      <c r="Q14" s="213"/>
-      <c r="R14" s="213"/>
-      <c r="S14" s="213"/>
+      <c r="P14" s="203"/>
+      <c r="Q14" s="203"/>
+      <c r="R14" s="203"/>
+      <c r="S14" s="203"/>
     </row>
     <row r="15" spans="2:20">
       <c r="B15" s="16" t="str">
@@ -18242,27 +16736,27 @@
         <f>-EnergyBalance!D7</f>
         <v>1147.069</v>
       </c>
-      <c r="K15" s="213" t="str">
+      <c r="K15" s="203" t="str">
         <f>EnergyBalance!B7</f>
         <v>EXP</v>
       </c>
-      <c r="L15" s="213"/>
-      <c r="M15" s="213" t="str">
+      <c r="L15" s="203"/>
+      <c r="M15" s="203" t="str">
         <f>$K$15&amp;$C$2&amp;1</f>
         <v>EXPCOA1</v>
       </c>
-      <c r="N15" s="216" t="str">
+      <c r="N15" s="206" t="str">
         <f>"Export of "&amp;$D$2&amp; " Step "&amp;RIGHT(M15,1)</f>
         <v>Export of Solid Fuels Step 1</v>
       </c>
-      <c r="O15" s="213" t="str">
+      <c r="O15" s="203" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P15" s="213"/>
-      <c r="Q15" s="213"/>
-      <c r="R15" s="213"/>
-      <c r="S15" s="213"/>
+      <c r="P15" s="203"/>
+      <c r="Q15" s="203"/>
+      <c r="R15" s="203"/>
+      <c r="S15" s="203"/>
       <c r="T15" s="9"/>
     </row>
     <row r="16" spans="2:20">
@@ -18575,115 +17069,115 @@
         <f>EnergyBalance!Q2</f>
         <v>M€2005</v>
       </c>
-      <c r="K2" s="207" t="s">
+      <c r="K2" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="207"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="208"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="198"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="198"/>
     </row>
     <row r="3" spans="2:20">
-      <c r="K3" s="209" t="s">
+      <c r="K3" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="210" t="s">
+      <c r="L3" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="209" t="s">
+      <c r="M3" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="209" t="s">
+      <c r="N3" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="209" t="s">
+      <c r="O3" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="209" t="s">
+      <c r="P3" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="209" t="s">
+      <c r="Q3" s="199" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="209" t="s">
+      <c r="R3" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="209" t="s">
+      <c r="S3" s="199" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:20" ht="21.6" thickBot="1">
       <c r="C4" s="1"/>
-      <c r="K4" s="211" t="s">
+      <c r="K4" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="211" t="s">
+      <c r="L4" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="211" t="s">
+      <c r="M4" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="211" t="s">
+      <c r="N4" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="211" t="s">
+      <c r="O4" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="211" t="s">
+      <c r="P4" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="211" t="s">
+      <c r="Q4" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="211" t="s">
+      <c r="R4" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="211" t="s">
+      <c r="S4" s="201" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:20">
-      <c r="K5" s="212" t="s">
+      <c r="K5" s="202" t="s">
         <v>93</v>
       </c>
-      <c r="L5" s="213"/>
-      <c r="M5" s="212" t="str">
+      <c r="L5" s="203"/>
+      <c r="M5" s="202" t="str">
         <f>C2</f>
         <v>GAS</v>
       </c>
-      <c r="N5" s="212" t="str">
+      <c r="N5" s="202" t="str">
         <f>D2</f>
         <v>Natural Gas</v>
       </c>
-      <c r="O5" s="212" t="str">
+      <c r="O5" s="202" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P5" s="212"/>
-      <c r="Q5" s="212"/>
-      <c r="R5" s="212"/>
-      <c r="S5" s="212"/>
+      <c r="P5" s="202"/>
+      <c r="Q5" s="202"/>
+      <c r="R5" s="202"/>
+      <c r="S5" s="202"/>
     </row>
     <row r="7" spans="2:20">
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="K7" s="207" t="s">
+      <c r="K7" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="207"/>
-      <c r="M7" s="214"/>
-      <c r="N7" s="214"/>
-      <c r="O7" s="214"/>
-      <c r="P7" s="214"/>
-      <c r="Q7" s="214"/>
-      <c r="R7" s="214"/>
-      <c r="S7" s="214"/>
+      <c r="L7" s="197"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
+      <c r="P7" s="204"/>
+      <c r="Q7" s="204"/>
+      <c r="R7" s="204"/>
+      <c r="S7" s="204"/>
     </row>
     <row r="8" spans="2:20">
       <c r="B8" s="3" t="s">
@@ -18710,31 +17204,31 @@
       <c r="I8" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="K8" s="209" t="s">
+      <c r="K8" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="210" t="s">
+      <c r="L8" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="209" t="s">
+      <c r="M8" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="209" t="s">
+      <c r="N8" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="209" t="s">
+      <c r="O8" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="209" t="s">
+      <c r="P8" s="199" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="209" t="s">
+      <c r="Q8" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="209" t="s">
+      <c r="R8" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="209" t="s">
+      <c r="S8" s="199" t="s">
         <v>20</v>
       </c>
     </row>
@@ -18759,31 +17253,31 @@
       <c r="I9" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="K9" s="211" t="s">
+      <c r="K9" s="201" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="211" t="s">
+      <c r="L9" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="211" t="s">
+      <c r="M9" s="201" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="211" t="s">
+      <c r="N9" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="211" t="s">
+      <c r="O9" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="211" t="s">
+      <c r="P9" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="211" t="s">
+      <c r="Q9" s="201" t="s">
         <v>46</v>
       </c>
-      <c r="R9" s="211" t="s">
+      <c r="R9" s="201" t="s">
         <v>45</v>
       </c>
-      <c r="S9" s="211" t="s">
+      <c r="S9" s="201" t="s">
         <v>25</v>
       </c>
     </row>
@@ -18807,17 +17301,17 @@
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="K10" s="211" t="s">
+      <c r="K10" s="201" t="s">
         <v>103</v>
       </c>
-      <c r="L10" s="215"/>
-      <c r="M10" s="215"/>
-      <c r="N10" s="215"/>
-      <c r="O10" s="215"/>
-      <c r="P10" s="215"/>
-      <c r="Q10" s="215"/>
-      <c r="R10" s="215"/>
-      <c r="S10" s="215"/>
+      <c r="L10" s="205"/>
+      <c r="M10" s="205"/>
+      <c r="N10" s="205"/>
+      <c r="O10" s="205"/>
+      <c r="P10" s="205"/>
+      <c r="Q10" s="205"/>
+      <c r="R10" s="205"/>
+      <c r="S10" s="205"/>
     </row>
     <row r="11" spans="2:20" s="9" customFormat="1">
       <c r="B11" s="16" t="str">
@@ -18841,27 +17335,27 @@
         <f>EnergyBalance!$E$5*EnergyBalance!E37</f>
         <v>3949.7485000000001</v>
       </c>
-      <c r="K11" s="212" t="str">
+      <c r="K11" s="202" t="str">
         <f>EnergyBalance!$B$5</f>
         <v>MIN</v>
       </c>
-      <c r="L11" s="213"/>
-      <c r="M11" s="213" t="str">
+      <c r="L11" s="203"/>
+      <c r="M11" s="203" t="str">
         <f>$K$11&amp;$C$2&amp;1</f>
         <v>MINGAS1</v>
       </c>
-      <c r="N11" s="216" t="str">
+      <c r="N11" s="206" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(M11,1)</f>
         <v>Domestic Supply of Natural Gas Step 1</v>
       </c>
-      <c r="O11" s="213" t="str">
+      <c r="O11" s="203" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P11" s="213"/>
-      <c r="Q11" s="213"/>
-      <c r="R11" s="213"/>
-      <c r="S11" s="213"/>
+      <c r="P11" s="203"/>
+      <c r="Q11" s="203"/>
+      <c r="R11" s="203"/>
+      <c r="S11" s="203"/>
     </row>
     <row r="12" spans="2:20">
       <c r="B12" s="16" t="str">
@@ -18886,24 +17380,24 @@
         <v>3949.7485000000001</v>
       </c>
       <c r="J12" s="9"/>
-      <c r="K12" s="213"/>
-      <c r="L12" s="213"/>
-      <c r="M12" s="213" t="str">
+      <c r="K12" s="203"/>
+      <c r="L12" s="203"/>
+      <c r="M12" s="203" t="str">
         <f>$K$11&amp;$C$2&amp;2</f>
         <v>MINGAS2</v>
       </c>
-      <c r="N12" s="216" t="str">
+      <c r="N12" s="206" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(M12,1)</f>
         <v>Domestic Supply of Natural Gas Step 2</v>
       </c>
-      <c r="O12" s="213" t="str">
+      <c r="O12" s="203" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P12" s="213"/>
-      <c r="Q12" s="213"/>
-      <c r="R12" s="213"/>
-      <c r="S12" s="213"/>
+      <c r="P12" s="203"/>
+      <c r="Q12" s="203"/>
+      <c r="R12" s="203"/>
+      <c r="S12" s="203"/>
       <c r="T12" s="9"/>
     </row>
     <row r="13" spans="2:20">
@@ -18927,24 +17421,24 @@
       <c r="I13" s="133">
         <v>0</v>
       </c>
-      <c r="K13" s="213"/>
-      <c r="L13" s="213"/>
-      <c r="M13" s="213" t="str">
+      <c r="K13" s="203"/>
+      <c r="L13" s="203"/>
+      <c r="M13" s="203" t="str">
         <f>$K$11&amp;$C$2&amp;3</f>
         <v>MINGAS3</v>
       </c>
-      <c r="N13" s="216" t="str">
+      <c r="N13" s="206" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(M13,1)</f>
         <v>Domestic Supply of Natural Gas Step 3</v>
       </c>
-      <c r="O13" s="213" t="str">
+      <c r="O13" s="203" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P13" s="213"/>
-      <c r="Q13" s="213"/>
-      <c r="R13" s="213"/>
-      <c r="S13" s="213"/>
+      <c r="P13" s="203"/>
+      <c r="Q13" s="203"/>
+      <c r="R13" s="203"/>
+      <c r="S13" s="203"/>
     </row>
     <row r="14" spans="2:20">
       <c r="B14" s="16" t="str">
@@ -18963,27 +17457,27 @@
         <v>4.5</v>
       </c>
       <c r="I14" s="133"/>
-      <c r="K14" s="213" t="str">
+      <c r="K14" s="203" t="str">
         <f>EnergyBalance!$B$6</f>
         <v>IMP</v>
       </c>
-      <c r="L14" s="213"/>
-      <c r="M14" s="213" t="str">
+      <c r="L14" s="203"/>
+      <c r="M14" s="203" t="str">
         <f>$K$14&amp;$C$2&amp;1</f>
         <v>IMPGAS1</v>
       </c>
-      <c r="N14" s="216" t="str">
+      <c r="N14" s="206" t="str">
         <f>"Import of "&amp;$D$2&amp; " Step "&amp;RIGHT(M14,1)</f>
         <v>Import of Natural Gas Step 1</v>
       </c>
-      <c r="O14" s="213" t="str">
+      <c r="O14" s="203" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P14" s="213"/>
-      <c r="Q14" s="213"/>
-      <c r="R14" s="213"/>
-      <c r="S14" s="213"/>
+      <c r="P14" s="203"/>
+      <c r="Q14" s="203"/>
+      <c r="R14" s="203"/>
+      <c r="S14" s="203"/>
     </row>
     <row r="15" spans="2:20" s="9" customFormat="1">
       <c r="B15" s="16" t="str">
@@ -19010,27 +17504,27 @@
         <v>2516.3310000000001</v>
       </c>
       <c r="J15"/>
-      <c r="K15" s="213" t="str">
+      <c r="K15" s="203" t="str">
         <f>EnergyBalance!B7</f>
         <v>EXP</v>
       </c>
-      <c r="L15" s="213"/>
-      <c r="M15" s="213" t="str">
+      <c r="L15" s="203"/>
+      <c r="M15" s="203" t="str">
         <f>$K$15&amp;$C$2&amp;1</f>
         <v>EXPGAS1</v>
       </c>
-      <c r="N15" s="216" t="str">
+      <c r="N15" s="206" t="str">
         <f>"Export of "&amp;$D$2&amp; " Step "&amp;RIGHT(M15,1)</f>
         <v>Export of Natural Gas Step 1</v>
       </c>
-      <c r="O15" s="213" t="str">
+      <c r="O15" s="203" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P15" s="213"/>
-      <c r="Q15" s="213"/>
-      <c r="R15" s="213"/>
-      <c r="S15" s="213"/>
+      <c r="P15" s="203"/>
+      <c r="Q15" s="203"/>
+      <c r="R15" s="203"/>
+      <c r="S15" s="203"/>
       <c r="T15"/>
     </row>
     <row r="16" spans="2:20" s="9" customFormat="1">
@@ -19351,100 +17845,100 @@
         <f>EnergyBalance!Q2</f>
         <v>M€2005</v>
       </c>
-      <c r="K2" s="207" t="s">
+      <c r="K2" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="207"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="208"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="198"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="198"/>
     </row>
     <row r="3" spans="2:25">
-      <c r="K3" s="209" t="s">
+      <c r="K3" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="210" t="s">
+      <c r="L3" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="209" t="s">
+      <c r="M3" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="209" t="s">
+      <c r="N3" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="209" t="s">
+      <c r="O3" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="209" t="s">
+      <c r="P3" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="209" t="s">
+      <c r="Q3" s="199" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="209" t="s">
+      <c r="R3" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="209" t="s">
+      <c r="S3" s="199" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:25" ht="21.6" thickBot="1">
       <c r="C4" s="1"/>
-      <c r="K4" s="211" t="s">
+      <c r="K4" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="211" t="s">
+      <c r="L4" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="211" t="s">
+      <c r="M4" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="211" t="s">
+      <c r="N4" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="211" t="s">
+      <c r="O4" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="211" t="s">
+      <c r="P4" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="211" t="s">
+      <c r="Q4" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="211" t="s">
+      <c r="R4" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="211" t="s">
+      <c r="S4" s="201" t="s">
         <v>29</v>
       </c>
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="2:25">
-      <c r="K5" s="212" t="s">
+      <c r="K5" s="202" t="s">
         <v>93</v>
       </c>
-      <c r="L5" s="213"/>
-      <c r="M5" s="212" t="str">
+      <c r="L5" s="203"/>
+      <c r="M5" s="202" t="str">
         <f>C2</f>
         <v>OIL</v>
       </c>
-      <c r="N5" s="212" t="str">
+      <c r="N5" s="202" t="str">
         <f>D2</f>
         <v>Crude Oil</v>
       </c>
-      <c r="O5" s="212" t="str">
+      <c r="O5" s="202" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P5" s="212"/>
-      <c r="Q5" s="212"/>
-      <c r="R5" s="212"/>
-      <c r="S5" s="212"/>
+      <c r="P5" s="202"/>
+      <c r="Q5" s="202"/>
+      <c r="R5" s="202"/>
+      <c r="S5" s="202"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
@@ -19463,17 +17957,17 @@
         <v>13</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="K7" s="207" t="s">
+      <c r="K7" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="207"/>
-      <c r="M7" s="214"/>
-      <c r="N7" s="214"/>
-      <c r="O7" s="214"/>
-      <c r="P7" s="214"/>
-      <c r="Q7" s="214"/>
-      <c r="R7" s="214"/>
-      <c r="S7" s="214"/>
+      <c r="L7" s="197"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
+      <c r="P7" s="204"/>
+      <c r="Q7" s="204"/>
+      <c r="R7" s="204"/>
+      <c r="S7" s="204"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
     </row>
@@ -19502,31 +17996,31 @@
       <c r="I8" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="K8" s="209" t="s">
+      <c r="K8" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="210" t="s">
+      <c r="L8" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="209" t="s">
+      <c r="M8" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="209" t="s">
+      <c r="N8" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="209" t="s">
+      <c r="O8" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="209" t="s">
+      <c r="P8" s="199" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="209" t="s">
+      <c r="Q8" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="209" t="s">
+      <c r="R8" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="209" t="s">
+      <c r="S8" s="199" t="s">
         <v>20</v>
       </c>
     </row>
@@ -19552,31 +18046,31 @@
         <v>116</v>
       </c>
       <c r="J9" s="9"/>
-      <c r="K9" s="211" t="s">
+      <c r="K9" s="201" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="211" t="s">
+      <c r="L9" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="211" t="s">
+      <c r="M9" s="201" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="211" t="s">
+      <c r="N9" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="211" t="s">
+      <c r="O9" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="211" t="s">
+      <c r="P9" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="211" t="s">
+      <c r="Q9" s="201" t="s">
         <v>46</v>
       </c>
-      <c r="R9" s="211" t="s">
+      <c r="R9" s="201" t="s">
         <v>45</v>
       </c>
-      <c r="S9" s="211" t="s">
+      <c r="S9" s="201" t="s">
         <v>25</v>
       </c>
     </row>
@@ -19600,17 +18094,17 @@
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="K10" s="211" t="s">
+      <c r="K10" s="201" t="s">
         <v>103</v>
       </c>
-      <c r="L10" s="215"/>
-      <c r="M10" s="215"/>
-      <c r="N10" s="215"/>
-      <c r="O10" s="215"/>
-      <c r="P10" s="215"/>
-      <c r="Q10" s="215"/>
-      <c r="R10" s="215"/>
-      <c r="S10" s="215"/>
+      <c r="L10" s="205"/>
+      <c r="M10" s="205"/>
+      <c r="N10" s="205"/>
+      <c r="O10" s="205"/>
+      <c r="P10" s="205"/>
+      <c r="Q10" s="205"/>
+      <c r="R10" s="205"/>
+      <c r="S10" s="205"/>
       <c r="T10"/>
       <c r="X10"/>
       <c r="Y10"/>
@@ -19637,27 +18131,27 @@
         <f>EnergyBalance!$F$5*EnergyBalance!F37</f>
         <v>4302.8095999999996</v>
       </c>
-      <c r="K11" s="212" t="str">
+      <c r="K11" s="202" t="str">
         <f>EnergyBalance!$B$5</f>
         <v>MIN</v>
       </c>
-      <c r="L11" s="213"/>
-      <c r="M11" s="213" t="str">
+      <c r="L11" s="203"/>
+      <c r="M11" s="203" t="str">
         <f>$K$11&amp;$C$2&amp;1</f>
         <v>MINOIL1</v>
       </c>
-      <c r="N11" s="217" t="str">
+      <c r="N11" s="207" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(M11,1)</f>
         <v>Domestic Supply of Crude Oil Step 1</v>
       </c>
-      <c r="O11" s="213" t="str">
+      <c r="O11" s="203" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P11" s="213"/>
-      <c r="Q11" s="213"/>
-      <c r="R11" s="213"/>
-      <c r="S11" s="213"/>
+      <c r="P11" s="203"/>
+      <c r="Q11" s="203"/>
+      <c r="R11" s="203"/>
+      <c r="S11" s="203"/>
     </row>
     <row r="12" spans="2:25" s="9" customFormat="1">
       <c r="B12" s="16" t="str">
@@ -19681,24 +18175,24 @@
         <f>EnergyBalance!$F$5*EnergyBalance!F38</f>
         <v>1075.7023999999999</v>
       </c>
-      <c r="K12" s="213"/>
-      <c r="L12" s="213"/>
-      <c r="M12" s="213" t="str">
+      <c r="K12" s="203"/>
+      <c r="L12" s="203"/>
+      <c r="M12" s="203" t="str">
         <f>$K$11&amp;$C$2&amp;2</f>
         <v>MINOIL2</v>
       </c>
-      <c r="N12" s="217" t="str">
+      <c r="N12" s="207" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(M12,1)</f>
         <v>Domestic Supply of Crude Oil Step 2</v>
       </c>
-      <c r="O12" s="213" t="str">
+      <c r="O12" s="203" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P12" s="213"/>
-      <c r="Q12" s="213"/>
-      <c r="R12" s="213"/>
-      <c r="S12" s="213"/>
+      <c r="P12" s="203"/>
+      <c r="Q12" s="203"/>
+      <c r="R12" s="203"/>
+      <c r="S12" s="203"/>
     </row>
     <row r="13" spans="2:25">
       <c r="B13" s="16" t="str">
@@ -19719,24 +18213,24 @@
         <v>9.6</v>
       </c>
       <c r="I13" s="133"/>
-      <c r="K13" s="213"/>
-      <c r="L13" s="213"/>
-      <c r="M13" s="213" t="str">
+      <c r="K13" s="203"/>
+      <c r="L13" s="203"/>
+      <c r="M13" s="203" t="str">
         <f>$K$11&amp;$C$2&amp;3</f>
         <v>MINOIL3</v>
       </c>
-      <c r="N13" s="217" t="str">
+      <c r="N13" s="207" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(M13,1)</f>
         <v>Domestic Supply of Crude Oil Step 3</v>
       </c>
-      <c r="O13" s="213" t="str">
+      <c r="O13" s="203" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P13" s="213"/>
-      <c r="Q13" s="213"/>
-      <c r="R13" s="213"/>
-      <c r="S13" s="213"/>
+      <c r="P13" s="203"/>
+      <c r="Q13" s="203"/>
+      <c r="R13" s="203"/>
+      <c r="S13" s="203"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
@@ -19761,27 +18255,27 @@
         <v>8</v>
       </c>
       <c r="I14" s="133"/>
-      <c r="K14" s="213" t="str">
+      <c r="K14" s="203" t="str">
         <f>EnergyBalance!$B$6</f>
         <v>IMP</v>
       </c>
-      <c r="L14" s="213"/>
-      <c r="M14" s="213" t="str">
+      <c r="L14" s="203"/>
+      <c r="M14" s="203" t="str">
         <f>$K$14&amp;$C$2&amp;1</f>
         <v>IMPOIL1</v>
       </c>
-      <c r="N14" s="217" t="str">
+      <c r="N14" s="207" t="str">
         <f>"Import of "&amp;$D$2&amp; " Step "&amp;RIGHT(M14,1)</f>
         <v>Import of Crude Oil Step 1</v>
       </c>
-      <c r="O14" s="213" t="str">
+      <c r="O14" s="203" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P14" s="213"/>
-      <c r="Q14" s="213"/>
-      <c r="R14" s="213"/>
-      <c r="S14" s="213"/>
+      <c r="P14" s="203"/>
+      <c r="Q14" s="203"/>
+      <c r="R14" s="203"/>
+      <c r="S14" s="203"/>
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
@@ -19812,27 +18306,27 @@
         <f>-EnergyBalance!F7</f>
         <v>14830.662</v>
       </c>
-      <c r="K15" s="213" t="str">
+      <c r="K15" s="203" t="str">
         <f>EnergyBalance!B7</f>
         <v>EXP</v>
       </c>
-      <c r="L15" s="213"/>
-      <c r="M15" s="213" t="str">
+      <c r="L15" s="203"/>
+      <c r="M15" s="203" t="str">
         <f>$K$15&amp;$C$2&amp;1</f>
         <v>EXPOIL1</v>
       </c>
-      <c r="N15" s="217" t="str">
+      <c r="N15" s="207" t="str">
         <f>"Export of "&amp;$D$2&amp; " Step "&amp;RIGHT(M15,1)</f>
         <v>Export of Crude Oil Step 1</v>
       </c>
-      <c r="O15" s="213" t="str">
+      <c r="O15" s="203" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P15" s="213"/>
-      <c r="Q15" s="213"/>
-      <c r="R15" s="213"/>
-      <c r="S15" s="213"/>
+      <c r="P15" s="203"/>
+      <c r="Q15" s="203"/>
+      <c r="R15" s="203"/>
+      <c r="S15" s="203"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
     </row>
@@ -19847,7 +18341,7 @@
     </row>
     <row r="17" spans="2:25" s="9" customFormat="1">
       <c r="F17" s="16"/>
-      <c r="H17" s="206"/>
+      <c r="H17" s="196"/>
       <c r="U17"/>
       <c r="V17"/>
       <c r="W17"/>
@@ -20050,99 +18544,99 @@
         <f>EnergyBalance!Q2</f>
         <v>M€2005</v>
       </c>
-      <c r="K2" s="207" t="s">
+      <c r="K2" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="207"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="208"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="198"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="198"/>
     </row>
     <row r="3" spans="2:20">
       <c r="H3" s="19"/>
-      <c r="K3" s="209" t="s">
+      <c r="K3" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="210" t="s">
+      <c r="L3" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="209" t="s">
+      <c r="M3" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="209" t="s">
+      <c r="N3" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="209" t="s">
+      <c r="O3" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="209" t="s">
+      <c r="P3" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="209" t="s">
+      <c r="Q3" s="199" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="209" t="s">
+      <c r="R3" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="209" t="s">
+      <c r="S3" s="199" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:20" ht="21.6" thickBot="1">
       <c r="B4" s="1"/>
-      <c r="K4" s="211" t="s">
+      <c r="K4" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="211" t="s">
+      <c r="L4" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="211" t="s">
+      <c r="M4" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="211" t="s">
+      <c r="N4" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="211" t="s">
+      <c r="O4" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="211" t="s">
+      <c r="P4" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="211" t="s">
+      <c r="Q4" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="211" t="s">
+      <c r="R4" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="211" t="s">
+      <c r="S4" s="201" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:20">
-      <c r="K5" s="212" t="s">
+      <c r="K5" s="202" t="s">
         <v>93</v>
       </c>
-      <c r="L5" s="213"/>
-      <c r="M5" s="212" t="str">
+      <c r="L5" s="203"/>
+      <c r="M5" s="202" t="str">
         <f>C2</f>
         <v>RNW</v>
       </c>
-      <c r="N5" s="212" t="str">
+      <c r="N5" s="202" t="str">
         <f>D2</f>
         <v>Renewable Energies</v>
       </c>
-      <c r="O5" s="212" t="str">
+      <c r="O5" s="202" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P5" s="212"/>
-      <c r="Q5" s="212"/>
-      <c r="R5" s="212"/>
-      <c r="S5" s="212"/>
+      <c r="P5" s="202"/>
+      <c r="Q5" s="202"/>
+      <c r="R5" s="202"/>
+      <c r="S5" s="202"/>
     </row>
     <row r="7" spans="2:20">
       <c r="F7" s="7" t="s">
@@ -20150,17 +18644,17 @@
       </c>
       <c r="H7" s="7"/>
       <c r="I7"/>
-      <c r="K7" s="207" t="s">
+      <c r="K7" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="207"/>
-      <c r="M7" s="214"/>
-      <c r="N7" s="214"/>
-      <c r="O7" s="214"/>
-      <c r="P7" s="214"/>
-      <c r="Q7" s="214"/>
-      <c r="R7" s="214"/>
-      <c r="S7" s="214"/>
+      <c r="L7" s="197"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
+      <c r="P7" s="204"/>
+      <c r="Q7" s="204"/>
+      <c r="R7" s="204"/>
+      <c r="S7" s="204"/>
     </row>
     <row r="8" spans="2:20">
       <c r="B8" s="3" t="s">
@@ -20187,31 +18681,31 @@
       <c r="I8" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="K8" s="209" t="s">
+      <c r="K8" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="210" t="s">
+      <c r="L8" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="209" t="s">
+      <c r="M8" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="209" t="s">
+      <c r="N8" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="209" t="s">
+      <c r="O8" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="209" t="s">
+      <c r="P8" s="199" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="209" t="s">
+      <c r="Q8" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="209" t="s">
+      <c r="R8" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="209" t="s">
+      <c r="S8" s="199" t="s">
         <v>20</v>
       </c>
     </row>
@@ -20236,31 +18730,31 @@
       <c r="I9" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="K9" s="211" t="s">
+      <c r="K9" s="201" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="211" t="s">
+      <c r="L9" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="211" t="s">
+      <c r="M9" s="201" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="211" t="s">
+      <c r="N9" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="211" t="s">
+      <c r="O9" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="211" t="s">
+      <c r="P9" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="211" t="s">
+      <c r="Q9" s="201" t="s">
         <v>46</v>
       </c>
-      <c r="R9" s="211" t="s">
+      <c r="R9" s="201" t="s">
         <v>45</v>
       </c>
-      <c r="S9" s="211" t="s">
+      <c r="S9" s="201" t="s">
         <v>25</v>
       </c>
     </row>
@@ -20285,17 +18779,17 @@
         <v>PJ</v>
       </c>
       <c r="J10" s="49"/>
-      <c r="K10" s="211" t="s">
+      <c r="K10" s="201" t="s">
         <v>103</v>
       </c>
-      <c r="L10" s="215"/>
-      <c r="M10" s="215"/>
-      <c r="N10" s="215"/>
-      <c r="O10" s="215"/>
-      <c r="P10" s="215"/>
-      <c r="Q10" s="215"/>
-      <c r="R10" s="215"/>
-      <c r="S10" s="215"/>
+      <c r="L10" s="205"/>
+      <c r="M10" s="205"/>
+      <c r="N10" s="205"/>
+      <c r="O10" s="205"/>
+      <c r="P10" s="205"/>
+      <c r="Q10" s="205"/>
+      <c r="R10" s="205"/>
+      <c r="S10" s="205"/>
       <c r="T10" s="49"/>
     </row>
     <row r="11" spans="2:20" s="51" customFormat="1">
@@ -20313,27 +18807,27 @@
       <c r="G11" s="21"/>
       <c r="H11" s="45"/>
       <c r="I11" s="9"/>
-      <c r="K11" s="212" t="str">
+      <c r="K11" s="202" t="str">
         <f>EnergyBalance!$B$5</f>
         <v>MIN</v>
       </c>
-      <c r="L11" s="213"/>
-      <c r="M11" s="213" t="str">
+      <c r="L11" s="203"/>
+      <c r="M11" s="203" t="str">
         <f>$K$11&amp;$C$2&amp;1</f>
         <v>MINRNW1</v>
       </c>
-      <c r="N11" s="216" t="str">
+      <c r="N11" s="206" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(M11,1)</f>
         <v>Domestic Supply of Renewable Energies Step 1</v>
       </c>
-      <c r="O11" s="213" t="str">
+      <c r="O11" s="203" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="P11" s="213"/>
-      <c r="Q11" s="213"/>
-      <c r="R11" s="213"/>
-      <c r="S11" s="213"/>
+      <c r="P11" s="203"/>
+      <c r="Q11" s="203"/>
+      <c r="R11" s="203"/>
+      <c r="S11" s="203"/>
     </row>
     <row r="12" spans="2:20" s="51" customFormat="1">
       <c r="B12" s="16"/>
@@ -20656,677 +19150,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B1:T38"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="2" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="2" style="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="49"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:20" ht="14.4">
-      <c r="B1" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="2:20" ht="15.6">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20" t="str">
-        <f>EnergyBalance!G2</f>
-        <v>NUC</v>
-      </c>
-      <c r="D2" s="20" t="str">
-        <f>EnergyBalance!G3</f>
-        <v>Nuclear Energy</v>
-      </c>
-      <c r="E2" s="20" t="str">
-        <f>EnergyBalance!R2</f>
-        <v>PJ</v>
-      </c>
-      <c r="G2" s="20" t="str">
-        <f>EnergyBalance!Q2</f>
-        <v>M€2005</v>
-      </c>
-      <c r="K2" s="207" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="207"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="208"/>
-    </row>
-    <row r="3" spans="2:20">
-      <c r="H3" s="19"/>
-      <c r="K3" s="209" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="210" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="209" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="209" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="209" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="209" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="209" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="209" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" s="209" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20" ht="21.6" thickBot="1">
-      <c r="B4" s="1"/>
-      <c r="K4" s="211" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="211" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="211" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="211" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="211" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="211" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="211" t="s">
-        <v>44</v>
-      </c>
-      <c r="R4" s="211" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="211" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20">
-      <c r="K5" s="212" t="s">
-        <v>93</v>
-      </c>
-      <c r="L5" s="213"/>
-      <c r="M5" s="212" t="str">
-        <f>C2</f>
-        <v>NUC</v>
-      </c>
-      <c r="N5" s="212" t="str">
-        <f>D2</f>
-        <v>Nuclear Energy</v>
-      </c>
-      <c r="O5" s="212" t="str">
-        <f>$E$2</f>
-        <v>PJ</v>
-      </c>
-      <c r="P5" s="212"/>
-      <c r="Q5" s="212"/>
-      <c r="R5" s="212"/>
-      <c r="S5" s="212"/>
-    </row>
-    <row r="7" spans="2:20">
-      <c r="F7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="K7" s="207" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="207"/>
-      <c r="M7" s="214"/>
-      <c r="N7" s="214"/>
-      <c r="O7" s="214"/>
-      <c r="P7" s="214"/>
-      <c r="Q7" s="214"/>
-      <c r="R7" s="214"/>
-      <c r="S7" s="214"/>
-    </row>
-    <row r="8" spans="2:20">
-      <c r="B8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="164" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="164" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="164" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" s="209" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="210" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="209" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="209" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="209" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="209" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q8" s="209" t="s">
-        <v>18</v>
-      </c>
-      <c r="R8" s="209" t="s">
-        <v>19</v>
-      </c>
-      <c r="S8" s="209" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" ht="21.6" thickBot="1">
-      <c r="B9" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="K9" s="211" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="211" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="211" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="211" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="211" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="211" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q9" s="211" t="s">
-        <v>46</v>
-      </c>
-      <c r="R9" s="211" t="s">
-        <v>45</v>
-      </c>
-      <c r="S9" s="211" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" s="51" customFormat="1" ht="13.8" thickBot="1">
-      <c r="B10" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24" t="str">
-        <f>$E$2</f>
-        <v>PJ</v>
-      </c>
-      <c r="H10" s="24" t="str">
-        <f>$G$2&amp;"/"&amp;$E$2</f>
-        <v>M€2005/PJ</v>
-      </c>
-      <c r="I10" s="24" t="str">
-        <f>$E$2</f>
-        <v>PJ</v>
-      </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="211" t="s">
-        <v>103</v>
-      </c>
-      <c r="L10" s="215"/>
-      <c r="M10" s="215"/>
-      <c r="N10" s="215"/>
-      <c r="O10" s="215"/>
-      <c r="P10" s="215"/>
-      <c r="Q10" s="215"/>
-      <c r="R10" s="215"/>
-      <c r="S10" s="215"/>
-      <c r="T10" s="49"/>
-    </row>
-    <row r="11" spans="2:20" s="51" customFormat="1">
-      <c r="B11" s="16" t="str">
-        <f>M11</f>
-        <v>MINNUC1</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16" t="str">
-        <f>$M$5</f>
-        <v>NUC</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="179"/>
-      <c r="K11" s="212" t="str">
-        <f>EnergyBalance!$B$5</f>
-        <v>MIN</v>
-      </c>
-      <c r="L11" s="213"/>
-      <c r="M11" s="213" t="str">
-        <f>$K$11&amp;$C$2&amp;1</f>
-        <v>MINNUC1</v>
-      </c>
-      <c r="N11" s="216" t="str">
-        <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(M11,1)</f>
-        <v>Domestic Supply of Nuclear Energy Step 1</v>
-      </c>
-      <c r="O11" s="213" t="str">
-        <f>$E$2</f>
-        <v>PJ</v>
-      </c>
-      <c r="P11" s="213"/>
-      <c r="Q11" s="213"/>
-      <c r="R11" s="213"/>
-      <c r="S11" s="213"/>
-    </row>
-    <row r="12" spans="2:20" s="51" customFormat="1">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-    </row>
-    <row r="13" spans="2:20">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="51"/>
-    </row>
-    <row r="14" spans="2:20">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-    </row>
-    <row r="15" spans="2:20">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="23"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-    </row>
-    <row r="16" spans="2:20" s="51" customFormat="1">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="49"/>
-    </row>
-    <row r="17" spans="2:20" s="51" customFormat="1">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-    </row>
-    <row r="18" spans="2:20">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="51"/>
-    </row>
-    <row r="19" spans="2:20">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-    </row>
-    <row r="20" spans="2:20" s="50" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="49"/>
-    </row>
-    <row r="21" spans="2:20">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="50"/>
-    </row>
-    <row r="22" spans="2:20">
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-    </row>
-    <row r="23" spans="2:20" s="51" customFormat="1">
-      <c r="B23" s="85"/>
-      <c r="C23" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23" s="49"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23" s="49"/>
-    </row>
-    <row r="24" spans="2:20" s="51" customFormat="1">
-      <c r="B24" s="130"/>
-      <c r="C24" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-    </row>
-    <row r="25" spans="2:20" s="51" customFormat="1">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-    </row>
-    <row r="26" spans="2:20">
-      <c r="J26" s="51"/>
-      <c r="T26" s="51"/>
-    </row>
-    <row r="30" spans="2:20">
-      <c r="J30" s="52"/>
-    </row>
-    <row r="31" spans="2:20">
-      <c r="J31" s="52"/>
-    </row>
-    <row r="32" spans="2:20">
-      <c r="J32" s="52"/>
-    </row>
-    <row r="33" spans="10:10">
-      <c r="J33" s="52"/>
-    </row>
-    <row r="34" spans="10:10">
-      <c r="J34" s="52"/>
-    </row>
-    <row r="35" spans="10:10">
-      <c r="J35" s="52"/>
-    </row>
-    <row r="36" spans="10:10">
-      <c r="J36" s="52"/>
-    </row>
-    <row r="37" spans="10:10">
-      <c r="J37" s="52"/>
-    </row>
-    <row r="38" spans="10:10">
-      <c r="J38" s="52"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:Q28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:C28"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -21387,44 +19215,44 @@
       <c r="G2" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="207" t="s">
+      <c r="I2" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="207"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
+      <c r="J2" s="197"/>
+      <c r="K2" s="198"/>
+      <c r="L2" s="198"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="198"/>
+      <c r="Q2" s="198"/>
     </row>
     <row r="3" spans="2:17">
-      <c r="I3" s="209" t="s">
+      <c r="I3" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="210" t="s">
+      <c r="J3" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="209" t="s">
+      <c r="K3" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="209" t="s">
+      <c r="L3" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="209" t="s">
+      <c r="M3" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="209" t="s">
+      <c r="N3" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="209" t="s">
+      <c r="O3" s="199" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="209" t="s">
+      <c r="P3" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="209" t="s">
+      <c r="Q3" s="199" t="s">
         <v>12</v>
       </c>
     </row>
@@ -21434,31 +19262,31 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="G4"/>
-      <c r="I4" s="211" t="s">
+      <c r="I4" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="211" t="s">
+      <c r="J4" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="211" t="s">
+      <c r="K4" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="211" t="s">
+      <c r="L4" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="211" t="s">
+      <c r="M4" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="211" t="s">
+      <c r="N4" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="211" t="s">
+      <c r="O4" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="211" t="s">
+      <c r="P4" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="211" t="s">
+      <c r="Q4" s="201" t="s">
         <v>29</v>
       </c>
     </row>
@@ -21468,26 +19296,26 @@
       <c r="D5" s="11"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
-      <c r="I5" s="213" t="s">
+      <c r="I5" s="203" t="s">
         <v>93</v>
       </c>
-      <c r="J5" s="213"/>
-      <c r="K5" s="213" t="str">
+      <c r="J5" s="203"/>
+      <c r="K5" s="203" t="str">
         <f>EnergyBalance!$B$16&amp;EnergyBalance!$E$2</f>
         <v>RSDGAS</v>
       </c>
-      <c r="L5" s="216" t="str">
+      <c r="L5" s="206" t="str">
         <f>EnergyBalance!$C$16&amp;" "&amp;EnergyBalance!$E$3</f>
         <v>Residential Natural Gas</v>
       </c>
-      <c r="M5" s="213" t="str">
-        <f t="shared" ref="M5:M11" si="0">$E$2</f>
+      <c r="M5" s="203" t="str">
+        <f t="shared" ref="M5:M10" si="0">$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N5" s="213"/>
-      <c r="O5" s="213"/>
-      <c r="P5" s="213"/>
-      <c r="Q5" s="213"/>
+      <c r="N5" s="203"/>
+      <c r="O5" s="203"/>
+      <c r="P5" s="203"/>
+      <c r="Q5" s="203"/>
     </row>
     <row r="6" spans="2:17">
       <c r="B6" s="11"/>
@@ -21495,24 +19323,24 @@
       <c r="D6" s="11"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
-      <c r="I6" s="214"/>
-      <c r="J6" s="214"/>
-      <c r="K6" s="214" t="str">
+      <c r="I6" s="204"/>
+      <c r="J6" s="204"/>
+      <c r="K6" s="204" t="str">
         <f>EnergyBalance!$B$20&amp;EnergyBalance!$F$2</f>
         <v>TRAOIL</v>
       </c>
-      <c r="L6" s="214" t="str">
+      <c r="L6" s="204" t="str">
         <f>EnergyBalance!$C$20&amp;" "&amp;EnergyBalance!$F$3</f>
         <v>Transport Crude Oil</v>
       </c>
-      <c r="M6" s="214" t="str">
+      <c r="M6" s="204" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="N6" s="213"/>
-      <c r="O6" s="213"/>
-      <c r="P6" s="213"/>
-      <c r="Q6" s="213"/>
+      <c r="N6" s="203"/>
+      <c r="O6" s="203"/>
+      <c r="P6" s="203"/>
+      <c r="Q6" s="203"/>
     </row>
     <row r="7" spans="2:17">
       <c r="B7" s="11"/>
@@ -21520,24 +19348,24 @@
       <c r="D7" s="11"/>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
-      <c r="I7" s="213"/>
-      <c r="J7" s="213"/>
-      <c r="K7" s="213" t="str">
+      <c r="I7" s="203"/>
+      <c r="J7" s="203"/>
+      <c r="K7" s="203" t="str">
         <f>Con_ELC!$B$2&amp;EnergyBalance!$D$2</f>
         <v>ELCCOA</v>
       </c>
-      <c r="L7" s="216" t="str">
+      <c r="L7" s="206" t="str">
         <f>Con_ELC!$C$2&amp;" "&amp;EnergyBalance!$D$3</f>
         <v>Electricity Plants Solid Fuels</v>
       </c>
-      <c r="M7" s="213" t="str">
+      <c r="M7" s="203" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="N7" s="213"/>
-      <c r="O7" s="213"/>
-      <c r="P7" s="213"/>
-      <c r="Q7" s="213"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="203"/>
     </row>
     <row r="8" spans="2:17">
       <c r="B8" s="11"/>
@@ -21545,24 +19373,24 @@
       <c r="D8" s="11"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
-      <c r="I8" s="213"/>
-      <c r="J8" s="213"/>
-      <c r="K8" s="213" t="str">
+      <c r="I8" s="203"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="203" t="str">
         <f>Con_ELC!$B$2&amp;EnergyBalance!$E$2</f>
         <v>ELCGAS</v>
       </c>
-      <c r="L8" s="216" t="str">
+      <c r="L8" s="206" t="str">
         <f>Con_ELC!$C$2&amp;" "&amp;EnergyBalance!$E$3</f>
         <v>Electricity Plants Natural Gas</v>
       </c>
-      <c r="M8" s="213" t="str">
+      <c r="M8" s="203" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="N8" s="213"/>
-      <c r="O8" s="213"/>
-      <c r="P8" s="213"/>
-      <c r="Q8" s="213"/>
+      <c r="N8" s="203"/>
+      <c r="O8" s="203"/>
+      <c r="P8" s="203"/>
+      <c r="Q8" s="203"/>
     </row>
     <row r="9" spans="2:17">
       <c r="B9" s="11"/>
@@ -21570,24 +19398,24 @@
       <c r="D9" s="11"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
-      <c r="I9" s="213"/>
-      <c r="J9" s="213"/>
-      <c r="K9" s="213" t="str">
+      <c r="I9" s="203"/>
+      <c r="J9" s="203"/>
+      <c r="K9" s="203" t="str">
         <f>Con_ELC!$B$2&amp;EnergyBalance!$F$2</f>
         <v>ELCOIL</v>
       </c>
-      <c r="L9" s="216" t="str">
+      <c r="L9" s="206" t="str">
         <f>Con_ELC!$C$2&amp;" "&amp;EnergyBalance!$F$3</f>
         <v>Electricity Plants Crude Oil</v>
       </c>
-      <c r="M9" s="213" t="str">
+      <c r="M9" s="203" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="N9" s="213"/>
-      <c r="O9" s="213"/>
-      <c r="P9" s="213"/>
-      <c r="Q9" s="213"/>
+      <c r="N9" s="203"/>
+      <c r="O9" s="203"/>
+      <c r="P9" s="203"/>
+      <c r="Q9" s="203"/>
     </row>
     <row r="10" spans="2:17">
       <c r="B10" s="11"/>
@@ -21595,24 +19423,24 @@
       <c r="D10" s="11"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
-      <c r="I10" s="213"/>
-      <c r="J10" s="213"/>
-      <c r="K10" s="213" t="str">
+      <c r="I10" s="203"/>
+      <c r="J10" s="203"/>
+      <c r="K10" s="203" t="str">
         <f>Con_ELC!$B$2&amp;EnergyBalance!$H$2</f>
         <v>ELCRNW</v>
       </c>
-      <c r="L10" s="216" t="str">
+      <c r="L10" s="206" t="str">
         <f>Con_ELC!$C$2&amp;" "&amp;EnergyBalance!$H$3</f>
         <v>Electricity Plants Renewable Energies</v>
       </c>
-      <c r="M10" s="213" t="str">
+      <c r="M10" s="203" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="N10" s="213"/>
-      <c r="O10" s="213"/>
-      <c r="P10" s="213"/>
-      <c r="Q10" s="213"/>
+      <c r="N10" s="203"/>
+      <c r="O10" s="203"/>
+      <c r="P10" s="203"/>
+      <c r="Q10" s="203"/>
     </row>
     <row r="11" spans="2:17">
       <c r="B11" s="11"/>
@@ -21620,24 +19448,15 @@
       <c r="D11" s="11"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
-      <c r="I11" s="213"/>
-      <c r="J11" s="213"/>
-      <c r="K11" s="213" t="str">
-        <f>Con_ELC!$B$2&amp;EnergyBalance!$G$2</f>
-        <v>ELCNUC</v>
-      </c>
-      <c r="L11" s="216" t="str">
-        <f>Con_ELC!$C$2&amp;" "&amp;EnergyBalance!$G$3</f>
-        <v>Electricity Plants Nuclear Energy</v>
-      </c>
-      <c r="M11" s="213" t="str">
-        <f t="shared" si="0"/>
-        <v>PJ</v>
-      </c>
-      <c r="N11" s="213"/>
-      <c r="O11" s="213"/>
-      <c r="P11" s="213"/>
-      <c r="Q11" s="213"/>
+      <c r="I11" s="203"/>
+      <c r="J11" s="203"/>
+      <c r="K11" s="203"/>
+      <c r="L11" s="206"/>
+      <c r="M11" s="203"/>
+      <c r="N11" s="203"/>
+      <c r="O11" s="203"/>
+      <c r="P11" s="203"/>
+      <c r="Q11" s="203"/>
     </row>
     <row r="12" spans="2:17">
       <c r="K12" s="52"/>
@@ -21649,17 +19468,17 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="I13" s="207" t="s">
+      <c r="I13" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="207"/>
-      <c r="K13" s="214"/>
-      <c r="L13" s="214"/>
-      <c r="M13" s="214"/>
-      <c r="N13" s="214"/>
-      <c r="O13" s="214"/>
-      <c r="P13" s="214"/>
-      <c r="Q13" s="214"/>
+      <c r="J13" s="197"/>
+      <c r="K13" s="204"/>
+      <c r="L13" s="204"/>
+      <c r="M13" s="204"/>
+      <c r="N13" s="204"/>
+      <c r="O13" s="204"/>
+      <c r="P13" s="204"/>
+      <c r="Q13" s="204"/>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" s="29" t="s">
@@ -21680,31 +19499,31 @@
       <c r="G14" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="209" t="s">
+      <c r="I14" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="210" t="s">
+      <c r="J14" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="209" t="s">
+      <c r="K14" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="209" t="s">
+      <c r="L14" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="M14" s="209" t="s">
+      <c r="M14" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="209" t="s">
+      <c r="N14" s="199" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="209" t="s">
+      <c r="O14" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="P14" s="209" t="s">
+      <c r="P14" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="209" t="s">
+      <c r="Q14" s="199" t="s">
         <v>20</v>
       </c>
     </row>
@@ -21727,31 +19546,31 @@
       <c r="G15" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="I15" s="211" t="s">
+      <c r="I15" s="201" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="211" t="s">
+      <c r="J15" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="211" t="s">
+      <c r="K15" s="201" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="211" t="s">
+      <c r="L15" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="211" t="s">
+      <c r="M15" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="211" t="s">
+      <c r="N15" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="O15" s="211" t="s">
+      <c r="O15" s="201" t="s">
         <v>46</v>
       </c>
-      <c r="P15" s="211" t="s">
+      <c r="P15" s="201" t="s">
         <v>45</v>
       </c>
-      <c r="Q15" s="211" t="s">
+      <c r="Q15" s="201" t="s">
         <v>25</v>
       </c>
     </row>
@@ -21769,25 +19588,25 @@
       <c r="G16" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="I16" s="211" t="s">
+      <c r="I16" s="201" t="s">
         <v>103</v>
       </c>
-      <c r="J16" s="215"/>
-      <c r="K16" s="215"/>
-      <c r="L16" s="215"/>
-      <c r="M16" s="215"/>
-      <c r="N16" s="215"/>
-      <c r="O16" s="215"/>
-      <c r="P16" s="215"/>
-      <c r="Q16" s="215"/>
+      <c r="J16" s="205"/>
+      <c r="K16" s="205"/>
+      <c r="L16" s="205"/>
+      <c r="M16" s="205"/>
+      <c r="N16" s="205"/>
+      <c r="O16" s="205"/>
+      <c r="P16" s="205"/>
+      <c r="Q16" s="205"/>
     </row>
     <row r="17" spans="2:17">
       <c r="B17" t="str">
-        <f t="shared" ref="B17:B23" si="1">K17</f>
+        <f t="shared" ref="B17:B22" si="1">K17</f>
         <v>FTE-RSDGAS</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" ref="C17:C23" si="2">RIGHT(D17,3)</f>
+        <f t="shared" ref="C17:C22" si="2">RIGHT(D17,3)</f>
         <v>GAS</v>
       </c>
       <c r="D17" t="str">
@@ -21801,29 +19620,29 @@
       <c r="G17" s="133">
         <v>30</v>
       </c>
-      <c r="I17" s="212" t="s">
+      <c r="I17" s="202" t="s">
         <v>150</v>
       </c>
-      <c r="J17" s="213"/>
-      <c r="K17" s="213" t="str">
-        <f t="shared" ref="K17:K23" si="3">"FT"&amp;$G$2&amp;"-"&amp;K5</f>
+      <c r="J17" s="203"/>
+      <c r="K17" s="203" t="str">
+        <f t="shared" ref="K17:K22" si="3">"FT"&amp;$G$2&amp;"-"&amp;K5</f>
         <v>FTE-RSDGAS</v>
       </c>
-      <c r="L17" s="216" t="str">
+      <c r="L17" s="206" t="str">
         <f>$D$2&amp;" "&amp;$G$1&amp;" "&amp;EnergyBalance!$C$16&amp; " Sector- "&amp;EnergyBalance!$E$3</f>
         <v>Sector Fuel Existing Residential Sector- Natural Gas</v>
       </c>
-      <c r="M17" s="213" t="str">
-        <f t="shared" ref="M17:M23" si="4">$E$2</f>
+      <c r="M17" s="203" t="str">
+        <f t="shared" ref="M17:M22" si="4">$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N17" s="213" t="str">
-        <f t="shared" ref="N17:N23" si="5">$E$2&amp;"a"</f>
+      <c r="N17" s="203" t="str">
+        <f t="shared" ref="N17:N22" si="5">$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O17" s="213"/>
-      <c r="P17" s="213"/>
-      <c r="Q17" s="213"/>
+      <c r="O17" s="203"/>
+      <c r="P17" s="203"/>
+      <c r="Q17" s="203"/>
     </row>
     <row r="18" spans="2:17">
       <c r="B18" t="str">
@@ -21838,34 +19657,34 @@
         <f>$K$6</f>
         <v>TRAOIL</v>
       </c>
-      <c r="E18" s="193"/>
+      <c r="E18" s="186"/>
       <c r="F18" s="132">
         <v>1</v>
       </c>
       <c r="G18" s="133">
         <v>30</v>
       </c>
-      <c r="I18" s="213"/>
-      <c r="J18" s="213"/>
-      <c r="K18" s="213" t="str">
+      <c r="I18" s="203"/>
+      <c r="J18" s="203"/>
+      <c r="K18" s="203" t="str">
         <f t="shared" si="3"/>
         <v>FTE-TRAOIL</v>
       </c>
-      <c r="L18" s="216" t="str">
+      <c r="L18" s="206" t="str">
         <f>$D$2&amp;" "&amp;$G$1&amp;" "&amp;EnergyBalance!$C$20&amp; " Sector- "&amp;EnergyBalance!$F$3</f>
         <v>Sector Fuel Existing Transport Sector- Crude Oil</v>
       </c>
-      <c r="M18" s="213" t="str">
+      <c r="M18" s="203" t="str">
         <f t="shared" si="4"/>
         <v>PJ</v>
       </c>
-      <c r="N18" s="213" t="str">
+      <c r="N18" s="203" t="str">
         <f t="shared" si="5"/>
         <v>PJa</v>
       </c>
-      <c r="O18" s="213"/>
-      <c r="P18" s="213"/>
-      <c r="Q18" s="213"/>
+      <c r="O18" s="203"/>
+      <c r="P18" s="203"/>
+      <c r="Q18" s="203"/>
     </row>
     <row r="19" spans="2:17">
       <c r="B19" t="str">
@@ -21887,27 +19706,27 @@
       <c r="G19" s="133">
         <v>30</v>
       </c>
-      <c r="I19" s="213"/>
-      <c r="J19" s="213"/>
-      <c r="K19" s="213" t="str">
+      <c r="I19" s="203"/>
+      <c r="J19" s="203"/>
+      <c r="K19" s="203" t="str">
         <f t="shared" si="3"/>
         <v>FTE-ELCCOA</v>
       </c>
-      <c r="L19" s="216" t="str">
+      <c r="L19" s="206" t="str">
         <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;L7</f>
         <v>Sector Fuel Technology Existing Electricity Plants Solid Fuels</v>
       </c>
-      <c r="M19" s="213" t="str">
+      <c r="M19" s="203" t="str">
         <f t="shared" si="4"/>
         <v>PJ</v>
       </c>
-      <c r="N19" s="213" t="str">
+      <c r="N19" s="203" t="str">
         <f t="shared" si="5"/>
         <v>PJa</v>
       </c>
-      <c r="O19" s="213"/>
-      <c r="P19" s="213"/>
-      <c r="Q19" s="213"/>
+      <c r="O19" s="203"/>
+      <c r="P19" s="203"/>
+      <c r="Q19" s="203"/>
     </row>
     <row r="20" spans="2:17">
       <c r="B20" t="str">
@@ -21929,27 +19748,27 @@
       <c r="G20" s="133">
         <v>30</v>
       </c>
-      <c r="I20" s="213"/>
-      <c r="J20" s="213"/>
-      <c r="K20" s="213" t="str">
+      <c r="I20" s="203"/>
+      <c r="J20" s="203"/>
+      <c r="K20" s="203" t="str">
         <f t="shared" si="3"/>
         <v>FTE-ELCGAS</v>
       </c>
-      <c r="L20" s="216" t="str">
+      <c r="L20" s="206" t="str">
         <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;L8</f>
         <v>Sector Fuel Technology Existing Electricity Plants Natural Gas</v>
       </c>
-      <c r="M20" s="213" t="str">
+      <c r="M20" s="203" t="str">
         <f t="shared" si="4"/>
         <v>PJ</v>
       </c>
-      <c r="N20" s="213" t="str">
+      <c r="N20" s="203" t="str">
         <f t="shared" si="5"/>
         <v>PJa</v>
       </c>
-      <c r="O20" s="213"/>
-      <c r="P20" s="213"/>
-      <c r="Q20" s="213"/>
+      <c r="O20" s="203"/>
+      <c r="P20" s="203"/>
+      <c r="Q20" s="203"/>
     </row>
     <row r="21" spans="2:17">
       <c r="B21" t="str">
@@ -21971,27 +19790,27 @@
       <c r="G21" s="133">
         <v>30</v>
       </c>
-      <c r="I21" s="213"/>
-      <c r="J21" s="213"/>
-      <c r="K21" s="213" t="str">
+      <c r="I21" s="203"/>
+      <c r="J21" s="203"/>
+      <c r="K21" s="203" t="str">
         <f t="shared" si="3"/>
         <v>FTE-ELCOIL</v>
       </c>
-      <c r="L21" s="217" t="str">
+      <c r="L21" s="207" t="str">
         <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;L9</f>
         <v>Sector Fuel Technology Existing Electricity Plants Crude Oil</v>
       </c>
-      <c r="M21" s="213" t="str">
+      <c r="M21" s="203" t="str">
         <f t="shared" si="4"/>
         <v>PJ</v>
       </c>
-      <c r="N21" s="213" t="str">
+      <c r="N21" s="203" t="str">
         <f t="shared" si="5"/>
         <v>PJa</v>
       </c>
-      <c r="O21" s="213"/>
-      <c r="P21" s="213"/>
-      <c r="Q21" s="213"/>
+      <c r="O21" s="203"/>
+      <c r="P21" s="203"/>
+      <c r="Q21" s="203"/>
     </row>
     <row r="22" spans="2:17">
       <c r="B22" t="str">
@@ -22013,41 +19832,30 @@
       <c r="G22" s="133">
         <v>30</v>
       </c>
-      <c r="I22" s="213"/>
-      <c r="J22" s="213"/>
-      <c r="K22" s="213" t="str">
+      <c r="I22" s="203"/>
+      <c r="J22" s="203"/>
+      <c r="K22" s="203" t="str">
         <f t="shared" si="3"/>
         <v>FTE-ELCRNW</v>
       </c>
-      <c r="L22" s="216" t="str">
+      <c r="L22" s="206" t="str">
         <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;L10</f>
         <v>Sector Fuel Technology Existing Electricity Plants Renewable Energies</v>
       </c>
-      <c r="M22" s="213" t="str">
+      <c r="M22" s="203" t="str">
         <f t="shared" si="4"/>
         <v>PJ</v>
       </c>
-      <c r="N22" s="213" t="str">
+      <c r="N22" s="203" t="str">
         <f t="shared" si="5"/>
         <v>PJa</v>
       </c>
-      <c r="O22" s="213"/>
-      <c r="P22" s="213"/>
-      <c r="Q22" s="213"/>
+      <c r="O22" s="203"/>
+      <c r="P22" s="203"/>
+      <c r="Q22" s="203"/>
     </row>
     <row r="23" spans="2:17">
-      <c r="B23" t="str">
-        <f t="shared" si="1"/>
-        <v>FTE-ELCNUC</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="2"/>
-        <v>NUC</v>
-      </c>
-      <c r="D23" s="49" t="str">
-        <f>K11</f>
-        <v>ELCNUC</v>
-      </c>
+      <c r="D23" s="49"/>
       <c r="E23" s="22"/>
       <c r="F23" s="132">
         <v>1</v>
@@ -22055,27 +19863,15 @@
       <c r="G23" s="133">
         <v>30</v>
       </c>
-      <c r="I23" s="218"/>
-      <c r="J23" s="219"/>
-      <c r="K23" s="213" t="str">
-        <f t="shared" si="3"/>
-        <v>FTE-ELCNUC</v>
-      </c>
-      <c r="L23" s="216" t="str">
-        <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;L11</f>
-        <v>Sector Fuel Technology Existing Electricity Plants Nuclear Energy</v>
-      </c>
-      <c r="M23" s="213" t="str">
-        <f t="shared" si="4"/>
-        <v>PJ</v>
-      </c>
-      <c r="N23" s="213" t="str">
-        <f t="shared" si="5"/>
-        <v>PJa</v>
-      </c>
-      <c r="O23" s="213"/>
-      <c r="P23" s="213"/>
-      <c r="Q23" s="213"/>
+      <c r="I23" s="208"/>
+      <c r="J23" s="209"/>
+      <c r="K23" s="203"/>
+      <c r="L23" s="206"/>
+      <c r="M23" s="203"/>
+      <c r="N23" s="203"/>
+      <c r="O23" s="203"/>
+      <c r="P23" s="203"/>
+      <c r="Q23" s="203"/>
     </row>
     <row r="24" spans="2:17">
       <c r="E24" s="9"/>
@@ -22133,12 +19929,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:AB37"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -22229,44 +20025,44 @@
       <c r="J2" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="T2" s="207" t="s">
+      <c r="T2" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="207"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="208"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="208"/>
-      <c r="AB2" s="208"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="198"/>
+      <c r="W2" s="198"/>
+      <c r="X2" s="198"/>
+      <c r="Y2" s="198"/>
+      <c r="Z2" s="198"/>
+      <c r="AA2" s="198"/>
+      <c r="AB2" s="198"/>
     </row>
     <row r="3" spans="2:28">
-      <c r="T3" s="209" t="s">
+      <c r="T3" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="210" t="s">
+      <c r="U3" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="209" t="s">
+      <c r="V3" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="209" t="s">
+      <c r="W3" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="X3" s="209" t="s">
+      <c r="X3" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="209" t="s">
+      <c r="Y3" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="Z3" s="209" t="s">
+      <c r="Z3" s="199" t="s">
         <v>9</v>
       </c>
-      <c r="AA3" s="209" t="s">
+      <c r="AA3" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="AB3" s="209" t="s">
+      <c r="AB3" s="199" t="s">
         <v>12</v>
       </c>
     </row>
@@ -22290,31 +20086,31 @@
       <c r="Q4" s="52"/>
       <c r="R4" s="52"/>
       <c r="S4" s="52"/>
-      <c r="T4" s="211" t="s">
+      <c r="T4" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="U4" s="211" t="s">
+      <c r="U4" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="211" t="s">
+      <c r="V4" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="W4" s="211" t="s">
+      <c r="W4" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="211" t="s">
+      <c r="X4" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" s="211" t="s">
+      <c r="Y4" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="Z4" s="211" t="s">
+      <c r="Z4" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="AA4" s="211" t="s">
+      <c r="AA4" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="AB4" s="211" t="s">
+      <c r="AB4" s="201" t="s">
         <v>29</v>
       </c>
     </row>
@@ -22338,52 +20134,52 @@
       <c r="Q5" s="52"/>
       <c r="R5" s="52"/>
       <c r="S5" s="52"/>
-      <c r="T5" s="212" t="s">
+      <c r="T5" s="202" t="s">
         <v>93</v>
       </c>
-      <c r="U5" s="213"/>
-      <c r="V5" s="212" t="str">
+      <c r="U5" s="203"/>
+      <c r="V5" s="202" t="str">
         <f>EnergyBalance!$K$2</f>
         <v>ELC</v>
       </c>
-      <c r="W5" s="212" t="str">
+      <c r="W5" s="202" t="str">
         <f>EnergyBalance!$K$3</f>
         <v>Electricity</v>
       </c>
-      <c r="X5" s="212" t="str">
+      <c r="X5" s="202" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="Y5" s="212"/>
-      <c r="Z5" s="212" t="s">
+      <c r="Y5" s="202"/>
+      <c r="Z5" s="202" t="s">
         <v>183</v>
       </c>
-      <c r="AA5" s="224"/>
-      <c r="AB5" s="212" t="s">
+      <c r="AA5" s="214"/>
+      <c r="AB5" s="202" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:28">
-      <c r="T6" s="214" t="s">
+      <c r="T6" s="204" t="s">
         <v>143</v>
       </c>
-      <c r="U6" s="214"/>
-      <c r="V6" s="214" t="str">
+      <c r="U6" s="204"/>
+      <c r="V6" s="204" t="str">
         <f>$B$2&amp;EnergyBalance!$C$52</f>
         <v>ELCCO2</v>
       </c>
-      <c r="W6" s="214" t="str">
+      <c r="W6" s="204" t="str">
         <f>$C$2&amp;" "&amp;EnergyBalance!$C$53</f>
         <v>Electricity Plants Carbon dioxide</v>
       </c>
-      <c r="X6" s="214" t="str">
+      <c r="X6" s="204" t="str">
         <f>EnergyBalance!$S$2</f>
         <v>kt</v>
       </c>
-      <c r="Y6" s="214"/>
-      <c r="Z6" s="214"/>
-      <c r="AA6" s="214"/>
-      <c r="AB6" s="214"/>
+      <c r="Y6" s="204"/>
+      <c r="Z6" s="204"/>
+      <c r="AA6" s="204"/>
+      <c r="AB6" s="204"/>
     </row>
     <row r="7" spans="2:28">
       <c r="T7" s="2"/>
@@ -22405,17 +20201,17 @@
       <c r="O8" s="149"/>
       <c r="Q8" s="51"/>
       <c r="R8" s="49"/>
-      <c r="T8" s="207" t="s">
+      <c r="T8" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="U8" s="207"/>
-      <c r="V8" s="208"/>
-      <c r="W8" s="208"/>
-      <c r="X8" s="208"/>
-      <c r="Y8" s="208"/>
-      <c r="Z8" s="208"/>
-      <c r="AA8" s="208"/>
-      <c r="AB8" s="208"/>
+      <c r="U8" s="197"/>
+      <c r="V8" s="198"/>
+      <c r="W8" s="198"/>
+      <c r="X8" s="198"/>
+      <c r="Y8" s="198"/>
+      <c r="Z8" s="198"/>
+      <c r="AA8" s="198"/>
+      <c r="AB8" s="198"/>
     </row>
     <row r="9" spans="2:28" ht="25.5" customHeight="1">
       <c r="B9" s="29" t="s">
@@ -22464,35 +20260,35 @@
         <v>185</v>
       </c>
       <c r="Q9" s="55"/>
-      <c r="R9" s="185" t="s">
+      <c r="R9" s="182" t="s">
         <v>175</v>
       </c>
       <c r="S9" s="67"/>
-      <c r="T9" s="209" t="s">
+      <c r="T9" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="U9" s="210" t="s">
+      <c r="U9" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="V9" s="209" t="s">
+      <c r="V9" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="W9" s="209" t="s">
+      <c r="W9" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="X9" s="209" t="s">
+      <c r="X9" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="Y9" s="209" t="s">
+      <c r="Y9" s="199" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="209" t="s">
+      <c r="Z9" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="209" t="s">
+      <c r="AA9" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="AB9" s="209" t="s">
+      <c r="AB9" s="199" t="s">
         <v>20</v>
       </c>
     </row>
@@ -22545,31 +20341,31 @@
         <v>164</v>
       </c>
       <c r="S10" s="68"/>
-      <c r="T10" s="211" t="s">
+      <c r="T10" s="201" t="s">
         <v>41</v>
       </c>
-      <c r="U10" s="211" t="s">
+      <c r="U10" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="V10" s="211" t="s">
+      <c r="V10" s="201" t="s">
         <v>21</v>
       </c>
-      <c r="W10" s="211" t="s">
+      <c r="W10" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="X10" s="211" t="s">
+      <c r="X10" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="Y10" s="211" t="s">
+      <c r="Y10" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="Z10" s="211" t="s">
+      <c r="Z10" s="201" t="s">
         <v>46</v>
       </c>
-      <c r="AA10" s="211" t="s">
+      <c r="AA10" s="201" t="s">
         <v>45</v>
       </c>
-      <c r="AB10" s="211" t="s">
+      <c r="AB10" s="201" t="s">
         <v>25</v>
       </c>
     </row>
@@ -22619,17 +20415,17 @@
         <v>188</v>
       </c>
       <c r="S11" s="68"/>
-      <c r="T11" s="211" t="s">
+      <c r="T11" s="201" t="s">
         <v>103</v>
       </c>
-      <c r="U11" s="211"/>
-      <c r="V11" s="211"/>
-      <c r="W11" s="211"/>
-      <c r="X11" s="211"/>
-      <c r="Y11" s="211"/>
-      <c r="Z11" s="211"/>
-      <c r="AA11" s="211"/>
-      <c r="AB11" s="211"/>
+      <c r="U11" s="201"/>
+      <c r="V11" s="201"/>
+      <c r="W11" s="201"/>
+      <c r="X11" s="201"/>
+      <c r="Y11" s="201"/>
+      <c r="Z11" s="201"/>
+      <c r="AA11" s="201"/>
+      <c r="AB11" s="201"/>
     </row>
     <row r="12" spans="2:28">
       <c r="B12" s="49" t="str">
@@ -22649,14 +20445,14 @@
         <v>137.49657086578924</v>
       </c>
       <c r="F12" s="152"/>
-      <c r="G12" s="200">
+      <c r="G12" s="191">
         <v>0.38400000000000001</v>
       </c>
       <c r="H12" s="140">
         <v>0.85</v>
       </c>
       <c r="I12" s="139"/>
-      <c r="J12" s="200">
+      <c r="J12" s="191">
         <v>40</v>
       </c>
       <c r="K12" s="140">
@@ -22665,7 +20461,7 @@
       <c r="L12" s="139">
         <v>30</v>
       </c>
-      <c r="O12" s="194">
+      <c r="O12" s="187">
         <v>31.536000000000001</v>
       </c>
       <c r="P12" s="140">
@@ -22677,31 +20473,31 @@
         <v>3685.6780800000001</v>
       </c>
       <c r="S12" s="68"/>
-      <c r="T12" s="213" t="s">
+      <c r="T12" s="203" t="s">
         <v>162</v>
       </c>
-      <c r="U12" s="213"/>
-      <c r="V12" s="213" t="str">
+      <c r="U12" s="203"/>
+      <c r="V12" s="203" t="str">
         <f>$B$2&amp;$C$5&amp;$I$2&amp;RIGHT(Sector_Fuels!$K$7,3)&amp;"00"</f>
         <v>ELCTECOA00</v>
       </c>
-      <c r="W12" s="217" t="str">
+      <c r="W12" s="207" t="str">
         <f>$D$2&amp;" "&amp;$I$1&amp;RIGHT(V12,2)&amp;" - "&amp;EnergyBalance!D3</f>
         <v>Power Plants Existing00 - Solid Fuels</v>
       </c>
-      <c r="X12" s="213" t="str">
-        <f t="shared" ref="X12:X19" si="0">$E$2</f>
+      <c r="X12" s="203" t="str">
+        <f t="shared" ref="X12:X18" si="0">$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="Y12" s="213" t="str">
-        <f t="shared" ref="Y12:Y19" si="1">$F$2</f>
+      <c r="Y12" s="203" t="str">
+        <f t="shared" ref="Y12:Y18" si="1">$F$2</f>
         <v>GW</v>
       </c>
-      <c r="Z12" s="212" t="s">
+      <c r="Z12" s="202" t="s">
         <v>184</v>
       </c>
-      <c r="AA12" s="213"/>
-      <c r="AB12" s="213"/>
+      <c r="AA12" s="203"/>
+      <c r="AB12" s="203"/>
     </row>
     <row r="13" spans="2:28">
       <c r="D13" s="49" t="str">
@@ -22710,10 +20506,10 @@
       </c>
       <c r="E13" s="152"/>
       <c r="F13" s="152"/>
-      <c r="G13" s="200"/>
+      <c r="G13" s="191"/>
       <c r="H13" s="140"/>
       <c r="I13" s="139"/>
-      <c r="J13" s="200"/>
+      <c r="J13" s="191"/>
       <c r="K13" s="140"/>
       <c r="L13" s="139"/>
       <c r="N13" s="155">
@@ -22724,27 +20520,27 @@
       <c r="Q13" s="51"/>
       <c r="R13" s="66"/>
       <c r="S13" s="69"/>
-      <c r="T13" s="213"/>
-      <c r="U13" s="213"/>
-      <c r="V13" s="213" t="str">
+      <c r="T13" s="203"/>
+      <c r="U13" s="203"/>
+      <c r="V13" s="203" t="str">
         <f>$B$2&amp;$C$5&amp;$I$2&amp;RIGHT(Sector_Fuels!$K$8,3)&amp;"00"</f>
         <v>ELCTEGAS00</v>
       </c>
-      <c r="W13" s="217" t="str">
+      <c r="W13" s="207" t="str">
         <f>$D$2&amp;" "&amp;$I$1&amp;RIGHT(V13,2)&amp;" - "&amp;EnergyBalance!E3</f>
         <v>Power Plants Existing00 - Natural Gas</v>
       </c>
-      <c r="X13" s="213" t="str">
+      <c r="X13" s="203" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="Y13" s="213" t="str">
+      <c r="Y13" s="203" t="str">
         <f t="shared" si="1"/>
         <v>GW</v>
       </c>
-      <c r="Z13" s="213"/>
-      <c r="AA13" s="213"/>
-      <c r="AB13" s="213"/>
+      <c r="Z13" s="203"/>
+      <c r="AA13" s="203"/>
+      <c r="AB13" s="203"/>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="49" t="str">
@@ -22764,14 +20560,14 @@
         <v>103.62609445787447</v>
       </c>
       <c r="F14" s="152"/>
-      <c r="G14" s="201">
+      <c r="G14" s="192">
         <v>0.4929</v>
       </c>
       <c r="H14" s="140">
         <v>0.85</v>
       </c>
       <c r="I14" s="139"/>
-      <c r="J14" s="200">
+      <c r="J14" s="191">
         <v>35</v>
       </c>
       <c r="K14" s="140">
@@ -22781,7 +20577,7 @@
         <v>20</v>
       </c>
       <c r="N14" s="56"/>
-      <c r="O14" s="194">
+      <c r="O14" s="187">
         <v>31.536000000000001</v>
       </c>
       <c r="P14" s="140">
@@ -22793,27 +20589,27 @@
         <v>2777.7596376000001</v>
       </c>
       <c r="S14" s="69"/>
-      <c r="T14" s="213"/>
-      <c r="U14" s="213"/>
-      <c r="V14" s="213" t="str">
+      <c r="T14" s="203"/>
+      <c r="U14" s="203"/>
+      <c r="V14" s="203" t="str">
         <f>$B$2&amp;$C$5&amp;$I$2&amp;RIGHT(Sector_Fuels!$K$9,3)&amp;"00"</f>
         <v>ELCTEOIL00</v>
       </c>
-      <c r="W14" s="217" t="str">
+      <c r="W14" s="207" t="str">
         <f>$D$2&amp;" "&amp;$I$1&amp;RIGHT(V14,2)&amp;" - "&amp;EnergyBalance!F3</f>
         <v>Power Plants Existing00 - Crude Oil</v>
       </c>
-      <c r="X14" s="213" t="str">
+      <c r="X14" s="203" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="Y14" s="213" t="str">
+      <c r="Y14" s="203" t="str">
         <f t="shared" si="1"/>
         <v>GW</v>
       </c>
-      <c r="Z14" s="213"/>
-      <c r="AA14" s="213"/>
-      <c r="AB14" s="213"/>
+      <c r="Z14" s="203"/>
+      <c r="AA14" s="203"/>
+      <c r="AB14" s="203"/>
     </row>
     <row r="15" spans="2:28">
       <c r="D15" s="49" t="str">
@@ -22822,10 +20618,10 @@
       </c>
       <c r="E15" s="152"/>
       <c r="F15" s="152"/>
-      <c r="G15" s="200"/>
+      <c r="G15" s="191"/>
       <c r="H15" s="140"/>
       <c r="I15" s="139"/>
-      <c r="J15" s="200"/>
+      <c r="J15" s="191"/>
       <c r="K15" s="140"/>
       <c r="L15" s="139"/>
       <c r="N15" s="155">
@@ -22836,27 +20632,27 @@
       <c r="Q15" s="51"/>
       <c r="R15" s="66"/>
       <c r="S15" s="69"/>
-      <c r="T15" s="213"/>
-      <c r="U15" s="213"/>
-      <c r="V15" s="213" t="str">
+      <c r="T15" s="203"/>
+      <c r="U15" s="203"/>
+      <c r="V15" s="203" t="str">
         <f>$B$2&amp;$E$5&amp;$I$2&amp;RIGHT(Sector_Fuels!$K$10,3)&amp;"00"</f>
         <v>ELCRERNW00</v>
       </c>
-      <c r="W15" s="217" t="str">
+      <c r="W15" s="207" t="str">
         <f>$D$2&amp;" "&amp;$I$1&amp;RIGHT(V15,2)&amp;" - "&amp;EnergyBalance!H3</f>
         <v>Power Plants Existing00 - Renewable Energies</v>
       </c>
-      <c r="X15" s="213" t="str">
+      <c r="X15" s="203" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="Y15" s="213" t="str">
+      <c r="Y15" s="203" t="str">
         <f t="shared" si="1"/>
         <v>GW</v>
       </c>
-      <c r="Z15" s="213"/>
-      <c r="AA15" s="213"/>
-      <c r="AB15" s="213"/>
+      <c r="Z15" s="203"/>
+      <c r="AA15" s="203"/>
+      <c r="AB15" s="203"/>
     </row>
     <row r="16" spans="2:28">
       <c r="B16" s="49" t="str">
@@ -22876,14 +20672,14 @@
         <v>11.421204897484106</v>
       </c>
       <c r="F16" s="152"/>
-      <c r="G16" s="201">
+      <c r="G16" s="192">
         <v>0.25</v>
       </c>
       <c r="H16" s="154">
         <v>0.85</v>
       </c>
       <c r="I16" s="141"/>
-      <c r="J16" s="201">
+      <c r="J16" s="192">
         <v>20</v>
       </c>
       <c r="K16" s="154">
@@ -22894,7 +20690,7 @@
       </c>
       <c r="M16" s="151"/>
       <c r="N16" s="56"/>
-      <c r="O16" s="194">
+      <c r="O16" s="187">
         <v>31.536000000000001</v>
       </c>
       <c r="P16" s="140">
@@ -22906,29 +20702,29 @@
         <v>306.15224999999992</v>
       </c>
       <c r="S16" s="69"/>
-      <c r="T16" s="213"/>
-      <c r="U16" s="213"/>
-      <c r="V16" s="213" t="str">
-        <f>$B$2&amp;$C$5&amp;$I$2&amp;RIGHT(Sector_Fuels!$K$11,3)&amp;"00"</f>
-        <v>ELCTENUC00</v>
-      </c>
-      <c r="W16" s="217" t="str">
-        <f>$D$2&amp;" "&amp;$I$1&amp;RIGHT(V16,2)&amp;" - "&amp;EnergyBalance!G3</f>
-        <v>Power Plants Existing00 - Nuclear Energy</v>
-      </c>
-      <c r="X16" s="213" t="str">
+      <c r="T16" s="203"/>
+      <c r="U16" s="203"/>
+      <c r="V16" s="203" t="str">
+        <f>$B$2&amp;$C$5&amp;$J$2&amp;RIGHT(Sector_Fuels!$K$7,3)&amp;"00"</f>
+        <v>ELCTNCOA00</v>
+      </c>
+      <c r="W16" s="207" t="str">
+        <f>$D$2&amp;" "&amp;$J$1&amp;RIGHT(V16,2)&amp;" - "&amp;EnergyBalance!D3</f>
+        <v>Power Plants New00 - Solid Fuels</v>
+      </c>
+      <c r="X16" s="203" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="Y16" s="213" t="str">
+      <c r="Y16" s="203" t="str">
         <f t="shared" si="1"/>
         <v>GW</v>
       </c>
-      <c r="Z16" s="212" t="s">
+      <c r="Z16" s="202" t="s">
         <v>184</v>
       </c>
-      <c r="AA16" s="213"/>
-      <c r="AB16" s="213"/>
+      <c r="AA16" s="203"/>
+      <c r="AB16" s="203"/>
     </row>
     <row r="17" spans="2:28">
       <c r="D17" s="49" t="str">
@@ -22937,10 +20733,10 @@
       </c>
       <c r="E17" s="153"/>
       <c r="F17" s="153"/>
-      <c r="G17" s="201"/>
+      <c r="G17" s="192"/>
       <c r="H17" s="154"/>
       <c r="I17" s="141"/>
-      <c r="J17" s="201"/>
+      <c r="J17" s="192"/>
       <c r="K17" s="154"/>
       <c r="L17" s="141"/>
       <c r="M17" s="151"/>
@@ -22949,33 +20745,31 @@
         <v>305.60000000000002</v>
       </c>
       <c r="O17" s="53"/>
-      <c r="P17" s="197"/>
+      <c r="P17" s="188"/>
       <c r="Q17" s="51"/>
       <c r="R17" s="66"/>
       <c r="S17" s="69"/>
-      <c r="T17" s="213"/>
-      <c r="U17" s="213"/>
-      <c r="V17" s="213" t="str">
-        <f>$B$2&amp;$C$5&amp;$J$2&amp;RIGHT(Sector_Fuels!$K$7,3)&amp;"00"</f>
-        <v>ELCTNCOA00</v>
-      </c>
-      <c r="W17" s="217" t="str">
-        <f>$D$2&amp;" "&amp;$J$1&amp;RIGHT(V17,2)&amp;" - "&amp;EnergyBalance!D3</f>
-        <v>Power Plants New00 - Solid Fuels</v>
-      </c>
-      <c r="X17" s="213" t="str">
+      <c r="T17" s="203"/>
+      <c r="U17" s="203"/>
+      <c r="V17" s="203" t="str">
+        <f>$B$2&amp;$C$5&amp;$J$2&amp;RIGHT(Sector_Fuels!$K$8,3)&amp;"00"</f>
+        <v>ELCTNGAS00</v>
+      </c>
+      <c r="W17" s="207" t="str">
+        <f>$D$2&amp;" "&amp;$J$1&amp;RIGHT(V17,2)&amp;" - "&amp;EnergyBalance!E3</f>
+        <v>Power Plants New00 - Natural Gas</v>
+      </c>
+      <c r="X17" s="203" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="Y17" s="213" t="str">
+      <c r="Y17" s="203" t="str">
         <f t="shared" si="1"/>
         <v>GW</v>
       </c>
-      <c r="Z17" s="212" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA17" s="213"/>
-      <c r="AB17" s="213"/>
+      <c r="Z17" s="203"/>
+      <c r="AA17" s="203"/>
+      <c r="AB17" s="203"/>
     </row>
     <row r="18" spans="2:28">
       <c r="B18" s="49" t="str">
@@ -22998,20 +20792,20 @@
         <f>E18</f>
         <v>88.483849145949605</v>
       </c>
-      <c r="G18" s="200">
+      <c r="G18" s="191">
         <v>1</v>
       </c>
       <c r="H18" s="140">
         <v>0.45</v>
       </c>
       <c r="I18" s="139"/>
-      <c r="J18" s="200">
+      <c r="J18" s="191">
         <v>70</v>
       </c>
       <c r="K18" s="140"/>
       <c r="L18" s="156"/>
       <c r="N18" s="56"/>
-      <c r="O18" s="194">
+      <c r="O18" s="187">
         <v>31.536000000000001</v>
       </c>
       <c r="P18" s="140">
@@ -23023,142 +20817,98 @@
         <v>1255.692</v>
       </c>
       <c r="S18" s="69"/>
-      <c r="T18" s="213"/>
-      <c r="U18" s="213"/>
-      <c r="V18" s="213" t="str">
-        <f>$B$2&amp;$C$5&amp;$J$2&amp;RIGHT(Sector_Fuels!$K$8,3)&amp;"00"</f>
-        <v>ELCTNGAS00</v>
-      </c>
-      <c r="W18" s="217" t="str">
-        <f>$D$2&amp;" "&amp;$J$1&amp;RIGHT(V18,2)&amp;" - "&amp;EnergyBalance!E3</f>
-        <v>Power Plants New00 - Natural Gas</v>
-      </c>
-      <c r="X18" s="213" t="str">
+      <c r="T18" s="203"/>
+      <c r="U18" s="203"/>
+      <c r="V18" s="203" t="str">
+        <f>$B$2&amp;$C$5&amp;$J$2&amp;RIGHT(Sector_Fuels!$K$9,3)&amp;"00"</f>
+        <v>ELCTNOIL00</v>
+      </c>
+      <c r="W18" s="207" t="str">
+        <f>$D$2&amp;" "&amp;$J$1&amp;RIGHT(V18,2)&amp;" - "&amp;EnergyBalance!F3</f>
+        <v>Power Plants New00 - Crude Oil</v>
+      </c>
+      <c r="X18" s="203" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="Y18" s="213" t="str">
+      <c r="Y18" s="203" t="str">
         <f t="shared" si="1"/>
         <v>GW</v>
       </c>
-      <c r="Z18" s="213"/>
-      <c r="AA18" s="213"/>
-      <c r="AB18" s="213"/>
+      <c r="Z18" s="203"/>
+      <c r="AA18" s="203"/>
+      <c r="AB18" s="203"/>
     </row>
     <row r="19" spans="2:28">
-      <c r="B19" s="188" t="str">
+      <c r="B19" s="49" t="str">
         <f>V16</f>
-        <v>ELCTENUC00</v>
-      </c>
-      <c r="C19" s="188" t="str">
-        <f>$B$2&amp;RIGHT(Sector_Fuels!$K$11,3)</f>
-        <v>ELCNUC</v>
-      </c>
-      <c r="D19" s="188" t="str">
+        <v>ELCTNCOA00</v>
+      </c>
+      <c r="C19" s="49" t="str">
+        <f>$B$2&amp;RIGHT(Sector_Fuels!$K$7,3)</f>
+        <v>ELCCOA</v>
+      </c>
+      <c r="D19" s="49" t="str">
         <f>$V$5</f>
         <v>ELC</v>
       </c>
-      <c r="E19" s="189">
-        <f>(-EnergyBalance!G11*G19)/(H19*O19)</f>
-        <v>125.28183557415862</v>
-      </c>
-      <c r="F19" s="189">
-        <f>E19</f>
-        <v>125.28183557415862</v>
-      </c>
-      <c r="G19" s="202">
-        <v>0.33</v>
-      </c>
-      <c r="H19" s="191">
-        <v>0.9</v>
-      </c>
-      <c r="I19" s="202"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="140">
+        <v>0.42</v>
+      </c>
+      <c r="H19" s="140">
+        <v>0.85</v>
+      </c>
+      <c r="I19" s="139">
+        <v>1650</v>
+      </c>
       <c r="J19" s="191">
-        <v>38</v>
-      </c>
-      <c r="K19" s="190">
-        <v>0.27</v>
-      </c>
-      <c r="L19" s="187"/>
-      <c r="M19" s="188"/>
-      <c r="N19" s="195"/>
-      <c r="O19" s="196">
+        <v>35</v>
+      </c>
+      <c r="K19" s="140">
+        <v>0.4</v>
+      </c>
+      <c r="L19" s="139">
+        <v>40</v>
+      </c>
+      <c r="M19" s="155">
+        <v>2006</v>
+      </c>
+      <c r="N19" s="56"/>
+      <c r="O19" s="187">
         <v>31.536000000000001</v>
       </c>
-      <c r="P19" s="191">
+      <c r="P19" s="140">
         <v>1</v>
       </c>
-      <c r="Q19" s="188"/>
-      <c r="R19" s="192">
-        <f>E19*H19*O19</f>
-        <v>3555.7991699999998</v>
-      </c>
+      <c r="Q19" s="184"/>
+      <c r="R19" s="185"/>
       <c r="S19" s="69"/>
-      <c r="T19" s="213"/>
-      <c r="U19" s="213"/>
-      <c r="V19" s="213" t="str">
-        <f>$B$2&amp;$C$5&amp;$J$2&amp;RIGHT(Sector_Fuels!$K$9,3)&amp;"00"</f>
-        <v>ELCTNOIL00</v>
-      </c>
-      <c r="W19" s="217" t="str">
-        <f>$D$2&amp;" "&amp;$J$1&amp;RIGHT(V19,2)&amp;" - "&amp;EnergyBalance!F3</f>
-        <v>Power Plants New00 - Crude Oil</v>
-      </c>
-      <c r="X19" s="213" t="str">
-        <f t="shared" si="0"/>
-        <v>PJ</v>
-      </c>
-      <c r="Y19" s="213" t="str">
-        <f t="shared" si="1"/>
-        <v>GW</v>
-      </c>
-      <c r="Z19" s="213"/>
-      <c r="AA19" s="213"/>
-      <c r="AB19" s="213"/>
+      <c r="T19" s="203"/>
+      <c r="U19" s="203"/>
+      <c r="AA19" s="203"/>
+      <c r="AB19" s="203"/>
     </row>
     <row r="20" spans="2:28">
-      <c r="B20" s="49" t="str">
-        <f>V17</f>
-        <v>ELCTNCOA00</v>
-      </c>
-      <c r="C20" s="49" t="str">
-        <f>$B$2&amp;RIGHT(Sector_Fuels!$K$7,3)</f>
-        <v>ELCCOA</v>
-      </c>
       <c r="D20" s="49" t="str">
-        <f>$V$5</f>
-        <v>ELC</v>
+        <f>$V$6</f>
+        <v>ELCCO2</v>
       </c>
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
-      <c r="G20" s="140">
-        <v>0.42</v>
-      </c>
-      <c r="H20" s="140">
-        <v>0.85</v>
-      </c>
-      <c r="I20" s="139">
-        <v>1650</v>
-      </c>
-      <c r="J20" s="200">
-        <v>35</v>
-      </c>
-      <c r="K20" s="140">
-        <v>0.4</v>
-      </c>
-      <c r="L20" s="139">
-        <v>40</v>
-      </c>
-      <c r="M20" s="155">
-        <v>2006</v>
-      </c>
-      <c r="N20" s="56"/>
-      <c r="O20" s="194">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="P20" s="140">
-        <v>1</v>
-      </c>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="191"/>
+      <c r="K20" s="140"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="155">
+        <f>99.8/G19</f>
+        <v>237.61904761904762</v>
+      </c>
+      <c r="P20" s="150"/>
       <c r="Q20" s="49"/>
       <c r="R20" s="49"/>
       <c r="S20" s="69"/>
@@ -23173,165 +20923,147 @@
       <c r="AB20" s="9"/>
     </row>
     <row r="21" spans="2:28">
+      <c r="B21" s="49" t="str">
+        <f>V17</f>
+        <v>ELCTNGAS00</v>
+      </c>
+      <c r="C21" s="49" t="str">
+        <f>$B$2&amp;RIGHT(Sector_Fuels!$K$8,3)</f>
+        <v>ELCGAS</v>
+      </c>
       <c r="D21" s="49" t="str">
+        <f>$V$5</f>
+        <v>ELC</v>
+      </c>
+      <c r="G21" s="139">
+        <v>0.52</v>
+      </c>
+      <c r="H21" s="140">
+        <v>0.85</v>
+      </c>
+      <c r="I21" s="139">
+        <v>750</v>
+      </c>
+      <c r="J21" s="191">
+        <v>30</v>
+      </c>
+      <c r="K21" s="140">
+        <v>0.35</v>
+      </c>
+      <c r="L21" s="139">
+        <v>30</v>
+      </c>
+      <c r="M21" s="155">
+        <v>2006</v>
+      </c>
+      <c r="N21" s="56"/>
+      <c r="O21" s="187">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="P21" s="140">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+    </row>
+    <row r="22" spans="2:28">
+      <c r="D22" s="49" t="str">
         <f>$V$6</f>
         <v>ELCCO2</v>
       </c>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="200"/>
-      <c r="K21" s="140"/>
-      <c r="L21" s="139"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="155">
-        <f>99.8/G20</f>
-        <v>237.61904761904762</v>
-      </c>
-      <c r="P21" s="150"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-    </row>
-    <row r="22" spans="2:28">
-      <c r="B22" s="49" t="str">
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="191"/>
+      <c r="K22" s="140"/>
+      <c r="L22" s="139"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="155">
+        <f>56.1/G21</f>
+        <v>107.88461538461539</v>
+      </c>
+      <c r="P22" s="150"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+    </row>
+    <row r="23" spans="2:28">
+      <c r="B23" s="49" t="str">
         <f>V18</f>
-        <v>ELCTNGAS00</v>
-      </c>
-      <c r="C22" s="49" t="str">
-        <f>$B$2&amp;RIGHT(Sector_Fuels!$K$8,3)</f>
-        <v>ELCGAS</v>
-      </c>
-      <c r="D22" s="49" t="str">
+        <v>ELCTNOIL00</v>
+      </c>
+      <c r="C23" s="49" t="str">
+        <f>$B$2&amp;RIGHT(Sector_Fuels!$K$9,3)</f>
+        <v>ELCOIL</v>
+      </c>
+      <c r="D23" s="49" t="str">
         <f>$V$5</f>
         <v>ELC</v>
       </c>
-      <c r="G22" s="139">
-        <v>0.52</v>
-      </c>
-      <c r="H22" s="140">
+      <c r="G23" s="140">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="140">
         <v>0.85</v>
       </c>
-      <c r="I22" s="139">
-        <v>750</v>
-      </c>
-      <c r="J22" s="200">
-        <v>30</v>
-      </c>
-      <c r="K22" s="140">
-        <v>0.35</v>
-      </c>
-      <c r="L22" s="139">
-        <v>30</v>
-      </c>
-      <c r="M22" s="155">
-        <v>2006</v>
-      </c>
-      <c r="N22" s="56"/>
-      <c r="O22" s="194">
+      <c r="I23" s="141">
+        <v>250</v>
+      </c>
+      <c r="J23" s="192">
+        <v>15</v>
+      </c>
+      <c r="K23" s="154">
+        <v>0.2</v>
+      </c>
+      <c r="L23" s="139">
+        <v>40</v>
+      </c>
+      <c r="M23" s="155">
+        <v>2005</v>
+      </c>
+      <c r="N23" s="56"/>
+      <c r="O23" s="187">
         <v>31.536000000000001</v>
       </c>
-      <c r="P22" s="140">
+      <c r="P23" s="140">
         <v>1</v>
       </c>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-    </row>
-    <row r="23" spans="2:28">
-      <c r="D23" s="49" t="str">
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+    </row>
+    <row r="24" spans="2:28">
+      <c r="D24" s="49" t="str">
         <f>$V$6</f>
         <v>ELCCO2</v>
       </c>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="200"/>
-      <c r="K23" s="140"/>
-      <c r="L23" s="139"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="155">
-        <f>56.1/G22</f>
-        <v>107.88461538461539</v>
-      </c>
-      <c r="P23" s="150"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-    </row>
-    <row r="24" spans="2:28">
-      <c r="B24" s="49" t="str">
-        <f>V19</f>
-        <v>ELCTNOIL00</v>
-      </c>
-      <c r="C24" s="49" t="str">
-        <f>$B$2&amp;RIGHT(Sector_Fuels!$K$9,3)</f>
-        <v>ELCOIL</v>
-      </c>
-      <c r="D24" s="49" t="str">
-        <f>$V$5</f>
-        <v>ELC</v>
-      </c>
-      <c r="G24" s="140">
-        <v>0.3</v>
-      </c>
-      <c r="H24" s="140">
-        <v>0.85</v>
-      </c>
-      <c r="I24" s="141">
-        <v>250</v>
-      </c>
-      <c r="J24" s="201">
-        <v>15</v>
-      </c>
-      <c r="K24" s="154">
-        <v>0.2</v>
-      </c>
-      <c r="L24" s="139">
-        <v>40</v>
-      </c>
-      <c r="M24" s="155">
-        <v>2005</v>
-      </c>
-      <c r="N24" s="56"/>
-      <c r="O24" s="194">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="P24" s="140">
-        <v>1</v>
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="139"/>
+      <c r="K24" s="139"/>
+      <c r="L24" s="139"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="155">
+        <f>76.4/G23</f>
+        <v>254.66666666666669</v>
       </c>
       <c r="Q24" s="49"/>
       <c r="R24" s="49"/>
     </row>
     <row r="25" spans="2:28">
-      <c r="D25" s="49" t="str">
-        <f>$V$6</f>
-        <v>ELCCO2</v>
-      </c>
-      <c r="G25" s="139"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="139"/>
-      <c r="J25" s="139"/>
-      <c r="K25" s="139"/>
-      <c r="L25" s="139"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="155">
-        <f>76.4/G24</f>
-        <v>254.66666666666669</v>
-      </c>
       <c r="Q25" s="49"/>
       <c r="R25" s="49"/>
     </row>
     <row r="27" spans="2:28">
-      <c r="R27" s="186"/>
+      <c r="R27" s="183"/>
     </row>
     <row r="28" spans="2:28">
-      <c r="R28" s="204"/>
+      <c r="R28" s="194"/>
     </row>
     <row r="29" spans="2:28">
-      <c r="R29" s="186"/>
+      <c r="R29" s="183"/>
     </row>
     <row r="30" spans="2:28">
-      <c r="R30" s="205"/>
+      <c r="R30" s="195"/>
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
@@ -23358,7 +21090,7 @@
       <c r="C32" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="R32" s="186"/>
+      <c r="R32" s="183"/>
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
@@ -23384,7 +21116,7 @@
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
       <c r="Z34" s="16"/>
-      <c r="AA34" s="212"/>
+      <c r="AA34" s="202"/>
     </row>
     <row r="35" spans="20:27">
       <c r="T35" s="9"/>
@@ -23419,4 +21151,583 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="B1:T28"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="3" style="49" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="49" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="49" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="49" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="49" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" style="49" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" style="49" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="49" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" style="49" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.5546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" style="49" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="49" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" style="49" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" style="49" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.44140625" style="49" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" ht="14.4">
+      <c r="B1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="177"/>
+      <c r="H1" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="2:20" ht="31.2">
+      <c r="B2" s="34" t="str">
+        <f>EnergyBalance!B8</f>
+        <v>TPS</v>
+      </c>
+      <c r="C2" s="34" t="str">
+        <f>EnergyBalance!C8</f>
+        <v>Total Primary Supply</v>
+      </c>
+      <c r="D2" s="34" t="str">
+        <f>"Demand Technology"</f>
+        <v>Demand Technology</v>
+      </c>
+      <c r="E2" s="20" t="str">
+        <f>EnergyBalance!R2</f>
+        <v>PJ</v>
+      </c>
+      <c r="F2" s="20" t="str">
+        <f>EnergyBalance!Q2</f>
+        <v>M€2005</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="L2" s="210" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="210"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="208"/>
+      <c r="Q2" s="208"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="208"/>
+      <c r="T2" s="208"/>
+    </row>
+    <row r="3" spans="2:20">
+      <c r="G3" s="51"/>
+      <c r="L3" s="211" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="212" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="211" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="211" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="211" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="211" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="211" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="211" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="211" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" s="51" customFormat="1" ht="22.2" thickBot="1">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="L4" s="201" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="201" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="201" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="201" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="201" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="201" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="201" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="201" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="201" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" s="51" customFormat="1" ht="15.6">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="L5" s="213" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" s="214"/>
+      <c r="N5" s="213" t="str">
+        <f>B2&amp;EnergyBalance!D2</f>
+        <v>TPSCOA</v>
+      </c>
+      <c r="O5" s="213" t="str">
+        <f>LEFT($D$2,6)&amp;" "&amp;$C$2&amp;" - "&amp;EnergyBalance!D2</f>
+        <v>Demand Total Primary Supply - COA</v>
+      </c>
+      <c r="P5" s="213" t="str">
+        <f>$E$2</f>
+        <v>PJ</v>
+      </c>
+      <c r="Q5" s="213"/>
+      <c r="R5" s="213"/>
+      <c r="S5" s="213"/>
+      <c r="T5" s="213"/>
+    </row>
+    <row r="8" spans="2:20">
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="6"/>
+      <c r="L8" s="210" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="210"/>
+      <c r="N8" s="209"/>
+      <c r="O8" s="209"/>
+      <c r="P8" s="209"/>
+      <c r="Q8" s="209"/>
+      <c r="R8" s="209"/>
+      <c r="S8" s="209"/>
+      <c r="T8" s="209"/>
+    </row>
+    <row r="9" spans="2:20">
+      <c r="B9" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="160" t="s">
+        <v>205</v>
+      </c>
+      <c r="F9" s="159" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="159" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="159" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="159" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="160" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="211" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="212" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="211" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="211" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="211" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="211" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="211" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9" s="211" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" s="211" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="21.6" thickBot="1">
+      <c r="B10" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="178" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="L10" s="201" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="201" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="201" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="201" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="201" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="201" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="201" t="s">
+        <v>46</v>
+      </c>
+      <c r="S10" s="201" t="s">
+        <v>45</v>
+      </c>
+      <c r="T10" s="201" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="13.8" thickBot="1">
+      <c r="B11" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="24" t="str">
+        <f>E2&amp;"a"</f>
+        <v>PJa</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="24" t="str">
+        <f>$F$2&amp;"/"&amp;$E$2</f>
+        <v>M€2005/PJ</v>
+      </c>
+      <c r="I11" s="24" t="str">
+        <f>$F$2&amp;"/"&amp;$E$2&amp;"a"</f>
+        <v>M€2005/PJa</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" s="201" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" s="201"/>
+      <c r="N11" s="201"/>
+      <c r="O11" s="201"/>
+      <c r="P11" s="201"/>
+      <c r="Q11" s="201"/>
+      <c r="R11" s="201"/>
+      <c r="S11" s="201"/>
+      <c r="T11" s="201"/>
+    </row>
+    <row r="12" spans="2:20">
+      <c r="B12" s="49" t="str">
+        <f>N12</f>
+        <v>DTPSCOA</v>
+      </c>
+      <c r="C12" s="49" t="str">
+        <f>RIGHT(B12,3)</f>
+        <v>COA</v>
+      </c>
+      <c r="D12" s="49" t="str">
+        <f>$N$5</f>
+        <v>TPSCOA</v>
+      </c>
+      <c r="E12" s="51"/>
+      <c r="F12" s="140">
+        <v>1</v>
+      </c>
+      <c r="G12" s="140">
+        <v>0.95</v>
+      </c>
+      <c r="H12" s="139">
+        <v>10</v>
+      </c>
+      <c r="I12" s="140">
+        <f>H12*0.02</f>
+        <v>0.2</v>
+      </c>
+      <c r="J12" s="139">
+        <v>20</v>
+      </c>
+      <c r="L12" s="213" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" s="214"/>
+      <c r="N12" s="214" t="str">
+        <f>LEFT(L12,1)&amp;B2&amp;RIGHT(O12,3)</f>
+        <v>DTPSCOA</v>
+      </c>
+      <c r="O12" s="215" t="str">
+        <f>$D$2&amp;" "&amp;$C$2&amp;" - "&amp;EnergyBalance!D2</f>
+        <v>Demand Technology Total Primary Supply - COA</v>
+      </c>
+      <c r="P12" s="214" t="str">
+        <f>$E$2</f>
+        <v>PJ</v>
+      </c>
+      <c r="Q12" s="214" t="str">
+        <f>$E$2&amp;"a"</f>
+        <v>PJa</v>
+      </c>
+      <c r="R12" s="214"/>
+      <c r="S12" s="214"/>
+      <c r="T12" s="214"/>
+    </row>
+    <row r="13" spans="2:20">
+      <c r="D13" s="51"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="171"/>
+      <c r="G13" s="171"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="51"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="170"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+    </row>
+    <row r="14" spans="2:20">
+      <c r="B14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="52"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="173"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+    </row>
+    <row r="15" spans="2:20">
+      <c r="B15" s="53"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="52"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="173"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+    </row>
+    <row r="16" spans="2:20">
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="I18" s="149"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="I19" s="149"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" s="139"/>
+      <c r="C23" s="50" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" s="174"/>
+      <c r="C24" s="50" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="K25" s="50"/>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="K26" s="50"/>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="K27" s="50"/>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="K28" s="50"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/VT_REG_PRI.xlsx
+++ b/VT_REG_PRI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Caso_Base_Junio_VEDA\CasoBase_Junio_Simulacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FDC26D-401F-4BF1-95C5-23EBC90421DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5066823-00A4-430E-BD54-FCBF0DF057FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -6091,7 +6091,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="217">
   <si>
     <t>CommName</t>
   </si>
@@ -7357,7 +7357,7 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7733,6 +7733,7 @@
     <xf numFmtId="0" fontId="21" fillId="13" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -12679,7 +12680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -13879,8 +13880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:Y34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46:G49"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -14345,13 +14346,19 @@
         <f>$M$5</f>
         <v>OIL</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="E14" s="16">
+        <v>2005</v>
+      </c>
+      <c r="F14" s="211" t="s">
+        <v>206</v>
+      </c>
       <c r="G14" s="15"/>
       <c r="H14" s="134">
         <v>8</v>
       </c>
-      <c r="I14" s="132"/>
+      <c r="I14" s="132">
+        <v>1000</v>
+      </c>
       <c r="K14" s="197" t="str">
         <f>EnergyBalance!$B$6</f>
         <v>IMP</v>
@@ -15406,7 +15413,7 @@
         <v>Residential Natural Gas</v>
       </c>
       <c r="M5" s="197" t="str">
-        <f t="shared" ref="M5:M10" si="0">$E$2</f>
+        <f t="shared" ref="M5:M9" si="0">$E$2</f>
         <v>PJ</v>
       </c>
       <c r="N5" s="197"/>
@@ -15687,11 +15694,11 @@
     </row>
     <row r="17" spans="2:17">
       <c r="B17" t="str">
-        <f t="shared" ref="B17:B22" si="1">K17</f>
+        <f t="shared" ref="B17:B18" si="1">K17</f>
         <v>FTE-RSDGAS</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" ref="C17:C22" si="2">RIGHT(D17,3)</f>
+        <f t="shared" ref="C17:C18" si="2">RIGHT(D17,3)</f>
         <v>GAS</v>
       </c>
       <c r="D17" t="str">
@@ -15710,7 +15717,7 @@
       </c>
       <c r="J17" s="197"/>
       <c r="K17" s="197" t="str">
-        <f t="shared" ref="K17:K22" si="3">"FT"&amp;$G$2&amp;"-"&amp;K5</f>
+        <f t="shared" ref="K17:K18" si="3">"FT"&amp;$G$2&amp;"-"&amp;K5</f>
         <v>FTE-RSDGAS</v>
       </c>
       <c r="L17" s="200" t="str">
@@ -15718,11 +15725,11 @@
         <v>Sector Fuel Existing Residential Sector- Natural Gas</v>
       </c>
       <c r="M17" s="197" t="str">
-        <f t="shared" ref="M17:M22" si="4">$E$2</f>
+        <f t="shared" ref="M17:M21" si="4">$E$2</f>
         <v>PJ</v>
       </c>
       <c r="N17" s="197" t="str">
-        <f t="shared" ref="N17:N22" si="5">$E$2&amp;"a"</f>
+        <f t="shared" ref="N17:N21" si="5">$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
       <c r="O17" s="197"/>
@@ -16534,11 +16541,11 @@
         <v>Power Plants Existing00 - Natural Gas</v>
       </c>
       <c r="X12" s="197" t="str">
-        <f t="shared" ref="X12:X18" si="0">$E$2</f>
+        <f t="shared" ref="X12:X16" si="0">$E$2</f>
         <v>PJ</v>
       </c>
       <c r="Y12" s="197" t="str">
-        <f t="shared" ref="Y12:Y18" si="1">$F$2</f>
+        <f t="shared" ref="Y12:Y16" si="1">$F$2</f>
         <v>GW</v>
       </c>
       <c r="Z12" s="196"/>

--- a/VT_REG_PRI.xlsx
+++ b/VT_REG_PRI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Caso_Base_Junio_VEDA\CasoBase_Junio_Simulacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5066823-00A4-430E-BD54-FCBF0DF057FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E08868E-13E2-4F52-8037-10FED63B91EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="2352" windowWidth="17280" windowHeight="8880" tabRatio="900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -6091,7 +6091,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="217">
   <si>
     <t>CommName</t>
   </si>
@@ -13104,8 +13104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:T34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -13517,7 +13517,7 @@
         <v>5.4</v>
       </c>
       <c r="I13" s="132">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K13" s="197"/>
       <c r="L13" s="197"/>
@@ -13548,13 +13548,19 @@
         <f>$M$5</f>
         <v>GAS</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="E14" s="16">
+        <v>2005</v>
+      </c>
+      <c r="F14" s="211" t="s">
+        <v>206</v>
+      </c>
       <c r="G14" s="15"/>
       <c r="H14" s="134">
         <v>4.5</v>
       </c>
-      <c r="I14" s="132"/>
+      <c r="I14" s="132">
+        <v>1000</v>
+      </c>
       <c r="K14" s="197" t="str">
         <f>EnergyBalance!$B$6</f>
         <v>IMP</v>
@@ -13880,8 +13886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>

--- a/VT_REG_PRI.xlsx
+++ b/VT_REG_PRI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Caso_Base_Junio_VEDA\CasoBase_Junio_Simulacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E08868E-13E2-4F52-8037-10FED63B91EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2DE2FA-FCB0-43A8-B28A-662F7908E5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2352" windowWidth="17280" windowHeight="8880" tabRatio="900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -12680,8 +12680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B1:Q23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -13104,7 +13104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>

--- a/VT_REG_PRI.xlsx
+++ b/VT_REG_PRI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Caso_Base_Junio_VEDA\CasoBase_Junio_Simulacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2DE2FA-FCB0-43A8-B28A-662F7908E5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2205114-2929-4439-A0BD-AA5A8AEC83CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -6091,7 +6091,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="217">
   <si>
     <t>CommName</t>
   </si>
@@ -6942,7 +6942,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7043,6 +7043,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7357,7 +7363,7 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7734,6 +7740,8 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -12680,7 +12688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -13886,8 +13894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:Y34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -14517,10 +14525,8 @@
       <c r="Y21"/>
     </row>
     <row r="22" spans="2:25" s="9" customFormat="1">
-      <c r="B22" s="132"/>
-      <c r="C22" s="1" t="s">
-        <v>196</v>
-      </c>
+      <c r="B22" s="212"/>
+      <c r="C22" s="1"/>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
@@ -14544,10 +14550,8 @@
       <c r="Y22"/>
     </row>
     <row r="23" spans="2:25">
-      <c r="B23" s="129"/>
-      <c r="C23" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="B23" s="213"/>
+      <c r="C23" s="1"/>
       <c r="T23" s="9"/>
     </row>
     <row r="24" spans="2:25">
@@ -15264,7 +15268,7 @@
   <dimension ref="B1:Q28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="B21" sqref="B21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -15996,8 +16000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:AB37"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15:Y16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>

--- a/VT_REG_PRI.xlsx
+++ b/VT_REG_PRI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Caso_Base_Junio_VEDA\CasoBase_Junio_Simulacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2205114-2929-4439-A0BD-AA5A8AEC83CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619A2DAC-F99A-426E-AAAD-069D9E8F0574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12689,7 +12689,7 @@
   <dimension ref="B1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C9" sqref="C9:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -13113,7 +13113,7 @@
   <dimension ref="B1:T34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -13432,14 +13432,13 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="132">
-        <v>15000</v>
+        <v>150000</v>
       </c>
       <c r="H11" s="134">
         <v>3.6</v>
       </c>
       <c r="I11" s="127">
-        <f>EnergyBalance!$E$5*EnergyBalance!E37</f>
-        <v>3949.7485000000001</v>
+        <v>5000</v>
       </c>
       <c r="K11" s="196" t="str">
         <f>EnergyBalance!$B$5</f>
@@ -13476,14 +13475,13 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="132">
-        <v>20000</v>
+        <v>400000</v>
       </c>
       <c r="H12" s="134">
         <v>4.1399999999999997</v>
       </c>
       <c r="I12" s="127">
-        <f>EnergyBalance!$E$5*EnergyBalance!E38</f>
-        <v>3949.7485000000001</v>
+        <v>8000</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="197"/>
@@ -13519,7 +13517,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="132">
-        <v>30000</v>
+        <v>300000</v>
       </c>
       <c r="H13" s="134">
         <v>5.4</v>
@@ -13895,7 +13893,7 @@
   <dimension ref="B1:Y34"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -14240,8 +14238,7 @@
         <v>6.4</v>
       </c>
       <c r="I11" s="127">
-        <f>EnergyBalance!$F$5*EnergyBalance!F37</f>
-        <v>4302.8095999999996</v>
+        <v>8000</v>
       </c>
       <c r="K11" s="196" t="str">
         <f>EnergyBalance!$B$5</f>
@@ -14278,14 +14275,13 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="132">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="H12" s="134">
         <v>7.36</v>
       </c>
       <c r="I12" s="127">
-        <f>EnergyBalance!$F$5*EnergyBalance!F38</f>
-        <v>1075.7023999999999</v>
+        <v>4200</v>
       </c>
       <c r="K12" s="197"/>
       <c r="L12" s="197"/>
@@ -14322,9 +14318,11 @@
         <v>40000</v>
       </c>
       <c r="H13" s="134">
-        <v>9.6</v>
-      </c>
-      <c r="I13" s="132"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I13" s="132">
+        <v>5000</v>
+      </c>
       <c r="K13" s="197"/>
       <c r="L13" s="197"/>
       <c r="M13" s="197" t="str">
@@ -16001,7 +15999,7 @@
   <dimension ref="B1:AB37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:D16"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -16753,6 +16751,9 @@
       </c>
       <c r="K16" s="139"/>
       <c r="L16" s="155"/>
+      <c r="M16" s="49">
+        <v>2015</v>
+      </c>
       <c r="N16" s="56"/>
       <c r="O16" s="181">
         <v>31.536000000000001</v>
@@ -17646,7 +17647,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>

--- a/VT_REG_PRI.xlsx
+++ b/VT_REG_PRI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Caso_Base_Junio_VEDA\CasoBase_Junio_Simulacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619A2DAC-F99A-426E-AAAD-069D9E8F0574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2A0026-D499-4A16-825D-0979E22E076A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -13893,7 +13893,7 @@
   <dimension ref="B1:Y34"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -14232,7 +14232,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="132">
-        <v>24000</v>
+        <v>240000</v>
       </c>
       <c r="H11" s="134">
         <v>6.4</v>
@@ -14275,7 +14275,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="132">
-        <v>16000</v>
+        <v>160000</v>
       </c>
       <c r="H12" s="134">
         <v>7.36</v>
@@ -14315,7 +14315,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="132">
-        <v>40000</v>
+        <v>400000</v>
       </c>
       <c r="H13" s="134">
         <v>9.1999999999999993</v>
@@ -14592,7 +14592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:T38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
@@ -15998,8 +15998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:AB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -16882,7 +16882,7 @@
         <v>ELC</v>
       </c>
       <c r="G19" s="139">
-        <v>0.3</v>
+        <v>0.51</v>
       </c>
       <c r="H19" s="139">
         <v>0.85</v>
@@ -16931,7 +16931,7 @@
       <c r="M20" s="51"/>
       <c r="N20" s="154">
         <f>76.4/G19</f>
-        <v>254.66666666666669</v>
+        <v>149.80392156862746</v>
       </c>
       <c r="Q20" s="49"/>
       <c r="R20" s="49"/>
@@ -17071,7 +17071,7 @@
   <dimension ref="B1:T28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -17647,7 +17647,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>

--- a/VT_REG_PRI.xlsx
+++ b/VT_REG_PRI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Caso_Base_Junio_VEDA\CasoBase_Junio_Simulacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2A0026-D499-4A16-825D-0979E22E076A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3D70DF-3270-439D-8839-FA19A5A3B663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -13112,8 +13112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:T34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -13432,13 +13432,13 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="132">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="134">
         <v>3.6</v>
       </c>
       <c r="I11" s="127">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K11" s="196" t="str">
         <f>EnergyBalance!$B$5</f>
@@ -13893,7 +13893,7 @@
   <dimension ref="B1:Y34"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -14232,7 +14232,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="132">
-        <v>240000</v>
+        <v>80000</v>
       </c>
       <c r="H11" s="134">
         <v>6.4</v>
@@ -14592,7 +14592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>

--- a/VT_REG_PRI.xlsx
+++ b/VT_REG_PRI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Caso_Base_Junio_VEDA\CasoBase_Junio_Simulacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3D70DF-3270-439D-8839-FA19A5A3B663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C84422B-4D1B-485F-9654-E6E575363944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13113,7 +13113,7 @@
   <dimension ref="B1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -13432,7 +13432,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="132">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H11" s="134">
         <v>3.6</v>

--- a/VT_REG_PRI.xlsx
+++ b/VT_REG_PRI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Caso_Base_Junio_VEDA\CasoBase_Junio_Simulacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C84422B-4D1B-485F-9654-E6E575363944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DA7722-53A3-4E52-B0EF-7DBF54C77978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -13112,7 +13112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -13432,7 +13432,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="132">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="H11" s="134">
         <v>3.6</v>
@@ -14232,7 +14232,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="132">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="H11" s="134">
         <v>6.4</v>
@@ -15999,7 +15999,7 @@
   <dimension ref="B1:AB37"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -16752,7 +16752,7 @@
       <c r="K16" s="139"/>
       <c r="L16" s="155"/>
       <c r="M16" s="49">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="N16" s="56"/>
       <c r="O16" s="181">
@@ -17646,8 +17646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -18145,7 +18145,7 @@
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="136">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="G14" s="136">
         <v>0.9</v>
@@ -18161,7 +18161,7 @@
         <v>15</v>
       </c>
       <c r="K14" s="137">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="L14"/>
       <c r="N14" s="9"/>
@@ -18189,7 +18189,7 @@
       <c r="K15" s="32"/>
       <c r="L15" s="183">
         <f>65/F14</f>
-        <v>59.090909090909086</v>
+        <v>46.428571428571431</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
